--- a/rat6/RAT 6 Table.xlsx
+++ b/rat6/RAT 6 Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/670bf520f9ced640/Documents/GitHub/cpe233/rat5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Russe\OneDrive\Documents\GitHub\rat-cpu\rat6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="169ED76ED261F77A16858D1A7184704F6DFB60CA" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{21405CDE-BB9C-4A7C-BE6B-ED589CF819D5}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="169ED76ED261F77A16858D1A7184704F6DFB60CA" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{ABB0BC45-850F-4D81-9ED4-CB081A96BA65}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,14 +441,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1133,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1277,68 +1307,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,6 +1366,101 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1714,9 +1777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE4" sqref="AE4"/>
+      <selection pane="bottomLeft" activeCell="AK39" sqref="AK39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1734,49 +1797,49 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="75" t="s">
+      <c r="D1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="88" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="75" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="78" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="79"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="81" t="s">
+      <c r="U1" s="57"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="77"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="81" t="s">
+      <c r="AA1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="55"/>
       <c r="AE1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1803,23 +1866,23 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="77"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
       <c r="O2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1829,10 +1892,10 @@
       <c r="Q2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="62"/>
       <c r="T2" s="11" t="s">
         <v>20</v>
       </c>
@@ -2243,95 +2306,95 @@
       <c r="AO6" s="4"/>
     </row>
     <row r="7" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="56">
-        <v>0</v>
-      </c>
-      <c r="E7" s="57">
-        <v>0</v>
-      </c>
-      <c r="F7" s="57">
-        <v>0</v>
-      </c>
-      <c r="G7" s="58">
-        <v>0</v>
-      </c>
-      <c r="H7" s="59">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
-        <v>0</v>
-      </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="56">
-        <v>0</v>
-      </c>
-      <c r="L7" s="57">
-        <v>0</v>
-      </c>
-      <c r="M7" s="57">
-        <v>0</v>
-      </c>
-      <c r="N7" s="57">
-        <v>0</v>
-      </c>
-      <c r="O7" s="58">
-        <v>0</v>
-      </c>
-      <c r="P7" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="59">
-        <v>0</v>
-      </c>
-      <c r="R7" s="59">
-        <v>0</v>
-      </c>
-      <c r="S7" s="59">
-        <v>0</v>
-      </c>
-      <c r="T7" s="56">
-        <v>0</v>
-      </c>
-      <c r="U7" s="57">
-        <v>0</v>
-      </c>
-      <c r="V7" s="58">
-        <v>0</v>
-      </c>
-      <c r="W7" s="60">
-        <v>0</v>
-      </c>
-      <c r="X7" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="63">
+      <c r="D7" s="103">
+        <v>0</v>
+      </c>
+      <c r="E7" s="104">
+        <v>0</v>
+      </c>
+      <c r="F7" s="104">
+        <v>0</v>
+      </c>
+      <c r="G7" s="105">
+        <v>0</v>
+      </c>
+      <c r="H7" s="106">
+        <v>1</v>
+      </c>
+      <c r="I7" s="106">
+        <v>0</v>
+      </c>
+      <c r="J7" s="106">
+        <v>0</v>
+      </c>
+      <c r="K7" s="103">
+        <v>0</v>
+      </c>
+      <c r="L7" s="104">
+        <v>0</v>
+      </c>
+      <c r="M7" s="104">
+        <v>0</v>
+      </c>
+      <c r="N7" s="104">
+        <v>0</v>
+      </c>
+      <c r="O7" s="105">
+        <v>0</v>
+      </c>
+      <c r="P7" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="106">
+        <v>0</v>
+      </c>
+      <c r="R7" s="106">
+        <v>0</v>
+      </c>
+      <c r="S7" s="106">
+        <v>0</v>
+      </c>
+      <c r="T7" s="103">
+        <v>0</v>
+      </c>
+      <c r="U7" s="104">
+        <v>0</v>
+      </c>
+      <c r="V7" s="105">
+        <v>0</v>
+      </c>
+      <c r="W7" s="107">
+        <v>1</v>
+      </c>
+      <c r="X7" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="110">
         <v>0</v>
       </c>
       <c r="AF7" s="4"/>
@@ -2346,95 +2409,95 @@
       <c r="AO7" s="4"/>
     </row>
     <row r="8" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="56">
-        <v>0</v>
-      </c>
-      <c r="E8" s="57">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57">
-        <v>0</v>
-      </c>
-      <c r="G8" s="58">
-        <v>0</v>
-      </c>
-      <c r="H8" s="59">
-        <v>0</v>
-      </c>
-      <c r="I8" s="59">
-        <v>0</v>
-      </c>
-      <c r="J8" s="59">
-        <v>0</v>
-      </c>
-      <c r="K8" s="56">
-        <v>0</v>
-      </c>
-      <c r="L8" s="57">
-        <v>0</v>
-      </c>
-      <c r="M8" s="57">
-        <v>0</v>
-      </c>
-      <c r="N8" s="57">
-        <v>0</v>
-      </c>
-      <c r="O8" s="58">
-        <v>0</v>
-      </c>
-      <c r="P8" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="59">
-        <v>0</v>
-      </c>
-      <c r="R8" s="59">
-        <v>0</v>
-      </c>
-      <c r="S8" s="59">
-        <v>0</v>
-      </c>
-      <c r="T8" s="56">
-        <v>0</v>
-      </c>
-      <c r="U8" s="57">
-        <v>0</v>
-      </c>
-      <c r="V8" s="58">
-        <v>0</v>
-      </c>
-      <c r="W8" s="60">
-        <v>0</v>
-      </c>
-      <c r="X8" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="63">
+      <c r="D8" s="103">
+        <v>0</v>
+      </c>
+      <c r="E8" s="104">
+        <v>0</v>
+      </c>
+      <c r="F8" s="104">
+        <v>0</v>
+      </c>
+      <c r="G8" s="105">
+        <v>0</v>
+      </c>
+      <c r="H8" s="106">
+        <v>1</v>
+      </c>
+      <c r="I8" s="106">
+        <v>0</v>
+      </c>
+      <c r="J8" s="106">
+        <v>0</v>
+      </c>
+      <c r="K8" s="103">
+        <v>0</v>
+      </c>
+      <c r="L8" s="104">
+        <v>0</v>
+      </c>
+      <c r="M8" s="104">
+        <v>0</v>
+      </c>
+      <c r="N8" s="104">
+        <v>0</v>
+      </c>
+      <c r="O8" s="105">
+        <v>1</v>
+      </c>
+      <c r="P8" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="106">
+        <v>0</v>
+      </c>
+      <c r="R8" s="106">
+        <v>0</v>
+      </c>
+      <c r="S8" s="106">
+        <v>0</v>
+      </c>
+      <c r="T8" s="103">
+        <v>0</v>
+      </c>
+      <c r="U8" s="104">
+        <v>0</v>
+      </c>
+      <c r="V8" s="105">
+        <v>0</v>
+      </c>
+      <c r="W8" s="107">
+        <v>1</v>
+      </c>
+      <c r="X8" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="110">
         <v>0</v>
       </c>
       <c r="AF8" s="4"/>
@@ -2449,95 +2512,95 @@
       <c r="AO8" s="4"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="56">
-        <v>0</v>
-      </c>
-      <c r="E9" s="57">
-        <v>0</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0</v>
-      </c>
-      <c r="G9" s="58">
-        <v>0</v>
-      </c>
-      <c r="H9" s="59">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
-        <v>0</v>
-      </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="K9" s="56">
-        <v>0</v>
-      </c>
-      <c r="L9" s="57">
-        <v>0</v>
-      </c>
-      <c r="M9" s="57">
-        <v>0</v>
-      </c>
-      <c r="N9" s="57">
-        <v>0</v>
-      </c>
-      <c r="O9" s="58">
-        <v>0</v>
-      </c>
-      <c r="P9" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="59">
-        <v>0</v>
-      </c>
-      <c r="R9" s="59">
-        <v>0</v>
-      </c>
-      <c r="S9" s="59">
-        <v>0</v>
-      </c>
-      <c r="T9" s="56">
-        <v>0</v>
-      </c>
-      <c r="U9" s="57">
-        <v>0</v>
-      </c>
-      <c r="V9" s="58">
-        <v>0</v>
-      </c>
-      <c r="W9" s="60">
-        <v>0</v>
-      </c>
-      <c r="X9" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="63">
+      <c r="D9" s="103">
+        <v>0</v>
+      </c>
+      <c r="E9" s="104">
+        <v>0</v>
+      </c>
+      <c r="F9" s="104">
+        <v>0</v>
+      </c>
+      <c r="G9" s="105">
+        <v>0</v>
+      </c>
+      <c r="H9" s="106">
+        <v>1</v>
+      </c>
+      <c r="I9" s="106">
+        <v>0</v>
+      </c>
+      <c r="J9" s="106">
+        <v>0</v>
+      </c>
+      <c r="K9" s="103">
+        <v>0</v>
+      </c>
+      <c r="L9" s="104">
+        <v>0</v>
+      </c>
+      <c r="M9" s="104">
+        <v>0</v>
+      </c>
+      <c r="N9" s="104">
+        <v>1</v>
+      </c>
+      <c r="O9" s="105">
+        <v>0</v>
+      </c>
+      <c r="P9" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="106">
+        <v>0</v>
+      </c>
+      <c r="R9" s="106">
+        <v>0</v>
+      </c>
+      <c r="S9" s="106">
+        <v>0</v>
+      </c>
+      <c r="T9" s="103">
+        <v>0</v>
+      </c>
+      <c r="U9" s="104">
+        <v>0</v>
+      </c>
+      <c r="V9" s="105">
+        <v>0</v>
+      </c>
+      <c r="W9" s="107">
+        <v>1</v>
+      </c>
+      <c r="X9" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="110">
         <v>0</v>
       </c>
       <c r="AF9" s="4"/>
@@ -2552,95 +2615,95 @@
       <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="56">
-        <v>0</v>
-      </c>
-      <c r="E10" s="57">
-        <v>0</v>
-      </c>
-      <c r="F10" s="57">
-        <v>0</v>
-      </c>
-      <c r="G10" s="58">
-        <v>0</v>
-      </c>
-      <c r="H10" s="59">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
-        <v>0</v>
-      </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="56">
-        <v>0</v>
-      </c>
-      <c r="L10" s="57">
-        <v>0</v>
-      </c>
-      <c r="M10" s="57">
-        <v>0</v>
-      </c>
-      <c r="N10" s="57">
-        <v>0</v>
-      </c>
-      <c r="O10" s="58">
-        <v>0</v>
-      </c>
-      <c r="P10" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="59">
-        <v>0</v>
-      </c>
-      <c r="R10" s="59">
-        <v>0</v>
-      </c>
-      <c r="S10" s="59">
-        <v>0</v>
-      </c>
-      <c r="T10" s="56">
-        <v>0</v>
-      </c>
-      <c r="U10" s="57">
-        <v>0</v>
-      </c>
-      <c r="V10" s="58">
-        <v>0</v>
-      </c>
-      <c r="W10" s="60">
-        <v>0</v>
-      </c>
-      <c r="X10" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="63">
+      <c r="D10" s="103">
+        <v>0</v>
+      </c>
+      <c r="E10" s="104">
+        <v>0</v>
+      </c>
+      <c r="F10" s="104">
+        <v>0</v>
+      </c>
+      <c r="G10" s="105">
+        <v>0</v>
+      </c>
+      <c r="H10" s="106">
+        <v>1</v>
+      </c>
+      <c r="I10" s="106">
+        <v>0</v>
+      </c>
+      <c r="J10" s="106">
+        <v>0</v>
+      </c>
+      <c r="K10" s="103">
+        <v>0</v>
+      </c>
+      <c r="L10" s="104">
+        <v>0</v>
+      </c>
+      <c r="M10" s="104">
+        <v>0</v>
+      </c>
+      <c r="N10" s="104">
+        <v>1</v>
+      </c>
+      <c r="O10" s="105">
+        <v>1</v>
+      </c>
+      <c r="P10" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="106">
+        <v>0</v>
+      </c>
+      <c r="R10" s="106">
+        <v>0</v>
+      </c>
+      <c r="S10" s="106">
+        <v>0</v>
+      </c>
+      <c r="T10" s="103">
+        <v>0</v>
+      </c>
+      <c r="U10" s="104">
+        <v>0</v>
+      </c>
+      <c r="V10" s="105">
+        <v>0</v>
+      </c>
+      <c r="W10" s="107">
+        <v>1</v>
+      </c>
+      <c r="X10" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="110">
         <v>0</v>
       </c>
       <c r="AF10" s="4"/>
@@ -2655,95 +2718,95 @@
       <c r="AO10" s="4"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="56">
-        <v>0</v>
-      </c>
-      <c r="E11" s="57">
-        <v>0</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0</v>
-      </c>
-      <c r="G11" s="58">
-        <v>0</v>
-      </c>
-      <c r="H11" s="59">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59">
-        <v>0</v>
-      </c>
-      <c r="J11" s="59">
-        <v>0</v>
-      </c>
-      <c r="K11" s="56">
-        <v>0</v>
-      </c>
-      <c r="L11" s="57">
-        <v>0</v>
-      </c>
-      <c r="M11" s="57">
-        <v>0</v>
-      </c>
-      <c r="N11" s="57">
-        <v>0</v>
-      </c>
-      <c r="O11" s="58">
-        <v>0</v>
-      </c>
-      <c r="P11" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="59">
-        <v>0</v>
-      </c>
-      <c r="R11" s="59">
-        <v>0</v>
-      </c>
-      <c r="S11" s="59">
-        <v>0</v>
-      </c>
-      <c r="T11" s="56">
-        <v>0</v>
-      </c>
-      <c r="U11" s="57">
-        <v>0</v>
-      </c>
-      <c r="V11" s="58">
-        <v>0</v>
-      </c>
-      <c r="W11" s="60">
-        <v>0</v>
-      </c>
-      <c r="X11" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="63">
+      <c r="D11" s="103">
+        <v>0</v>
+      </c>
+      <c r="E11" s="104">
+        <v>0</v>
+      </c>
+      <c r="F11" s="104">
+        <v>0</v>
+      </c>
+      <c r="G11" s="105">
+        <v>0</v>
+      </c>
+      <c r="H11" s="106">
+        <v>1</v>
+      </c>
+      <c r="I11" s="106">
+        <v>0</v>
+      </c>
+      <c r="J11" s="106">
+        <v>0</v>
+      </c>
+      <c r="K11" s="103">
+        <v>0</v>
+      </c>
+      <c r="L11" s="104">
+        <v>1</v>
+      </c>
+      <c r="M11" s="104">
+        <v>0</v>
+      </c>
+      <c r="N11" s="104">
+        <v>1</v>
+      </c>
+      <c r="O11" s="105">
+        <v>0</v>
+      </c>
+      <c r="P11" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="106">
+        <v>0</v>
+      </c>
+      <c r="R11" s="106">
+        <v>0</v>
+      </c>
+      <c r="S11" s="106">
+        <v>0</v>
+      </c>
+      <c r="T11" s="103">
+        <v>0</v>
+      </c>
+      <c r="U11" s="104">
+        <v>0</v>
+      </c>
+      <c r="V11" s="105">
+        <v>0</v>
+      </c>
+      <c r="W11" s="107">
+        <v>1</v>
+      </c>
+      <c r="X11" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="110">
         <v>0</v>
       </c>
       <c r="AF11" s="4"/>
@@ -2758,95 +2821,95 @@
       <c r="AO11" s="4"/>
     </row>
     <row r="12" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="56">
-        <v>0</v>
-      </c>
-      <c r="E12" s="57">
-        <v>0</v>
-      </c>
-      <c r="F12" s="57">
-        <v>0</v>
-      </c>
-      <c r="G12" s="58">
-        <v>0</v>
-      </c>
-      <c r="H12" s="59">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59">
-        <v>0</v>
-      </c>
-      <c r="J12" s="59">
-        <v>0</v>
-      </c>
-      <c r="K12" s="56">
-        <v>0</v>
-      </c>
-      <c r="L12" s="57">
-        <v>0</v>
-      </c>
-      <c r="M12" s="57">
-        <v>0</v>
-      </c>
-      <c r="N12" s="57">
-        <v>0</v>
-      </c>
-      <c r="O12" s="58">
-        <v>0</v>
-      </c>
-      <c r="P12" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="59">
-        <v>0</v>
-      </c>
-      <c r="R12" s="59">
-        <v>0</v>
-      </c>
-      <c r="S12" s="59">
-        <v>0</v>
-      </c>
-      <c r="T12" s="56">
-        <v>0</v>
-      </c>
-      <c r="U12" s="57">
-        <v>0</v>
-      </c>
-      <c r="V12" s="58">
-        <v>0</v>
-      </c>
-      <c r="W12" s="60">
-        <v>0</v>
-      </c>
-      <c r="X12" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="63">
+      <c r="D12" s="103">
+        <v>0</v>
+      </c>
+      <c r="E12" s="104">
+        <v>0</v>
+      </c>
+      <c r="F12" s="104">
+        <v>0</v>
+      </c>
+      <c r="G12" s="105">
+        <v>0</v>
+      </c>
+      <c r="H12" s="106">
+        <v>1</v>
+      </c>
+      <c r="I12" s="106">
+        <v>0</v>
+      </c>
+      <c r="J12" s="106">
+        <v>0</v>
+      </c>
+      <c r="K12" s="103">
+        <v>0</v>
+      </c>
+      <c r="L12" s="104">
+        <v>1</v>
+      </c>
+      <c r="M12" s="104">
+        <v>0</v>
+      </c>
+      <c r="N12" s="104">
+        <v>1</v>
+      </c>
+      <c r="O12" s="105">
+        <v>1</v>
+      </c>
+      <c r="P12" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="106">
+        <v>0</v>
+      </c>
+      <c r="R12" s="106">
+        <v>0</v>
+      </c>
+      <c r="S12" s="106">
+        <v>0</v>
+      </c>
+      <c r="T12" s="103">
+        <v>0</v>
+      </c>
+      <c r="U12" s="104">
+        <v>0</v>
+      </c>
+      <c r="V12" s="105">
+        <v>0</v>
+      </c>
+      <c r="W12" s="107">
+        <v>1</v>
+      </c>
+      <c r="X12" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="110">
         <v>0</v>
       </c>
       <c r="AF12" s="4"/>
@@ -2861,95 +2924,95 @@
       <c r="AO12" s="4"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="56">
-        <v>0</v>
-      </c>
-      <c r="E13" s="57">
-        <v>0</v>
-      </c>
-      <c r="F13" s="57">
-        <v>0</v>
-      </c>
-      <c r="G13" s="58">
-        <v>0</v>
-      </c>
-      <c r="H13" s="59">
-        <v>0</v>
-      </c>
-      <c r="I13" s="59">
-        <v>0</v>
-      </c>
-      <c r="J13" s="59">
-        <v>0</v>
-      </c>
-      <c r="K13" s="56">
-        <v>0</v>
-      </c>
-      <c r="L13" s="57">
-        <v>0</v>
-      </c>
-      <c r="M13" s="57">
-        <v>0</v>
-      </c>
-      <c r="N13" s="57">
-        <v>0</v>
-      </c>
-      <c r="O13" s="58">
-        <v>0</v>
-      </c>
-      <c r="P13" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="59">
-        <v>0</v>
-      </c>
-      <c r="R13" s="59">
-        <v>0</v>
-      </c>
-      <c r="S13" s="59">
-        <v>0</v>
-      </c>
-      <c r="T13" s="56">
-        <v>0</v>
-      </c>
-      <c r="U13" s="57">
-        <v>0</v>
-      </c>
-      <c r="V13" s="58">
-        <v>0</v>
-      </c>
-      <c r="W13" s="60">
-        <v>0</v>
-      </c>
-      <c r="X13" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="63">
+      <c r="D13" s="103">
+        <v>0</v>
+      </c>
+      <c r="E13" s="104">
+        <v>0</v>
+      </c>
+      <c r="F13" s="104">
+        <v>0</v>
+      </c>
+      <c r="G13" s="105">
+        <v>0</v>
+      </c>
+      <c r="H13" s="106">
+        <v>1</v>
+      </c>
+      <c r="I13" s="106">
+        <v>0</v>
+      </c>
+      <c r="J13" s="106">
+        <v>0</v>
+      </c>
+      <c r="K13" s="103">
+        <v>1</v>
+      </c>
+      <c r="L13" s="104">
+        <v>1</v>
+      </c>
+      <c r="M13" s="104">
+        <v>0</v>
+      </c>
+      <c r="N13" s="104">
+        <v>1</v>
+      </c>
+      <c r="O13" s="105">
+        <v>0</v>
+      </c>
+      <c r="P13" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="106">
+        <v>0</v>
+      </c>
+      <c r="R13" s="106">
+        <v>0</v>
+      </c>
+      <c r="S13" s="106">
+        <v>0</v>
+      </c>
+      <c r="T13" s="103">
+        <v>0</v>
+      </c>
+      <c r="U13" s="104">
+        <v>0</v>
+      </c>
+      <c r="V13" s="105">
+        <v>0</v>
+      </c>
+      <c r="W13" s="107">
+        <v>1</v>
+      </c>
+      <c r="X13" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="110">
         <v>0</v>
       </c>
       <c r="AF13" s="4"/>
@@ -2964,95 +3027,95 @@
       <c r="AO13" s="4"/>
     </row>
     <row r="14" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="56">
-        <v>0</v>
-      </c>
-      <c r="E14" s="57">
-        <v>0</v>
-      </c>
-      <c r="F14" s="57">
-        <v>0</v>
-      </c>
-      <c r="G14" s="58">
-        <v>0</v>
-      </c>
-      <c r="H14" s="59">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0</v>
-      </c>
-      <c r="J14" s="59">
-        <v>0</v>
-      </c>
-      <c r="K14" s="56">
-        <v>0</v>
-      </c>
-      <c r="L14" s="57">
-        <v>0</v>
-      </c>
-      <c r="M14" s="57">
-        <v>0</v>
-      </c>
-      <c r="N14" s="57">
-        <v>0</v>
-      </c>
-      <c r="O14" s="58">
-        <v>0</v>
-      </c>
-      <c r="P14" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="59">
-        <v>0</v>
-      </c>
-      <c r="R14" s="59">
-        <v>0</v>
-      </c>
-      <c r="S14" s="59">
-        <v>0</v>
-      </c>
-      <c r="T14" s="56">
-        <v>0</v>
-      </c>
-      <c r="U14" s="57">
-        <v>0</v>
-      </c>
-      <c r="V14" s="58">
-        <v>0</v>
-      </c>
-      <c r="W14" s="60">
-        <v>0</v>
-      </c>
-      <c r="X14" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="63">
+      <c r="D14" s="103">
+        <v>1</v>
+      </c>
+      <c r="E14" s="104">
+        <v>0</v>
+      </c>
+      <c r="F14" s="104">
+        <v>0</v>
+      </c>
+      <c r="G14" s="105">
+        <v>0</v>
+      </c>
+      <c r="H14" s="106">
+        <v>0</v>
+      </c>
+      <c r="I14" s="106">
+        <v>0</v>
+      </c>
+      <c r="J14" s="106">
+        <v>0</v>
+      </c>
+      <c r="K14" s="103">
+        <v>0</v>
+      </c>
+      <c r="L14" s="104">
+        <v>0</v>
+      </c>
+      <c r="M14" s="104">
+        <v>0</v>
+      </c>
+      <c r="N14" s="104">
+        <v>0</v>
+      </c>
+      <c r="O14" s="105">
+        <v>0</v>
+      </c>
+      <c r="P14" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="106">
+        <v>0</v>
+      </c>
+      <c r="R14" s="106">
+        <v>0</v>
+      </c>
+      <c r="S14" s="106">
+        <v>0</v>
+      </c>
+      <c r="T14" s="103">
+        <v>0</v>
+      </c>
+      <c r="U14" s="104">
+        <v>0</v>
+      </c>
+      <c r="V14" s="105">
+        <v>0</v>
+      </c>
+      <c r="W14" s="107">
+        <v>0</v>
+      </c>
+      <c r="X14" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="110">
         <v>0</v>
       </c>
       <c r="AF14" s="4"/>
@@ -3067,95 +3130,95 @@
       <c r="AO14" s="4"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="56">
-        <v>0</v>
-      </c>
-      <c r="E15" s="57">
-        <v>0</v>
-      </c>
-      <c r="F15" s="57">
-        <v>0</v>
-      </c>
-      <c r="G15" s="58">
-        <v>0</v>
-      </c>
-      <c r="H15" s="59">
-        <v>0</v>
-      </c>
-      <c r="I15" s="59">
-        <v>0</v>
-      </c>
-      <c r="J15" s="59">
-        <v>0</v>
-      </c>
-      <c r="K15" s="56">
-        <v>0</v>
-      </c>
-      <c r="L15" s="57">
-        <v>0</v>
-      </c>
-      <c r="M15" s="57">
-        <v>0</v>
-      </c>
-      <c r="N15" s="57">
-        <v>0</v>
-      </c>
-      <c r="O15" s="58">
-        <v>0</v>
-      </c>
-      <c r="P15" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="59">
-        <v>0</v>
-      </c>
-      <c r="R15" s="59">
-        <v>0</v>
-      </c>
-      <c r="S15" s="59">
-        <v>0</v>
-      </c>
-      <c r="T15" s="56">
-        <v>0</v>
-      </c>
-      <c r="U15" s="57">
-        <v>0</v>
-      </c>
-      <c r="V15" s="58">
-        <v>0</v>
-      </c>
-      <c r="W15" s="60">
-        <v>0</v>
-      </c>
-      <c r="X15" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="63">
+      <c r="D15" s="103">
+        <v>1</v>
+      </c>
+      <c r="E15" s="104">
+        <v>0</v>
+      </c>
+      <c r="F15" s="104">
+        <v>0</v>
+      </c>
+      <c r="G15" s="105">
+        <v>0</v>
+      </c>
+      <c r="H15" s="106">
+        <v>0</v>
+      </c>
+      <c r="I15" s="106">
+        <v>0</v>
+      </c>
+      <c r="J15" s="106">
+        <v>0</v>
+      </c>
+      <c r="K15" s="103">
+        <v>0</v>
+      </c>
+      <c r="L15" s="104">
+        <v>0</v>
+      </c>
+      <c r="M15" s="104">
+        <v>0</v>
+      </c>
+      <c r="N15" s="104">
+        <v>0</v>
+      </c>
+      <c r="O15" s="105">
+        <v>0</v>
+      </c>
+      <c r="P15" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="106">
+        <v>0</v>
+      </c>
+      <c r="R15" s="106">
+        <v>0</v>
+      </c>
+      <c r="S15" s="106">
+        <v>0</v>
+      </c>
+      <c r="T15" s="103">
+        <v>0</v>
+      </c>
+      <c r="U15" s="104">
+        <v>0</v>
+      </c>
+      <c r="V15" s="105">
+        <v>0</v>
+      </c>
+      <c r="W15" s="107">
+        <v>0</v>
+      </c>
+      <c r="X15" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="110">
         <v>0</v>
       </c>
       <c r="AF15" s="4"/>
@@ -3170,95 +3233,95 @@
       <c r="AO15" s="4"/>
     </row>
     <row r="16" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="56">
-        <v>0</v>
-      </c>
-      <c r="E16" s="57">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="58">
-        <v>0</v>
-      </c>
-      <c r="H16" s="59">
-        <v>0</v>
-      </c>
-      <c r="I16" s="59">
-        <v>0</v>
-      </c>
-      <c r="J16" s="59">
-        <v>0</v>
-      </c>
-      <c r="K16" s="56">
-        <v>0</v>
-      </c>
-      <c r="L16" s="57">
-        <v>0</v>
-      </c>
-      <c r="M16" s="57">
-        <v>0</v>
-      </c>
-      <c r="N16" s="57">
-        <v>0</v>
-      </c>
-      <c r="O16" s="58">
-        <v>0</v>
-      </c>
-      <c r="P16" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="59">
-        <v>0</v>
-      </c>
-      <c r="R16" s="59">
-        <v>0</v>
-      </c>
-      <c r="S16" s="59">
-        <v>0</v>
-      </c>
-      <c r="T16" s="56">
-        <v>0</v>
-      </c>
-      <c r="U16" s="57">
-        <v>0</v>
-      </c>
-      <c r="V16" s="58">
-        <v>0</v>
-      </c>
-      <c r="W16" s="60">
-        <v>0</v>
-      </c>
-      <c r="X16" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="63">
+      <c r="D16" s="103">
+        <v>1</v>
+      </c>
+      <c r="E16" s="104">
+        <v>0</v>
+      </c>
+      <c r="F16" s="104">
+        <v>0</v>
+      </c>
+      <c r="G16" s="105">
+        <v>0</v>
+      </c>
+      <c r="H16" s="106">
+        <v>0</v>
+      </c>
+      <c r="I16" s="106">
+        <v>0</v>
+      </c>
+      <c r="J16" s="106">
+        <v>0</v>
+      </c>
+      <c r="K16" s="103">
+        <v>0</v>
+      </c>
+      <c r="L16" s="104">
+        <v>0</v>
+      </c>
+      <c r="M16" s="104">
+        <v>0</v>
+      </c>
+      <c r="N16" s="104">
+        <v>0</v>
+      </c>
+      <c r="O16" s="105">
+        <v>0</v>
+      </c>
+      <c r="P16" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="106">
+        <v>0</v>
+      </c>
+      <c r="R16" s="106">
+        <v>0</v>
+      </c>
+      <c r="S16" s="106">
+        <v>0</v>
+      </c>
+      <c r="T16" s="103">
+        <v>0</v>
+      </c>
+      <c r="U16" s="104">
+        <v>0</v>
+      </c>
+      <c r="V16" s="105">
+        <v>0</v>
+      </c>
+      <c r="W16" s="107">
+        <v>0</v>
+      </c>
+      <c r="X16" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="110">
         <v>0</v>
       </c>
       <c r="AF16" s="4"/>
@@ -3364,7 +3427,7 @@
       <c r="AE17" s="99">
         <v>0</v>
       </c>
-      <c r="AF17" s="4"/>
+      <c r="AF17" s="111"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
@@ -3376,95 +3439,95 @@
       <c r="AO17" s="4"/>
     </row>
     <row r="18" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="56">
-        <v>0</v>
-      </c>
-      <c r="E18" s="57">
-        <v>0</v>
-      </c>
-      <c r="F18" s="57">
-        <v>0</v>
-      </c>
-      <c r="G18" s="58">
-        <v>0</v>
-      </c>
-      <c r="H18" s="59">
-        <v>0</v>
-      </c>
-      <c r="I18" s="59">
-        <v>0</v>
-      </c>
-      <c r="J18" s="59">
-        <v>0</v>
-      </c>
-      <c r="K18" s="56">
-        <v>0</v>
-      </c>
-      <c r="L18" s="57">
-        <v>0</v>
-      </c>
-      <c r="M18" s="57">
-        <v>0</v>
-      </c>
-      <c r="N18" s="57">
-        <v>0</v>
-      </c>
-      <c r="O18" s="58">
-        <v>0</v>
-      </c>
-      <c r="P18" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="59">
-        <v>0</v>
-      </c>
-      <c r="R18" s="59">
-        <v>0</v>
-      </c>
-      <c r="S18" s="59">
-        <v>0</v>
-      </c>
-      <c r="T18" s="56">
-        <v>0</v>
-      </c>
-      <c r="U18" s="57">
-        <v>0</v>
-      </c>
-      <c r="V18" s="58">
-        <v>0</v>
-      </c>
-      <c r="W18" s="60">
-        <v>0</v>
-      </c>
-      <c r="X18" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="63">
+      <c r="D18" s="103">
+        <v>1</v>
+      </c>
+      <c r="E18" s="104">
+        <v>0</v>
+      </c>
+      <c r="F18" s="104">
+        <v>0</v>
+      </c>
+      <c r="G18" s="105">
+        <v>0</v>
+      </c>
+      <c r="H18" s="106">
+        <v>0</v>
+      </c>
+      <c r="I18" s="106">
+        <v>0</v>
+      </c>
+      <c r="J18" s="106">
+        <v>0</v>
+      </c>
+      <c r="K18" s="103">
+        <v>0</v>
+      </c>
+      <c r="L18" s="104">
+        <v>0</v>
+      </c>
+      <c r="M18" s="104">
+        <v>0</v>
+      </c>
+      <c r="N18" s="104">
+        <v>0</v>
+      </c>
+      <c r="O18" s="105">
+        <v>0</v>
+      </c>
+      <c r="P18" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="106">
+        <v>0</v>
+      </c>
+      <c r="R18" s="106">
+        <v>0</v>
+      </c>
+      <c r="S18" s="106">
+        <v>0</v>
+      </c>
+      <c r="T18" s="103">
+        <v>0</v>
+      </c>
+      <c r="U18" s="104">
+        <v>0</v>
+      </c>
+      <c r="V18" s="105">
+        <v>0</v>
+      </c>
+      <c r="W18" s="107">
+        <v>0</v>
+      </c>
+      <c r="X18" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="110">
         <v>0</v>
       </c>
       <c r="AF18" s="4"/>
@@ -3479,95 +3542,95 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="56">
-        <v>0</v>
-      </c>
-      <c r="E19" s="57">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
-        <v>0</v>
-      </c>
-      <c r="G19" s="58">
-        <v>0</v>
-      </c>
-      <c r="H19" s="59">
-        <v>0</v>
-      </c>
-      <c r="I19" s="59">
-        <v>0</v>
-      </c>
-      <c r="J19" s="59">
-        <v>0</v>
-      </c>
-      <c r="K19" s="56">
-        <v>0</v>
-      </c>
-      <c r="L19" s="57">
-        <v>0</v>
-      </c>
-      <c r="M19" s="57">
-        <v>0</v>
-      </c>
-      <c r="N19" s="57">
-        <v>0</v>
-      </c>
-      <c r="O19" s="58">
-        <v>0</v>
-      </c>
-      <c r="P19" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="59">
-        <v>0</v>
-      </c>
-      <c r="R19" s="59">
-        <v>0</v>
-      </c>
-      <c r="S19" s="59">
-        <v>0</v>
-      </c>
-      <c r="T19" s="56">
-        <v>0</v>
-      </c>
-      <c r="U19" s="57">
-        <v>0</v>
-      </c>
-      <c r="V19" s="58">
-        <v>0</v>
-      </c>
-      <c r="W19" s="60">
-        <v>0</v>
-      </c>
-      <c r="X19" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="63">
+      <c r="D19" s="70">
+        <v>0</v>
+      </c>
+      <c r="E19" s="71">
+        <v>0</v>
+      </c>
+      <c r="F19" s="71">
+        <v>0</v>
+      </c>
+      <c r="G19" s="72">
+        <v>0</v>
+      </c>
+      <c r="H19" s="73">
+        <v>0</v>
+      </c>
+      <c r="I19" s="73">
+        <v>0</v>
+      </c>
+      <c r="J19" s="73">
+        <v>0</v>
+      </c>
+      <c r="K19" s="70">
+        <v>0</v>
+      </c>
+      <c r="L19" s="71">
+        <v>0</v>
+      </c>
+      <c r="M19" s="71">
+        <v>0</v>
+      </c>
+      <c r="N19" s="71">
+        <v>0</v>
+      </c>
+      <c r="O19" s="72">
+        <v>0</v>
+      </c>
+      <c r="P19" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="73">
+        <v>0</v>
+      </c>
+      <c r="R19" s="73">
+        <v>0</v>
+      </c>
+      <c r="S19" s="73">
+        <v>0</v>
+      </c>
+      <c r="T19" s="70">
+        <v>0</v>
+      </c>
+      <c r="U19" s="71">
+        <v>0</v>
+      </c>
+      <c r="V19" s="72">
+        <v>0</v>
+      </c>
+      <c r="W19" s="74">
+        <v>0</v>
+      </c>
+      <c r="X19" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="77">
         <v>0</v>
       </c>
       <c r="AF19" s="4"/>
@@ -3582,95 +3645,95 @@
       <c r="AO19" s="4"/>
     </row>
     <row r="20" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="56">
-        <v>0</v>
-      </c>
-      <c r="E20" s="57">
-        <v>0</v>
-      </c>
-      <c r="F20" s="57">
-        <v>0</v>
-      </c>
-      <c r="G20" s="58">
-        <v>0</v>
-      </c>
-      <c r="H20" s="59">
-        <v>0</v>
-      </c>
-      <c r="I20" s="59">
-        <v>0</v>
-      </c>
-      <c r="J20" s="59">
-        <v>0</v>
-      </c>
-      <c r="K20" s="56">
-        <v>0</v>
-      </c>
-      <c r="L20" s="57">
-        <v>0</v>
-      </c>
-      <c r="M20" s="57">
-        <v>0</v>
-      </c>
-      <c r="N20" s="57">
-        <v>0</v>
-      </c>
-      <c r="O20" s="58">
-        <v>0</v>
-      </c>
-      <c r="P20" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="59">
-        <v>0</v>
-      </c>
-      <c r="R20" s="59">
-        <v>0</v>
-      </c>
-      <c r="S20" s="59">
-        <v>0</v>
-      </c>
-      <c r="T20" s="56">
-        <v>0</v>
-      </c>
-      <c r="U20" s="57">
-        <v>0</v>
-      </c>
-      <c r="V20" s="58">
-        <v>0</v>
-      </c>
-      <c r="W20" s="60">
-        <v>0</v>
-      </c>
-      <c r="X20" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="63">
+      <c r="D20" s="103">
+        <v>0</v>
+      </c>
+      <c r="E20" s="104">
+        <v>0</v>
+      </c>
+      <c r="F20" s="104">
+        <v>0</v>
+      </c>
+      <c r="G20" s="105">
+        <v>0</v>
+      </c>
+      <c r="H20" s="106">
+        <v>0</v>
+      </c>
+      <c r="I20" s="106">
+        <v>0</v>
+      </c>
+      <c r="J20" s="106">
+        <v>0</v>
+      </c>
+      <c r="K20" s="103">
+        <v>0</v>
+      </c>
+      <c r="L20" s="104">
+        <v>0</v>
+      </c>
+      <c r="M20" s="104">
+        <v>0</v>
+      </c>
+      <c r="N20" s="104">
+        <v>0</v>
+      </c>
+      <c r="O20" s="105">
+        <v>0</v>
+      </c>
+      <c r="P20" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="106">
+        <v>0</v>
+      </c>
+      <c r="R20" s="106">
+        <v>0</v>
+      </c>
+      <c r="S20" s="106">
+        <v>0</v>
+      </c>
+      <c r="T20" s="103">
+        <v>0</v>
+      </c>
+      <c r="U20" s="104">
+        <v>0</v>
+      </c>
+      <c r="V20" s="105">
+        <v>0</v>
+      </c>
+      <c r="W20" s="107">
+        <v>1</v>
+      </c>
+      <c r="X20" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="110">
         <v>0</v>
       </c>
       <c r="AF20" s="4"/>
@@ -3685,95 +3748,95 @@
       <c r="AO20" s="4"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="56">
-        <v>0</v>
-      </c>
-      <c r="E21" s="57">
-        <v>0</v>
-      </c>
-      <c r="F21" s="57">
-        <v>0</v>
-      </c>
-      <c r="G21" s="58">
-        <v>0</v>
-      </c>
-      <c r="H21" s="59">
-        <v>0</v>
-      </c>
-      <c r="I21" s="59">
-        <v>0</v>
-      </c>
-      <c r="J21" s="59">
-        <v>0</v>
-      </c>
-      <c r="K21" s="56">
-        <v>0</v>
-      </c>
-      <c r="L21" s="57">
-        <v>0</v>
-      </c>
-      <c r="M21" s="57">
-        <v>0</v>
-      </c>
-      <c r="N21" s="57">
-        <v>0</v>
-      </c>
-      <c r="O21" s="58">
-        <v>0</v>
-      </c>
-      <c r="P21" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="59">
-        <v>0</v>
-      </c>
-      <c r="R21" s="59">
-        <v>0</v>
-      </c>
-      <c r="S21" s="59">
-        <v>0</v>
-      </c>
-      <c r="T21" s="56">
-        <v>0</v>
-      </c>
-      <c r="U21" s="57">
-        <v>0</v>
-      </c>
-      <c r="V21" s="58">
-        <v>0</v>
-      </c>
-      <c r="W21" s="60">
-        <v>0</v>
-      </c>
-      <c r="X21" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="63">
+      <c r="D21" s="103">
+        <v>0</v>
+      </c>
+      <c r="E21" s="104">
+        <v>0</v>
+      </c>
+      <c r="F21" s="104">
+        <v>0</v>
+      </c>
+      <c r="G21" s="105">
+        <v>0</v>
+      </c>
+      <c r="H21" s="106">
+        <v>0</v>
+      </c>
+      <c r="I21" s="106">
+        <v>0</v>
+      </c>
+      <c r="J21" s="106">
+        <v>0</v>
+      </c>
+      <c r="K21" s="103">
+        <v>0</v>
+      </c>
+      <c r="L21" s="104">
+        <v>0</v>
+      </c>
+      <c r="M21" s="104">
+        <v>0</v>
+      </c>
+      <c r="N21" s="104">
+        <v>0</v>
+      </c>
+      <c r="O21" s="105">
+        <v>0</v>
+      </c>
+      <c r="P21" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="106">
+        <v>0</v>
+      </c>
+      <c r="R21" s="106">
+        <v>0</v>
+      </c>
+      <c r="S21" s="106">
+        <v>0</v>
+      </c>
+      <c r="T21" s="103">
+        <v>0</v>
+      </c>
+      <c r="U21" s="104">
+        <v>0</v>
+      </c>
+      <c r="V21" s="105">
+        <v>0</v>
+      </c>
+      <c r="W21" s="107">
+        <v>0</v>
+      </c>
+      <c r="X21" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="106">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="110">
         <v>0</v>
       </c>
       <c r="AF21" s="4"/>
@@ -3788,95 +3851,95 @@
       <c r="AO21" s="4"/>
     </row>
     <row r="22" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="56">
-        <v>0</v>
-      </c>
-      <c r="E22" s="57">
-        <v>0</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0</v>
-      </c>
-      <c r="G22" s="58">
-        <v>0</v>
-      </c>
-      <c r="H22" s="59">
-        <v>0</v>
-      </c>
-      <c r="I22" s="59">
-        <v>0</v>
-      </c>
-      <c r="J22" s="59">
-        <v>0</v>
-      </c>
-      <c r="K22" s="56">
-        <v>0</v>
-      </c>
-      <c r="L22" s="57">
-        <v>0</v>
-      </c>
-      <c r="M22" s="57">
-        <v>0</v>
-      </c>
-      <c r="N22" s="57">
-        <v>0</v>
-      </c>
-      <c r="O22" s="58">
-        <v>0</v>
-      </c>
-      <c r="P22" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="59">
-        <v>0</v>
-      </c>
-      <c r="R22" s="59">
-        <v>0</v>
-      </c>
-      <c r="S22" s="59">
-        <v>0</v>
-      </c>
-      <c r="T22" s="56">
-        <v>0</v>
-      </c>
-      <c r="U22" s="57">
-        <v>0</v>
-      </c>
-      <c r="V22" s="58">
-        <v>0</v>
-      </c>
-      <c r="W22" s="60">
-        <v>0</v>
-      </c>
-      <c r="X22" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="63">
+      <c r="D22" s="103">
+        <v>0</v>
+      </c>
+      <c r="E22" s="104">
+        <v>0</v>
+      </c>
+      <c r="F22" s="104">
+        <v>0</v>
+      </c>
+      <c r="G22" s="105">
+        <v>0</v>
+      </c>
+      <c r="H22" s="106">
+        <v>0</v>
+      </c>
+      <c r="I22" s="106">
+        <v>0</v>
+      </c>
+      <c r="J22" s="106">
+        <v>0</v>
+      </c>
+      <c r="K22" s="103">
+        <v>0</v>
+      </c>
+      <c r="L22" s="104">
+        <v>1</v>
+      </c>
+      <c r="M22" s="104">
+        <v>0</v>
+      </c>
+      <c r="N22" s="104">
+        <v>0</v>
+      </c>
+      <c r="O22" s="105">
+        <v>0</v>
+      </c>
+      <c r="P22" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="106">
+        <v>0</v>
+      </c>
+      <c r="R22" s="106">
+        <v>0</v>
+      </c>
+      <c r="S22" s="106">
+        <v>0</v>
+      </c>
+      <c r="T22" s="103">
+        <v>0</v>
+      </c>
+      <c r="U22" s="104">
+        <v>0</v>
+      </c>
+      <c r="V22" s="105">
+        <v>0</v>
+      </c>
+      <c r="W22" s="107">
+        <v>1</v>
+      </c>
+      <c r="X22" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="110">
         <v>0</v>
       </c>
       <c r="AF22" s="4"/>
@@ -3891,95 +3954,95 @@
       <c r="AO22" s="4"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="101"/>
+      <c r="C23" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="56">
-        <v>0</v>
-      </c>
-      <c r="E23" s="57">
-        <v>0</v>
-      </c>
-      <c r="F23" s="57">
-        <v>0</v>
-      </c>
-      <c r="G23" s="58">
-        <v>0</v>
-      </c>
-      <c r="H23" s="59">
-        <v>0</v>
-      </c>
-      <c r="I23" s="59">
-        <v>0</v>
-      </c>
-      <c r="J23" s="59">
-        <v>0</v>
-      </c>
-      <c r="K23" s="56">
-        <v>0</v>
-      </c>
-      <c r="L23" s="57">
-        <v>0</v>
-      </c>
-      <c r="M23" s="57">
-        <v>0</v>
-      </c>
-      <c r="N23" s="57">
-        <v>0</v>
-      </c>
-      <c r="O23" s="58">
-        <v>0</v>
-      </c>
-      <c r="P23" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="59">
-        <v>0</v>
-      </c>
-      <c r="R23" s="59">
-        <v>0</v>
-      </c>
-      <c r="S23" s="59">
-        <v>0</v>
-      </c>
-      <c r="T23" s="56">
-        <v>0</v>
-      </c>
-      <c r="U23" s="57">
-        <v>0</v>
-      </c>
-      <c r="V23" s="58">
-        <v>0</v>
-      </c>
-      <c r="W23" s="60">
-        <v>0</v>
-      </c>
-      <c r="X23" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="63">
+      <c r="D23" s="103">
+        <v>0</v>
+      </c>
+      <c r="E23" s="104">
+        <v>0</v>
+      </c>
+      <c r="F23" s="104">
+        <v>0</v>
+      </c>
+      <c r="G23" s="105">
+        <v>0</v>
+      </c>
+      <c r="H23" s="106">
+        <v>0</v>
+      </c>
+      <c r="I23" s="106">
+        <v>0</v>
+      </c>
+      <c r="J23" s="106">
+        <v>0</v>
+      </c>
+      <c r="K23" s="103">
+        <v>0</v>
+      </c>
+      <c r="L23" s="104">
+        <v>1</v>
+      </c>
+      <c r="M23" s="104">
+        <v>0</v>
+      </c>
+      <c r="N23" s="104">
+        <v>0</v>
+      </c>
+      <c r="O23" s="105">
+        <v>1</v>
+      </c>
+      <c r="P23" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="106">
+        <v>0</v>
+      </c>
+      <c r="R23" s="106">
+        <v>0</v>
+      </c>
+      <c r="S23" s="106">
+        <v>0</v>
+      </c>
+      <c r="T23" s="103">
+        <v>0</v>
+      </c>
+      <c r="U23" s="104">
+        <v>0</v>
+      </c>
+      <c r="V23" s="105">
+        <v>0</v>
+      </c>
+      <c r="W23" s="107">
+        <v>1</v>
+      </c>
+      <c r="X23" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="110">
         <v>0</v>
       </c>
       <c r="AF23" s="4"/>
@@ -4085,7 +4148,7 @@
       <c r="AE24" s="99">
         <v>0</v>
       </c>
-      <c r="AF24" s="4"/>
+      <c r="AF24" s="111"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
@@ -4188,7 +4251,7 @@
       <c r="AE25" s="99">
         <v>0</v>
       </c>
-      <c r="AF25" s="4"/>
+      <c r="AF25" s="111"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
@@ -4291,7 +4354,7 @@
       <c r="AE26" s="99">
         <v>0</v>
       </c>
-      <c r="AF26" s="4"/>
+      <c r="AF26" s="111"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
@@ -4303,95 +4366,95 @@
       <c r="AO26" s="4"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="101"/>
+      <c r="C27" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="56">
-        <v>0</v>
-      </c>
-      <c r="E27" s="57">
-        <v>0</v>
-      </c>
-      <c r="F27" s="57">
-        <v>0</v>
-      </c>
-      <c r="G27" s="58">
-        <v>0</v>
-      </c>
-      <c r="H27" s="59">
-        <v>0</v>
-      </c>
-      <c r="I27" s="59">
-        <v>0</v>
-      </c>
-      <c r="J27" s="59">
-        <v>0</v>
-      </c>
-      <c r="K27" s="56">
-        <v>0</v>
-      </c>
-      <c r="L27" s="57">
-        <v>0</v>
-      </c>
-      <c r="M27" s="57">
-        <v>0</v>
-      </c>
-      <c r="N27" s="57">
-        <v>0</v>
-      </c>
-      <c r="O27" s="58">
-        <v>0</v>
-      </c>
-      <c r="P27" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="59">
-        <v>0</v>
-      </c>
-      <c r="R27" s="59">
-        <v>0</v>
-      </c>
-      <c r="S27" s="59">
-        <v>0</v>
-      </c>
-      <c r="T27" s="56">
-        <v>0</v>
-      </c>
-      <c r="U27" s="57">
-        <v>0</v>
-      </c>
-      <c r="V27" s="58">
-        <v>0</v>
-      </c>
-      <c r="W27" s="60">
-        <v>0</v>
-      </c>
-      <c r="X27" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="63">
+      <c r="D27" s="103">
+        <v>0</v>
+      </c>
+      <c r="E27" s="104">
+        <v>0</v>
+      </c>
+      <c r="F27" s="104">
+        <v>0</v>
+      </c>
+      <c r="G27" s="105">
+        <v>0</v>
+      </c>
+      <c r="H27" s="106">
+        <v>0</v>
+      </c>
+      <c r="I27" s="106">
+        <v>0</v>
+      </c>
+      <c r="J27" s="106">
+        <v>0</v>
+      </c>
+      <c r="K27" s="103">
+        <v>0</v>
+      </c>
+      <c r="L27" s="104">
+        <v>0</v>
+      </c>
+      <c r="M27" s="104">
+        <v>0</v>
+      </c>
+      <c r="N27" s="104">
+        <v>0</v>
+      </c>
+      <c r="O27" s="105">
+        <v>0</v>
+      </c>
+      <c r="P27" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="106">
+        <v>0</v>
+      </c>
+      <c r="R27" s="106">
+        <v>0</v>
+      </c>
+      <c r="S27" s="106">
+        <v>0</v>
+      </c>
+      <c r="T27" s="103">
+        <v>0</v>
+      </c>
+      <c r="U27" s="104">
+        <v>0</v>
+      </c>
+      <c r="V27" s="105">
+        <v>0</v>
+      </c>
+      <c r="W27" s="107">
+        <v>0</v>
+      </c>
+      <c r="X27" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="110">
         <v>0</v>
       </c>
       <c r="AF27" s="4"/>
@@ -4406,95 +4469,95 @@
       <c r="AO27" s="4"/>
     </row>
     <row r="28" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="101"/>
+      <c r="C28" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="56">
-        <v>0</v>
-      </c>
-      <c r="E28" s="57">
-        <v>0</v>
-      </c>
-      <c r="F28" s="57">
-        <v>0</v>
-      </c>
-      <c r="G28" s="58">
-        <v>0</v>
-      </c>
-      <c r="H28" s="59">
-        <v>0</v>
-      </c>
-      <c r="I28" s="59">
-        <v>0</v>
-      </c>
-      <c r="J28" s="59">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
-        <v>0</v>
-      </c>
-      <c r="M28" s="57">
-        <v>0</v>
-      </c>
-      <c r="N28" s="57">
-        <v>0</v>
-      </c>
-      <c r="O28" s="58">
-        <v>0</v>
-      </c>
-      <c r="P28" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="59">
-        <v>0</v>
-      </c>
-      <c r="R28" s="59">
-        <v>0</v>
-      </c>
-      <c r="S28" s="59">
-        <v>0</v>
-      </c>
-      <c r="T28" s="56">
-        <v>0</v>
-      </c>
-      <c r="U28" s="57">
-        <v>0</v>
-      </c>
-      <c r="V28" s="58">
-        <v>0</v>
-      </c>
-      <c r="W28" s="60">
-        <v>0</v>
-      </c>
-      <c r="X28" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="63">
+      <c r="D28" s="103">
+        <v>0</v>
+      </c>
+      <c r="E28" s="104">
+        <v>0</v>
+      </c>
+      <c r="F28" s="104">
+        <v>0</v>
+      </c>
+      <c r="G28" s="105">
+        <v>0</v>
+      </c>
+      <c r="H28" s="106">
+        <v>0</v>
+      </c>
+      <c r="I28" s="106">
+        <v>0</v>
+      </c>
+      <c r="J28" s="106">
+        <v>0</v>
+      </c>
+      <c r="K28" s="103">
+        <v>0</v>
+      </c>
+      <c r="L28" s="104">
+        <v>0</v>
+      </c>
+      <c r="M28" s="104">
+        <v>0</v>
+      </c>
+      <c r="N28" s="104">
+        <v>0</v>
+      </c>
+      <c r="O28" s="105">
+        <v>0</v>
+      </c>
+      <c r="P28" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="106">
+        <v>0</v>
+      </c>
+      <c r="R28" s="106">
+        <v>0</v>
+      </c>
+      <c r="S28" s="106">
+        <v>0</v>
+      </c>
+      <c r="T28" s="103">
+        <v>0</v>
+      </c>
+      <c r="U28" s="104">
+        <v>0</v>
+      </c>
+      <c r="V28" s="105">
+        <v>0</v>
+      </c>
+      <c r="W28" s="107">
+        <v>0</v>
+      </c>
+      <c r="X28" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="110">
         <v>0</v>
       </c>
       <c r="AF28" s="4"/>
@@ -4509,95 +4572,95 @@
       <c r="AO28" s="4"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="56">
-        <v>0</v>
-      </c>
-      <c r="E29" s="57">
-        <v>0</v>
-      </c>
-      <c r="F29" s="57">
-        <v>0</v>
-      </c>
-      <c r="G29" s="58">
-        <v>0</v>
-      </c>
-      <c r="H29" s="59">
-        <v>0</v>
-      </c>
-      <c r="I29" s="59">
-        <v>0</v>
-      </c>
-      <c r="J29" s="59">
-        <v>0</v>
-      </c>
-      <c r="K29" s="56">
-        <v>0</v>
-      </c>
-      <c r="L29" s="57">
-        <v>0</v>
-      </c>
-      <c r="M29" s="57">
-        <v>0</v>
-      </c>
-      <c r="N29" s="57">
-        <v>0</v>
-      </c>
-      <c r="O29" s="58">
-        <v>0</v>
-      </c>
-      <c r="P29" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="59">
-        <v>0</v>
-      </c>
-      <c r="R29" s="59">
-        <v>0</v>
-      </c>
-      <c r="S29" s="59">
-        <v>0</v>
-      </c>
-      <c r="T29" s="56">
-        <v>0</v>
-      </c>
-      <c r="U29" s="57">
-        <v>0</v>
-      </c>
-      <c r="V29" s="58">
-        <v>0</v>
-      </c>
-      <c r="W29" s="60">
-        <v>0</v>
-      </c>
-      <c r="X29" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="63">
+      <c r="D29" s="103">
+        <v>0</v>
+      </c>
+      <c r="E29" s="104">
+        <v>0</v>
+      </c>
+      <c r="F29" s="104">
+        <v>0</v>
+      </c>
+      <c r="G29" s="105">
+        <v>0</v>
+      </c>
+      <c r="H29" s="106">
+        <v>1</v>
+      </c>
+      <c r="I29" s="106">
+        <v>0</v>
+      </c>
+      <c r="J29" s="106">
+        <v>0</v>
+      </c>
+      <c r="K29" s="103">
+        <v>1</v>
+      </c>
+      <c r="L29" s="104">
+        <v>0</v>
+      </c>
+      <c r="M29" s="104">
+        <v>0</v>
+      </c>
+      <c r="N29" s="104">
+        <v>1</v>
+      </c>
+      <c r="O29" s="105">
+        <v>0</v>
+      </c>
+      <c r="P29" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="106">
+        <v>0</v>
+      </c>
+      <c r="R29" s="106">
+        <v>0</v>
+      </c>
+      <c r="S29" s="106">
+        <v>0</v>
+      </c>
+      <c r="T29" s="103">
+        <v>0</v>
+      </c>
+      <c r="U29" s="104">
+        <v>0</v>
+      </c>
+      <c r="V29" s="105">
+        <v>0</v>
+      </c>
+      <c r="W29" s="107">
+        <v>1</v>
+      </c>
+      <c r="X29" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="110">
         <v>0</v>
       </c>
       <c r="AF29" s="4"/>
@@ -4612,95 +4675,95 @@
       <c r="AO29" s="4"/>
     </row>
     <row r="30" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="56">
-        <v>0</v>
-      </c>
-      <c r="E30" s="57">
-        <v>0</v>
-      </c>
-      <c r="F30" s="57">
-        <v>0</v>
-      </c>
-      <c r="G30" s="58">
-        <v>0</v>
-      </c>
-      <c r="H30" s="59">
-        <v>0</v>
-      </c>
-      <c r="I30" s="59">
-        <v>0</v>
-      </c>
-      <c r="J30" s="59">
-        <v>0</v>
-      </c>
-      <c r="K30" s="56">
-        <v>0</v>
-      </c>
-      <c r="L30" s="57">
-        <v>0</v>
-      </c>
-      <c r="M30" s="57">
-        <v>0</v>
-      </c>
-      <c r="N30" s="57">
-        <v>0</v>
-      </c>
-      <c r="O30" s="58">
-        <v>0</v>
-      </c>
-      <c r="P30" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="59">
-        <v>0</v>
-      </c>
-      <c r="R30" s="59">
-        <v>0</v>
-      </c>
-      <c r="S30" s="59">
-        <v>0</v>
-      </c>
-      <c r="T30" s="56">
-        <v>0</v>
-      </c>
-      <c r="U30" s="57">
-        <v>0</v>
-      </c>
-      <c r="V30" s="58">
-        <v>0</v>
-      </c>
-      <c r="W30" s="60">
-        <v>0</v>
-      </c>
-      <c r="X30" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="63">
+      <c r="D30" s="103">
+        <v>0</v>
+      </c>
+      <c r="E30" s="104">
+        <v>0</v>
+      </c>
+      <c r="F30" s="104">
+        <v>0</v>
+      </c>
+      <c r="G30" s="105">
+        <v>0</v>
+      </c>
+      <c r="H30" s="106">
+        <v>1</v>
+      </c>
+      <c r="I30" s="106">
+        <v>0</v>
+      </c>
+      <c r="J30" s="106">
+        <v>0</v>
+      </c>
+      <c r="K30" s="103">
+        <v>1</v>
+      </c>
+      <c r="L30" s="104">
+        <v>0</v>
+      </c>
+      <c r="M30" s="104">
+        <v>1</v>
+      </c>
+      <c r="N30" s="104">
+        <v>0</v>
+      </c>
+      <c r="O30" s="105">
+        <v>0</v>
+      </c>
+      <c r="P30" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="106">
+        <v>0</v>
+      </c>
+      <c r="R30" s="106">
+        <v>0</v>
+      </c>
+      <c r="S30" s="106">
+        <v>0</v>
+      </c>
+      <c r="T30" s="103">
+        <v>0</v>
+      </c>
+      <c r="U30" s="104">
+        <v>0</v>
+      </c>
+      <c r="V30" s="105">
+        <v>0</v>
+      </c>
+      <c r="W30" s="107">
+        <v>1</v>
+      </c>
+      <c r="X30" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="110">
         <v>0</v>
       </c>
       <c r="AF30" s="4"/>
@@ -4806,7 +4869,7 @@
       <c r="AE31" s="99">
         <v>0</v>
       </c>
-      <c r="AF31" s="4"/>
+      <c r="AF31" s="111"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
@@ -4909,7 +4972,7 @@
       <c r="AE32" s="99">
         <v>0</v>
       </c>
-      <c r="AF32" s="4"/>
+      <c r="AF32" s="111"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
@@ -4921,98 +4984,98 @@
       <c r="AO32" s="4"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="56">
-        <v>0</v>
-      </c>
-      <c r="E33" s="57">
-        <v>0</v>
-      </c>
-      <c r="F33" s="57">
-        <v>0</v>
-      </c>
-      <c r="G33" s="58">
-        <v>0</v>
-      </c>
-      <c r="H33" s="59">
-        <v>0</v>
-      </c>
-      <c r="I33" s="59">
-        <v>0</v>
-      </c>
-      <c r="J33" s="59">
-        <v>0</v>
-      </c>
-      <c r="K33" s="56">
-        <v>0</v>
-      </c>
-      <c r="L33" s="57">
-        <v>0</v>
-      </c>
-      <c r="M33" s="57">
-        <v>0</v>
-      </c>
-      <c r="N33" s="57">
-        <v>0</v>
-      </c>
-      <c r="O33" s="58">
-        <v>0</v>
-      </c>
-      <c r="P33" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="59">
-        <v>0</v>
-      </c>
-      <c r="R33" s="59">
-        <v>0</v>
-      </c>
-      <c r="S33" s="59">
-        <v>0</v>
-      </c>
-      <c r="T33" s="56">
-        <v>0</v>
-      </c>
-      <c r="U33" s="57">
-        <v>0</v>
-      </c>
-      <c r="V33" s="58">
-        <v>0</v>
-      </c>
-      <c r="W33" s="60">
-        <v>0</v>
-      </c>
-      <c r="X33" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="63">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="4"/>
+      <c r="D33" s="103">
+        <v>0</v>
+      </c>
+      <c r="E33" s="104">
+        <v>0</v>
+      </c>
+      <c r="F33" s="104">
+        <v>0</v>
+      </c>
+      <c r="G33" s="105">
+        <v>0</v>
+      </c>
+      <c r="H33" s="106">
+        <v>1</v>
+      </c>
+      <c r="I33" s="106">
+        <v>0</v>
+      </c>
+      <c r="J33" s="106">
+        <v>0</v>
+      </c>
+      <c r="K33" s="103">
+        <v>0</v>
+      </c>
+      <c r="L33" s="104">
+        <v>1</v>
+      </c>
+      <c r="M33" s="104">
+        <v>1</v>
+      </c>
+      <c r="N33" s="104">
+        <v>0</v>
+      </c>
+      <c r="O33" s="105">
+        <v>0</v>
+      </c>
+      <c r="P33" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="106">
+        <v>0</v>
+      </c>
+      <c r="R33" s="106">
+        <v>0</v>
+      </c>
+      <c r="S33" s="106">
+        <v>0</v>
+      </c>
+      <c r="T33" s="103">
+        <v>0</v>
+      </c>
+      <c r="U33" s="104">
+        <v>0</v>
+      </c>
+      <c r="V33" s="105">
+        <v>0</v>
+      </c>
+      <c r="W33" s="107">
+        <v>1</v>
+      </c>
+      <c r="X33" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="110">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="112"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
@@ -5024,95 +5087,95 @@
       <c r="AO33" s="4"/>
     </row>
     <row r="34" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="56">
-        <v>0</v>
-      </c>
-      <c r="E34" s="57">
-        <v>0</v>
-      </c>
-      <c r="F34" s="57">
-        <v>0</v>
-      </c>
-      <c r="G34" s="58">
-        <v>0</v>
-      </c>
-      <c r="H34" s="59">
-        <v>0</v>
-      </c>
-      <c r="I34" s="59">
-        <v>0</v>
-      </c>
-      <c r="J34" s="59">
-        <v>0</v>
-      </c>
-      <c r="K34" s="56">
-        <v>0</v>
-      </c>
-      <c r="L34" s="57">
-        <v>0</v>
-      </c>
-      <c r="M34" s="57">
-        <v>0</v>
-      </c>
-      <c r="N34" s="57">
-        <v>0</v>
-      </c>
-      <c r="O34" s="58">
-        <v>0</v>
-      </c>
-      <c r="P34" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="59">
-        <v>0</v>
-      </c>
-      <c r="R34" s="59">
-        <v>0</v>
-      </c>
-      <c r="S34" s="59">
-        <v>0</v>
-      </c>
-      <c r="T34" s="56">
-        <v>0</v>
-      </c>
-      <c r="U34" s="57">
-        <v>0</v>
-      </c>
-      <c r="V34" s="58">
-        <v>0</v>
-      </c>
-      <c r="W34" s="60">
-        <v>0</v>
-      </c>
-      <c r="X34" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="63">
+      <c r="D34" s="103">
+        <v>0</v>
+      </c>
+      <c r="E34" s="104">
+        <v>0</v>
+      </c>
+      <c r="F34" s="104">
+        <v>0</v>
+      </c>
+      <c r="G34" s="105">
+        <v>0</v>
+      </c>
+      <c r="H34" s="106">
+        <v>1</v>
+      </c>
+      <c r="I34" s="106">
+        <v>0</v>
+      </c>
+      <c r="J34" s="106">
+        <v>0</v>
+      </c>
+      <c r="K34" s="103">
+        <v>0</v>
+      </c>
+      <c r="L34" s="104">
+        <v>1</v>
+      </c>
+      <c r="M34" s="104">
+        <v>1</v>
+      </c>
+      <c r="N34" s="104">
+        <v>0</v>
+      </c>
+      <c r="O34" s="105">
+        <v>1</v>
+      </c>
+      <c r="P34" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="106">
+        <v>0</v>
+      </c>
+      <c r="R34" s="106">
+        <v>0</v>
+      </c>
+      <c r="S34" s="106">
+        <v>0</v>
+      </c>
+      <c r="T34" s="103">
+        <v>0</v>
+      </c>
+      <c r="U34" s="104">
+        <v>0</v>
+      </c>
+      <c r="V34" s="105">
+        <v>0</v>
+      </c>
+      <c r="W34" s="107">
+        <v>1</v>
+      </c>
+      <c r="X34" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="110">
         <v>0</v>
       </c>
       <c r="AF34" s="4"/>
@@ -5218,7 +5281,7 @@
       <c r="AE35" s="99">
         <v>0</v>
       </c>
-      <c r="AF35" s="4"/>
+      <c r="AF35" s="111"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
@@ -5230,95 +5293,95 @@
       <c r="AO35" s="4"/>
     </row>
     <row r="36" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="56">
-        <v>0</v>
-      </c>
-      <c r="E36" s="57">
-        <v>0</v>
-      </c>
-      <c r="F36" s="57">
-        <v>0</v>
-      </c>
-      <c r="G36" s="58">
-        <v>0</v>
-      </c>
-      <c r="H36" s="59">
-        <v>0</v>
-      </c>
-      <c r="I36" s="59">
-        <v>0</v>
-      </c>
-      <c r="J36" s="59">
-        <v>0</v>
-      </c>
-      <c r="K36" s="56">
-        <v>0</v>
-      </c>
-      <c r="L36" s="57">
-        <v>0</v>
-      </c>
-      <c r="M36" s="57">
-        <v>0</v>
-      </c>
-      <c r="N36" s="57">
-        <v>0</v>
-      </c>
-      <c r="O36" s="58">
-        <v>0</v>
-      </c>
-      <c r="P36" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="59">
-        <v>0</v>
-      </c>
-      <c r="R36" s="59">
-        <v>0</v>
-      </c>
-      <c r="S36" s="59">
-        <v>0</v>
-      </c>
-      <c r="T36" s="56">
-        <v>0</v>
-      </c>
-      <c r="U36" s="57">
-        <v>0</v>
-      </c>
-      <c r="V36" s="58">
-        <v>0</v>
-      </c>
-      <c r="W36" s="60">
-        <v>0</v>
-      </c>
-      <c r="X36" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="63">
+      <c r="D36" s="70">
+        <v>0</v>
+      </c>
+      <c r="E36" s="71">
+        <v>0</v>
+      </c>
+      <c r="F36" s="71">
+        <v>0</v>
+      </c>
+      <c r="G36" s="72">
+        <v>0</v>
+      </c>
+      <c r="H36" s="73">
+        <v>0</v>
+      </c>
+      <c r="I36" s="73">
+        <v>0</v>
+      </c>
+      <c r="J36" s="73">
+        <v>0</v>
+      </c>
+      <c r="K36" s="70">
+        <v>0</v>
+      </c>
+      <c r="L36" s="71">
+        <v>0</v>
+      </c>
+      <c r="M36" s="71">
+        <v>0</v>
+      </c>
+      <c r="N36" s="71">
+        <v>0</v>
+      </c>
+      <c r="O36" s="72">
+        <v>0</v>
+      </c>
+      <c r="P36" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="73">
+        <v>0</v>
+      </c>
+      <c r="R36" s="73">
+        <v>0</v>
+      </c>
+      <c r="S36" s="73">
+        <v>0</v>
+      </c>
+      <c r="T36" s="70">
+        <v>0</v>
+      </c>
+      <c r="U36" s="71">
+        <v>0</v>
+      </c>
+      <c r="V36" s="72">
+        <v>0</v>
+      </c>
+      <c r="W36" s="74">
+        <v>0</v>
+      </c>
+      <c r="X36" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="77">
         <v>0</v>
       </c>
       <c r="AF36" s="4"/>
@@ -5333,95 +5396,95 @@
       <c r="AO36" s="4"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="56">
-        <v>0</v>
-      </c>
-      <c r="E37" s="57">
-        <v>0</v>
-      </c>
-      <c r="F37" s="57">
-        <v>0</v>
-      </c>
-      <c r="G37" s="58">
-        <v>0</v>
-      </c>
-      <c r="H37" s="59">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
-        <v>0</v>
-      </c>
-      <c r="J37" s="59">
-        <v>0</v>
-      </c>
-      <c r="K37" s="56">
-        <v>0</v>
-      </c>
-      <c r="L37" s="57">
-        <v>0</v>
-      </c>
-      <c r="M37" s="57">
-        <v>0</v>
-      </c>
-      <c r="N37" s="57">
-        <v>0</v>
-      </c>
-      <c r="O37" s="58">
-        <v>0</v>
-      </c>
-      <c r="P37" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="59">
-        <v>0</v>
-      </c>
-      <c r="R37" s="59">
-        <v>0</v>
-      </c>
-      <c r="S37" s="59">
-        <v>0</v>
-      </c>
-      <c r="T37" s="56">
-        <v>0</v>
-      </c>
-      <c r="U37" s="57">
-        <v>0</v>
-      </c>
-      <c r="V37" s="58">
-        <v>0</v>
-      </c>
-      <c r="W37" s="60">
-        <v>0</v>
-      </c>
-      <c r="X37" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="63">
+      <c r="D37" s="70">
+        <v>0</v>
+      </c>
+      <c r="E37" s="71">
+        <v>0</v>
+      </c>
+      <c r="F37" s="71">
+        <v>0</v>
+      </c>
+      <c r="G37" s="72">
+        <v>0</v>
+      </c>
+      <c r="H37" s="73">
+        <v>0</v>
+      </c>
+      <c r="I37" s="73">
+        <v>0</v>
+      </c>
+      <c r="J37" s="73">
+        <v>0</v>
+      </c>
+      <c r="K37" s="70">
+        <v>0</v>
+      </c>
+      <c r="L37" s="71">
+        <v>0</v>
+      </c>
+      <c r="M37" s="71">
+        <v>0</v>
+      </c>
+      <c r="N37" s="71">
+        <v>0</v>
+      </c>
+      <c r="O37" s="72">
+        <v>0</v>
+      </c>
+      <c r="P37" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="73">
+        <v>0</v>
+      </c>
+      <c r="R37" s="73">
+        <v>0</v>
+      </c>
+      <c r="S37" s="73">
+        <v>0</v>
+      </c>
+      <c r="T37" s="70">
+        <v>0</v>
+      </c>
+      <c r="U37" s="71">
+        <v>0</v>
+      </c>
+      <c r="V37" s="72">
+        <v>0</v>
+      </c>
+      <c r="W37" s="74">
+        <v>0</v>
+      </c>
+      <c r="X37" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="77">
         <v>0</v>
       </c>
       <c r="AF37" s="4"/>
@@ -5436,95 +5499,95 @@
       <c r="AO37" s="4"/>
     </row>
     <row r="38" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="56">
-        <v>0</v>
-      </c>
-      <c r="E38" s="57">
-        <v>0</v>
-      </c>
-      <c r="F38" s="57">
-        <v>0</v>
-      </c>
-      <c r="G38" s="58">
-        <v>0</v>
-      </c>
-      <c r="H38" s="59">
-        <v>0</v>
-      </c>
-      <c r="I38" s="59">
-        <v>0</v>
-      </c>
-      <c r="J38" s="59">
-        <v>0</v>
-      </c>
-      <c r="K38" s="56">
-        <v>0</v>
-      </c>
-      <c r="L38" s="57">
-        <v>0</v>
-      </c>
-      <c r="M38" s="57">
-        <v>0</v>
-      </c>
-      <c r="N38" s="57">
-        <v>0</v>
-      </c>
-      <c r="O38" s="58">
-        <v>0</v>
-      </c>
-      <c r="P38" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="59">
-        <v>0</v>
-      </c>
-      <c r="R38" s="59">
-        <v>0</v>
-      </c>
-      <c r="S38" s="59">
-        <v>0</v>
-      </c>
-      <c r="T38" s="56">
-        <v>0</v>
-      </c>
-      <c r="U38" s="57">
-        <v>0</v>
-      </c>
-      <c r="V38" s="58">
-        <v>0</v>
-      </c>
-      <c r="W38" s="60">
-        <v>0</v>
-      </c>
-      <c r="X38" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="63">
+      <c r="D38" s="70">
+        <v>0</v>
+      </c>
+      <c r="E38" s="71">
+        <v>0</v>
+      </c>
+      <c r="F38" s="71">
+        <v>0</v>
+      </c>
+      <c r="G38" s="72">
+        <v>0</v>
+      </c>
+      <c r="H38" s="73">
+        <v>0</v>
+      </c>
+      <c r="I38" s="73">
+        <v>0</v>
+      </c>
+      <c r="J38" s="73">
+        <v>0</v>
+      </c>
+      <c r="K38" s="70">
+        <v>0</v>
+      </c>
+      <c r="L38" s="71">
+        <v>0</v>
+      </c>
+      <c r="M38" s="71">
+        <v>0</v>
+      </c>
+      <c r="N38" s="71">
+        <v>0</v>
+      </c>
+      <c r="O38" s="72">
+        <v>0</v>
+      </c>
+      <c r="P38" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="73">
+        <v>0</v>
+      </c>
+      <c r="R38" s="73">
+        <v>0</v>
+      </c>
+      <c r="S38" s="73">
+        <v>0</v>
+      </c>
+      <c r="T38" s="70">
+        <v>0</v>
+      </c>
+      <c r="U38" s="71">
+        <v>0</v>
+      </c>
+      <c r="V38" s="72">
+        <v>0</v>
+      </c>
+      <c r="W38" s="74">
+        <v>0</v>
+      </c>
+      <c r="X38" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="77">
         <v>0</v>
       </c>
       <c r="AF38" s="4"/>
@@ -5539,95 +5602,95 @@
       <c r="AO38" s="4"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="56">
-        <v>0</v>
-      </c>
-      <c r="E39" s="57">
-        <v>0</v>
-      </c>
-      <c r="F39" s="57">
-        <v>0</v>
-      </c>
-      <c r="G39" s="58">
-        <v>0</v>
-      </c>
-      <c r="H39" s="59">
-        <v>0</v>
-      </c>
-      <c r="I39" s="59">
-        <v>0</v>
-      </c>
-      <c r="J39" s="59">
-        <v>0</v>
-      </c>
-      <c r="K39" s="56">
-        <v>0</v>
-      </c>
-      <c r="L39" s="57">
-        <v>0</v>
-      </c>
-      <c r="M39" s="57">
-        <v>0</v>
-      </c>
-      <c r="N39" s="57">
-        <v>0</v>
-      </c>
-      <c r="O39" s="58">
-        <v>0</v>
-      </c>
-      <c r="P39" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="59">
-        <v>0</v>
-      </c>
-      <c r="R39" s="59">
-        <v>0</v>
-      </c>
-      <c r="S39" s="59">
-        <v>0</v>
-      </c>
-      <c r="T39" s="56">
-        <v>0</v>
-      </c>
-      <c r="U39" s="57">
-        <v>0</v>
-      </c>
-      <c r="V39" s="58">
-        <v>0</v>
-      </c>
-      <c r="W39" s="60">
-        <v>0</v>
-      </c>
-      <c r="X39" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="63">
+      <c r="D39" s="70">
+        <v>0</v>
+      </c>
+      <c r="E39" s="71">
+        <v>0</v>
+      </c>
+      <c r="F39" s="71">
+        <v>0</v>
+      </c>
+      <c r="G39" s="72">
+        <v>0</v>
+      </c>
+      <c r="H39" s="73">
+        <v>0</v>
+      </c>
+      <c r="I39" s="73">
+        <v>0</v>
+      </c>
+      <c r="J39" s="73">
+        <v>0</v>
+      </c>
+      <c r="K39" s="70">
+        <v>0</v>
+      </c>
+      <c r="L39" s="71">
+        <v>0</v>
+      </c>
+      <c r="M39" s="71">
+        <v>0</v>
+      </c>
+      <c r="N39" s="71">
+        <v>0</v>
+      </c>
+      <c r="O39" s="72">
+        <v>0</v>
+      </c>
+      <c r="P39" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="73">
+        <v>0</v>
+      </c>
+      <c r="R39" s="73">
+        <v>0</v>
+      </c>
+      <c r="S39" s="73">
+        <v>0</v>
+      </c>
+      <c r="T39" s="70">
+        <v>0</v>
+      </c>
+      <c r="U39" s="71">
+        <v>0</v>
+      </c>
+      <c r="V39" s="72">
+        <v>0</v>
+      </c>
+      <c r="W39" s="74">
+        <v>0</v>
+      </c>
+      <c r="X39" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="77">
         <v>0</v>
       </c>
       <c r="AF39" s="4"/>
@@ -5642,95 +5705,95 @@
       <c r="AO39" s="4"/>
     </row>
     <row r="40" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55" t="s">
+      <c r="B40" s="68"/>
+      <c r="C40" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="56">
-        <v>0</v>
-      </c>
-      <c r="E40" s="57">
-        <v>0</v>
-      </c>
-      <c r="F40" s="57">
-        <v>0</v>
-      </c>
-      <c r="G40" s="58">
-        <v>0</v>
-      </c>
-      <c r="H40" s="59">
-        <v>0</v>
-      </c>
-      <c r="I40" s="59">
-        <v>0</v>
-      </c>
-      <c r="J40" s="59">
-        <v>0</v>
-      </c>
-      <c r="K40" s="56">
-        <v>0</v>
-      </c>
-      <c r="L40" s="57">
-        <v>0</v>
-      </c>
-      <c r="M40" s="57">
-        <v>0</v>
-      </c>
-      <c r="N40" s="57">
-        <v>0</v>
-      </c>
-      <c r="O40" s="58">
-        <v>0</v>
-      </c>
-      <c r="P40" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="59">
-        <v>0</v>
-      </c>
-      <c r="R40" s="59">
-        <v>0</v>
-      </c>
-      <c r="S40" s="59">
-        <v>0</v>
-      </c>
-      <c r="T40" s="56">
-        <v>0</v>
-      </c>
-      <c r="U40" s="57">
-        <v>0</v>
-      </c>
-      <c r="V40" s="58">
-        <v>0</v>
-      </c>
-      <c r="W40" s="60">
-        <v>0</v>
-      </c>
-      <c r="X40" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="63">
+      <c r="D40" s="70">
+        <v>0</v>
+      </c>
+      <c r="E40" s="71">
+        <v>0</v>
+      </c>
+      <c r="F40" s="71">
+        <v>0</v>
+      </c>
+      <c r="G40" s="72">
+        <v>0</v>
+      </c>
+      <c r="H40" s="73">
+        <v>0</v>
+      </c>
+      <c r="I40" s="73">
+        <v>0</v>
+      </c>
+      <c r="J40" s="73">
+        <v>0</v>
+      </c>
+      <c r="K40" s="70">
+        <v>0</v>
+      </c>
+      <c r="L40" s="71">
+        <v>0</v>
+      </c>
+      <c r="M40" s="71">
+        <v>0</v>
+      </c>
+      <c r="N40" s="71">
+        <v>0</v>
+      </c>
+      <c r="O40" s="72">
+        <v>0</v>
+      </c>
+      <c r="P40" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="73">
+        <v>0</v>
+      </c>
+      <c r="R40" s="73">
+        <v>0</v>
+      </c>
+      <c r="S40" s="73">
+        <v>0</v>
+      </c>
+      <c r="T40" s="70">
+        <v>0</v>
+      </c>
+      <c r="U40" s="71">
+        <v>0</v>
+      </c>
+      <c r="V40" s="72">
+        <v>0</v>
+      </c>
+      <c r="W40" s="74">
+        <v>0</v>
+      </c>
+      <c r="X40" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="73">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="73">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="77">
         <v>0</v>
       </c>
       <c r="AF40" s="4"/>
@@ -5745,95 +5808,95 @@
       <c r="AO40" s="4"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55" t="s">
+      <c r="B41" s="101"/>
+      <c r="C41" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="56">
-        <v>0</v>
-      </c>
-      <c r="E41" s="57">
-        <v>0</v>
-      </c>
-      <c r="F41" s="57">
-        <v>0</v>
-      </c>
-      <c r="G41" s="58">
-        <v>0</v>
-      </c>
-      <c r="H41" s="59">
-        <v>0</v>
-      </c>
-      <c r="I41" s="59">
-        <v>0</v>
-      </c>
-      <c r="J41" s="59">
-        <v>0</v>
-      </c>
-      <c r="K41" s="56">
-        <v>0</v>
-      </c>
-      <c r="L41" s="57">
-        <v>0</v>
-      </c>
-      <c r="M41" s="57">
-        <v>0</v>
-      </c>
-      <c r="N41" s="57">
-        <v>0</v>
-      </c>
-      <c r="O41" s="58">
-        <v>0</v>
-      </c>
-      <c r="P41" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="59">
-        <v>0</v>
-      </c>
-      <c r="R41" s="59">
-        <v>0</v>
-      </c>
-      <c r="S41" s="59">
-        <v>0</v>
-      </c>
-      <c r="T41" s="56">
-        <v>0</v>
-      </c>
-      <c r="U41" s="57">
-        <v>0</v>
-      </c>
-      <c r="V41" s="58">
-        <v>0</v>
-      </c>
-      <c r="W41" s="60">
-        <v>0</v>
-      </c>
-      <c r="X41" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="63">
+      <c r="D41" s="103">
+        <v>0</v>
+      </c>
+      <c r="E41" s="104">
+        <v>0</v>
+      </c>
+      <c r="F41" s="104">
+        <v>0</v>
+      </c>
+      <c r="G41" s="105">
+        <v>0</v>
+      </c>
+      <c r="H41" s="106">
+        <v>1</v>
+      </c>
+      <c r="I41" s="106">
+        <v>0</v>
+      </c>
+      <c r="J41" s="106">
+        <v>0</v>
+      </c>
+      <c r="K41" s="103">
+        <v>1</v>
+      </c>
+      <c r="L41" s="104">
+        <v>0</v>
+      </c>
+      <c r="M41" s="104">
+        <v>1</v>
+      </c>
+      <c r="N41" s="104">
+        <v>1</v>
+      </c>
+      <c r="O41" s="105">
+        <v>0</v>
+      </c>
+      <c r="P41" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="106">
+        <v>0</v>
+      </c>
+      <c r="R41" s="106">
+        <v>0</v>
+      </c>
+      <c r="S41" s="106">
+        <v>0</v>
+      </c>
+      <c r="T41" s="103">
+        <v>0</v>
+      </c>
+      <c r="U41" s="104">
+        <v>0</v>
+      </c>
+      <c r="V41" s="105">
+        <v>0</v>
+      </c>
+      <c r="W41" s="107">
+        <v>1</v>
+      </c>
+      <c r="X41" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="110">
         <v>0</v>
       </c>
       <c r="AF41" s="4"/>
@@ -5848,95 +5911,95 @@
       <c r="AO41" s="4"/>
     </row>
     <row r="42" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55" t="s">
+      <c r="B42" s="101"/>
+      <c r="C42" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="56">
-        <v>0</v>
-      </c>
-      <c r="E42" s="57">
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
-        <v>0</v>
-      </c>
-      <c r="G42" s="58">
-        <v>0</v>
-      </c>
-      <c r="H42" s="59">
-        <v>0</v>
-      </c>
-      <c r="I42" s="59">
-        <v>0</v>
-      </c>
-      <c r="J42" s="59">
-        <v>0</v>
-      </c>
-      <c r="K42" s="56">
-        <v>0</v>
-      </c>
-      <c r="L42" s="57">
-        <v>0</v>
-      </c>
-      <c r="M42" s="57">
-        <v>0</v>
-      </c>
-      <c r="N42" s="57">
-        <v>0</v>
-      </c>
-      <c r="O42" s="58">
-        <v>0</v>
-      </c>
-      <c r="P42" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="59">
-        <v>0</v>
-      </c>
-      <c r="R42" s="59">
-        <v>0</v>
-      </c>
-      <c r="S42" s="59">
-        <v>0</v>
-      </c>
-      <c r="T42" s="56">
-        <v>0</v>
-      </c>
-      <c r="U42" s="57">
-        <v>0</v>
-      </c>
-      <c r="V42" s="58">
-        <v>0</v>
-      </c>
-      <c r="W42" s="60">
-        <v>0</v>
-      </c>
-      <c r="X42" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="63">
+      <c r="D42" s="103">
+        <v>0</v>
+      </c>
+      <c r="E42" s="104">
+        <v>0</v>
+      </c>
+      <c r="F42" s="104">
+        <v>0</v>
+      </c>
+      <c r="G42" s="105">
+        <v>0</v>
+      </c>
+      <c r="H42" s="106">
+        <v>1</v>
+      </c>
+      <c r="I42" s="106">
+        <v>0</v>
+      </c>
+      <c r="J42" s="106">
+        <v>0</v>
+      </c>
+      <c r="K42" s="103">
+        <v>1</v>
+      </c>
+      <c r="L42" s="104">
+        <v>1</v>
+      </c>
+      <c r="M42" s="104">
+        <v>0</v>
+      </c>
+      <c r="N42" s="104">
+        <v>0</v>
+      </c>
+      <c r="O42" s="105">
+        <v>0</v>
+      </c>
+      <c r="P42" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="106">
+        <v>0</v>
+      </c>
+      <c r="R42" s="106">
+        <v>0</v>
+      </c>
+      <c r="S42" s="106">
+        <v>0</v>
+      </c>
+      <c r="T42" s="103">
+        <v>0</v>
+      </c>
+      <c r="U42" s="104">
+        <v>0</v>
+      </c>
+      <c r="V42" s="105">
+        <v>0</v>
+      </c>
+      <c r="W42" s="107">
+        <v>1</v>
+      </c>
+      <c r="X42" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="110">
         <v>0</v>
       </c>
       <c r="AF42" s="4"/>
@@ -5951,95 +6014,95 @@
       <c r="AO42" s="4"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="56">
-        <v>0</v>
-      </c>
-      <c r="E43" s="57">
-        <v>0</v>
-      </c>
-      <c r="F43" s="57">
-        <v>0</v>
-      </c>
-      <c r="G43" s="58">
-        <v>0</v>
-      </c>
-      <c r="H43" s="59">
-        <v>0</v>
-      </c>
-      <c r="I43" s="59">
-        <v>0</v>
-      </c>
-      <c r="J43" s="59">
-        <v>0</v>
-      </c>
-      <c r="K43" s="56">
-        <v>0</v>
-      </c>
-      <c r="L43" s="57">
-        <v>0</v>
-      </c>
-      <c r="M43" s="57">
-        <v>0</v>
-      </c>
-      <c r="N43" s="57">
-        <v>0</v>
-      </c>
-      <c r="O43" s="58">
-        <v>0</v>
-      </c>
-      <c r="P43" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="59">
-        <v>0</v>
-      </c>
-      <c r="R43" s="59">
-        <v>0</v>
-      </c>
-      <c r="S43" s="59">
-        <v>0</v>
-      </c>
-      <c r="T43" s="56">
-        <v>0</v>
-      </c>
-      <c r="U43" s="57">
-        <v>0</v>
-      </c>
-      <c r="V43" s="58">
-        <v>0</v>
-      </c>
-      <c r="W43" s="60">
-        <v>0</v>
-      </c>
-      <c r="X43" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="63">
+      <c r="D43" s="103">
+        <v>0</v>
+      </c>
+      <c r="E43" s="104">
+        <v>0</v>
+      </c>
+      <c r="F43" s="104">
+        <v>0</v>
+      </c>
+      <c r="G43" s="105">
+        <v>0</v>
+      </c>
+      <c r="H43" s="106">
+        <v>0</v>
+      </c>
+      <c r="I43" s="106">
+        <v>0</v>
+      </c>
+      <c r="J43" s="106">
+        <v>0</v>
+      </c>
+      <c r="K43" s="103">
+        <v>0</v>
+      </c>
+      <c r="L43" s="104">
+        <v>0</v>
+      </c>
+      <c r="M43" s="104">
+        <v>0</v>
+      </c>
+      <c r="N43" s="104">
+        <v>0</v>
+      </c>
+      <c r="O43" s="105">
+        <v>0</v>
+      </c>
+      <c r="P43" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="106">
+        <v>0</v>
+      </c>
+      <c r="R43" s="106">
+        <v>0</v>
+      </c>
+      <c r="S43" s="106">
+        <v>0</v>
+      </c>
+      <c r="T43" s="103">
+        <v>0</v>
+      </c>
+      <c r="U43" s="104">
+        <v>0</v>
+      </c>
+      <c r="V43" s="105">
+        <v>0</v>
+      </c>
+      <c r="W43" s="107">
+        <v>1</v>
+      </c>
+      <c r="X43" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="110">
         <v>0</v>
       </c>
       <c r="AF43" s="4"/>
@@ -6054,95 +6117,95 @@
       <c r="AO43" s="4"/>
     </row>
     <row r="44" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="101"/>
+      <c r="C44" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="56">
-        <v>0</v>
-      </c>
-      <c r="E44" s="57">
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
-        <v>0</v>
-      </c>
-      <c r="G44" s="58">
-        <v>0</v>
-      </c>
-      <c r="H44" s="59">
-        <v>0</v>
-      </c>
-      <c r="I44" s="59">
-        <v>0</v>
-      </c>
-      <c r="J44" s="59">
-        <v>0</v>
-      </c>
-      <c r="K44" s="56">
-        <v>0</v>
-      </c>
-      <c r="L44" s="57">
-        <v>0</v>
-      </c>
-      <c r="M44" s="57">
-        <v>0</v>
-      </c>
-      <c r="N44" s="57">
-        <v>0</v>
-      </c>
-      <c r="O44" s="58">
-        <v>0</v>
-      </c>
-      <c r="P44" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="59">
-        <v>0</v>
-      </c>
-      <c r="R44" s="59">
-        <v>0</v>
-      </c>
-      <c r="S44" s="59">
-        <v>0</v>
-      </c>
-      <c r="T44" s="56">
-        <v>0</v>
-      </c>
-      <c r="U44" s="57">
-        <v>0</v>
-      </c>
-      <c r="V44" s="58">
-        <v>0</v>
-      </c>
-      <c r="W44" s="60">
-        <v>0</v>
-      </c>
-      <c r="X44" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="63">
+      <c r="D44" s="103">
+        <v>0</v>
+      </c>
+      <c r="E44" s="104">
+        <v>0</v>
+      </c>
+      <c r="F44" s="104">
+        <v>0</v>
+      </c>
+      <c r="G44" s="105">
+        <v>0</v>
+      </c>
+      <c r="H44" s="106">
+        <v>0</v>
+      </c>
+      <c r="I44" s="106">
+        <v>0</v>
+      </c>
+      <c r="J44" s="106">
+        <v>0</v>
+      </c>
+      <c r="K44" s="103">
+        <v>0</v>
+      </c>
+      <c r="L44" s="104">
+        <v>0</v>
+      </c>
+      <c r="M44" s="104">
+        <v>0</v>
+      </c>
+      <c r="N44" s="104">
+        <v>0</v>
+      </c>
+      <c r="O44" s="105">
+        <v>0</v>
+      </c>
+      <c r="P44" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="106">
+        <v>0</v>
+      </c>
+      <c r="R44" s="106">
+        <v>0</v>
+      </c>
+      <c r="S44" s="106">
+        <v>0</v>
+      </c>
+      <c r="T44" s="103">
+        <v>0</v>
+      </c>
+      <c r="U44" s="104">
+        <v>0</v>
+      </c>
+      <c r="V44" s="105">
+        <v>0</v>
+      </c>
+      <c r="W44" s="107">
+        <v>0</v>
+      </c>
+      <c r="X44" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="110">
         <v>0</v>
       </c>
       <c r="AF44" s="4"/>
@@ -6157,95 +6220,95 @@
       <c r="AO44" s="4"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="101"/>
+      <c r="C45" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="56">
-        <v>0</v>
-      </c>
-      <c r="E45" s="57">
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
-        <v>0</v>
-      </c>
-      <c r="G45" s="58">
-        <v>0</v>
-      </c>
-      <c r="H45" s="59">
-        <v>0</v>
-      </c>
-      <c r="I45" s="59">
-        <v>0</v>
-      </c>
-      <c r="J45" s="59">
-        <v>0</v>
-      </c>
-      <c r="K45" s="56">
-        <v>0</v>
-      </c>
-      <c r="L45" s="57">
-        <v>0</v>
-      </c>
-      <c r="M45" s="57">
-        <v>0</v>
-      </c>
-      <c r="N45" s="57">
-        <v>0</v>
-      </c>
-      <c r="O45" s="58">
-        <v>0</v>
-      </c>
-      <c r="P45" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="59">
-        <v>0</v>
-      </c>
-      <c r="R45" s="59">
-        <v>0</v>
-      </c>
-      <c r="S45" s="59">
-        <v>0</v>
-      </c>
-      <c r="T45" s="56">
-        <v>0</v>
-      </c>
-      <c r="U45" s="57">
-        <v>0</v>
-      </c>
-      <c r="V45" s="58">
-        <v>0</v>
-      </c>
-      <c r="W45" s="60">
-        <v>0</v>
-      </c>
-      <c r="X45" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="63">
+      <c r="D45" s="103">
+        <v>0</v>
+      </c>
+      <c r="E45" s="104">
+        <v>0</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
+      </c>
+      <c r="G45" s="105">
+        <v>0</v>
+      </c>
+      <c r="H45" s="106">
+        <v>0</v>
+      </c>
+      <c r="I45" s="106">
+        <v>0</v>
+      </c>
+      <c r="J45" s="106">
+        <v>0</v>
+      </c>
+      <c r="K45" s="103">
+        <v>0</v>
+      </c>
+      <c r="L45" s="104">
+        <v>0</v>
+      </c>
+      <c r="M45" s="104">
+        <v>0</v>
+      </c>
+      <c r="N45" s="104">
+        <v>0</v>
+      </c>
+      <c r="O45" s="105">
+        <v>0</v>
+      </c>
+      <c r="P45" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="106">
+        <v>0</v>
+      </c>
+      <c r="R45" s="106">
+        <v>0</v>
+      </c>
+      <c r="S45" s="106">
+        <v>0</v>
+      </c>
+      <c r="T45" s="103">
+        <v>0</v>
+      </c>
+      <c r="U45" s="104">
+        <v>0</v>
+      </c>
+      <c r="V45" s="105">
+        <v>0</v>
+      </c>
+      <c r="W45" s="107">
+        <v>0</v>
+      </c>
+      <c r="X45" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="110">
         <v>0</v>
       </c>
       <c r="AF45" s="4"/>
@@ -6260,95 +6323,95 @@
       <c r="AO45" s="4"/>
     </row>
     <row r="46" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55" t="s">
+      <c r="B46" s="101"/>
+      <c r="C46" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="56">
-        <v>0</v>
-      </c>
-      <c r="E46" s="57">
-        <v>0</v>
-      </c>
-      <c r="F46" s="57">
-        <v>0</v>
-      </c>
-      <c r="G46" s="58">
-        <v>0</v>
-      </c>
-      <c r="H46" s="59">
-        <v>0</v>
-      </c>
-      <c r="I46" s="59">
-        <v>0</v>
-      </c>
-      <c r="J46" s="59">
-        <v>0</v>
-      </c>
-      <c r="K46" s="56">
-        <v>0</v>
-      </c>
-      <c r="L46" s="57">
-        <v>0</v>
-      </c>
-      <c r="M46" s="57">
-        <v>0</v>
-      </c>
-      <c r="N46" s="57">
-        <v>0</v>
-      </c>
-      <c r="O46" s="58">
-        <v>0</v>
-      </c>
-      <c r="P46" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="59">
-        <v>0</v>
-      </c>
-      <c r="R46" s="59">
-        <v>0</v>
-      </c>
-      <c r="S46" s="59">
-        <v>0</v>
-      </c>
-      <c r="T46" s="56">
-        <v>0</v>
-      </c>
-      <c r="U46" s="57">
-        <v>0</v>
-      </c>
-      <c r="V46" s="58">
-        <v>0</v>
-      </c>
-      <c r="W46" s="60">
-        <v>0</v>
-      </c>
-      <c r="X46" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="63">
+      <c r="D46" s="103">
+        <v>0</v>
+      </c>
+      <c r="E46" s="104">
+        <v>0</v>
+      </c>
+      <c r="F46" s="104">
+        <v>0</v>
+      </c>
+      <c r="G46" s="105">
+        <v>0</v>
+      </c>
+      <c r="H46" s="106">
+        <v>0</v>
+      </c>
+      <c r="I46" s="106">
+        <v>0</v>
+      </c>
+      <c r="J46" s="106">
+        <v>0</v>
+      </c>
+      <c r="K46" s="103">
+        <v>0</v>
+      </c>
+      <c r="L46" s="104">
+        <v>0</v>
+      </c>
+      <c r="M46" s="104">
+        <v>0</v>
+      </c>
+      <c r="N46" s="104">
+        <v>0</v>
+      </c>
+      <c r="O46" s="105">
+        <v>0</v>
+      </c>
+      <c r="P46" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="106">
+        <v>0</v>
+      </c>
+      <c r="R46" s="106">
+        <v>0</v>
+      </c>
+      <c r="S46" s="106">
+        <v>0</v>
+      </c>
+      <c r="T46" s="103">
+        <v>0</v>
+      </c>
+      <c r="U46" s="104">
+        <v>0</v>
+      </c>
+      <c r="V46" s="105">
+        <v>0</v>
+      </c>
+      <c r="W46" s="107">
+        <v>0</v>
+      </c>
+      <c r="X46" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="110">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="110">
         <v>0</v>
       </c>
       <c r="AF46" s="4"/>
@@ -6363,95 +6426,95 @@
       <c r="AO46" s="4"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="101"/>
+      <c r="C47" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="56">
-        <v>0</v>
-      </c>
-      <c r="E47" s="57">
-        <v>0</v>
-      </c>
-      <c r="F47" s="57">
-        <v>0</v>
-      </c>
-      <c r="G47" s="58">
-        <v>0</v>
-      </c>
-      <c r="H47" s="59">
-        <v>0</v>
-      </c>
-      <c r="I47" s="59">
-        <v>0</v>
-      </c>
-      <c r="J47" s="59">
-        <v>0</v>
-      </c>
-      <c r="K47" s="56">
-        <v>0</v>
-      </c>
-      <c r="L47" s="57">
-        <v>0</v>
-      </c>
-      <c r="M47" s="57">
-        <v>0</v>
-      </c>
-      <c r="N47" s="57">
-        <v>0</v>
-      </c>
-      <c r="O47" s="58">
-        <v>0</v>
-      </c>
-      <c r="P47" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="59">
-        <v>0</v>
-      </c>
-      <c r="R47" s="59">
-        <v>0</v>
-      </c>
-      <c r="S47" s="59">
-        <v>0</v>
-      </c>
-      <c r="T47" s="56">
-        <v>0</v>
-      </c>
-      <c r="U47" s="57">
-        <v>0</v>
-      </c>
-      <c r="V47" s="58">
-        <v>0</v>
-      </c>
-      <c r="W47" s="60">
-        <v>0</v>
-      </c>
-      <c r="X47" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="63">
+      <c r="D47" s="103">
+        <v>0</v>
+      </c>
+      <c r="E47" s="104">
+        <v>0</v>
+      </c>
+      <c r="F47" s="104">
+        <v>0</v>
+      </c>
+      <c r="G47" s="105">
+        <v>0</v>
+      </c>
+      <c r="H47" s="106">
+        <v>1</v>
+      </c>
+      <c r="I47" s="106">
+        <v>0</v>
+      </c>
+      <c r="J47" s="106">
+        <v>0</v>
+      </c>
+      <c r="K47" s="103">
+        <v>0</v>
+      </c>
+      <c r="L47" s="104">
+        <v>0</v>
+      </c>
+      <c r="M47" s="104">
+        <v>1</v>
+      </c>
+      <c r="N47" s="104">
+        <v>0</v>
+      </c>
+      <c r="O47" s="105">
+        <v>0</v>
+      </c>
+      <c r="P47" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="106">
+        <v>0</v>
+      </c>
+      <c r="R47" s="106">
+        <v>0</v>
+      </c>
+      <c r="S47" s="106">
+        <v>0</v>
+      </c>
+      <c r="T47" s="103">
+        <v>0</v>
+      </c>
+      <c r="U47" s="104">
+        <v>0</v>
+      </c>
+      <c r="V47" s="105">
+        <v>0</v>
+      </c>
+      <c r="W47" s="107">
+        <v>1</v>
+      </c>
+      <c r="X47" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="110">
         <v>0</v>
       </c>
       <c r="AF47" s="4"/>
@@ -6466,95 +6529,95 @@
       <c r="AO47" s="4"/>
     </row>
     <row r="48" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="101"/>
+      <c r="C48" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="56">
-        <v>0</v>
-      </c>
-      <c r="E48" s="57">
-        <v>0</v>
-      </c>
-      <c r="F48" s="57">
-        <v>0</v>
-      </c>
-      <c r="G48" s="58">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59">
-        <v>0</v>
-      </c>
-      <c r="I48" s="59">
-        <v>0</v>
-      </c>
-      <c r="J48" s="59">
-        <v>0</v>
-      </c>
-      <c r="K48" s="56">
-        <v>0</v>
-      </c>
-      <c r="L48" s="57">
-        <v>0</v>
-      </c>
-      <c r="M48" s="57">
-        <v>0</v>
-      </c>
-      <c r="N48" s="57">
-        <v>0</v>
-      </c>
-      <c r="O48" s="58">
-        <v>0</v>
-      </c>
-      <c r="P48" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="59">
-        <v>0</v>
-      </c>
-      <c r="R48" s="59">
-        <v>0</v>
-      </c>
-      <c r="S48" s="59">
-        <v>0</v>
-      </c>
-      <c r="T48" s="56">
-        <v>0</v>
-      </c>
-      <c r="U48" s="57">
-        <v>0</v>
-      </c>
-      <c r="V48" s="58">
-        <v>0</v>
-      </c>
-      <c r="W48" s="60">
-        <v>0</v>
-      </c>
-      <c r="X48" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="63">
+      <c r="D48" s="103">
+        <v>0</v>
+      </c>
+      <c r="E48" s="104">
+        <v>0</v>
+      </c>
+      <c r="F48" s="104">
+        <v>0</v>
+      </c>
+      <c r="G48" s="105">
+        <v>0</v>
+      </c>
+      <c r="H48" s="106">
+        <v>1</v>
+      </c>
+      <c r="I48" s="106">
+        <v>0</v>
+      </c>
+      <c r="J48" s="106">
+        <v>0</v>
+      </c>
+      <c r="K48" s="103">
+        <v>0</v>
+      </c>
+      <c r="L48" s="104">
+        <v>0</v>
+      </c>
+      <c r="M48" s="104">
+        <v>1</v>
+      </c>
+      <c r="N48" s="104">
+        <v>0</v>
+      </c>
+      <c r="O48" s="105">
+        <v>1</v>
+      </c>
+      <c r="P48" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="106">
+        <v>0</v>
+      </c>
+      <c r="R48" s="106">
+        <v>0</v>
+      </c>
+      <c r="S48" s="106">
+        <v>0</v>
+      </c>
+      <c r="T48" s="103">
+        <v>0</v>
+      </c>
+      <c r="U48" s="104">
+        <v>0</v>
+      </c>
+      <c r="V48" s="105">
+        <v>0</v>
+      </c>
+      <c r="W48" s="107">
+        <v>1</v>
+      </c>
+      <c r="X48" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="110">
         <v>0</v>
       </c>
       <c r="AF48" s="4"/>
@@ -6569,95 +6632,95 @@
       <c r="AO48" s="4"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55" t="s">
+      <c r="B49" s="101"/>
+      <c r="C49" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="56">
-        <v>0</v>
-      </c>
-      <c r="E49" s="57">
-        <v>0</v>
-      </c>
-      <c r="F49" s="57">
-        <v>0</v>
-      </c>
-      <c r="G49" s="58">
-        <v>0</v>
-      </c>
-      <c r="H49" s="59">
-        <v>0</v>
-      </c>
-      <c r="I49" s="59">
-        <v>0</v>
-      </c>
-      <c r="J49" s="59">
-        <v>0</v>
-      </c>
-      <c r="K49" s="56">
-        <v>0</v>
-      </c>
-      <c r="L49" s="57">
-        <v>0</v>
-      </c>
-      <c r="M49" s="57">
-        <v>0</v>
-      </c>
-      <c r="N49" s="57">
-        <v>0</v>
-      </c>
-      <c r="O49" s="58">
-        <v>0</v>
-      </c>
-      <c r="P49" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="59">
-        <v>0</v>
-      </c>
-      <c r="R49" s="59">
-        <v>0</v>
-      </c>
-      <c r="S49" s="59">
-        <v>0</v>
-      </c>
-      <c r="T49" s="56">
-        <v>0</v>
-      </c>
-      <c r="U49" s="57">
-        <v>0</v>
-      </c>
-      <c r="V49" s="58">
-        <v>0</v>
-      </c>
-      <c r="W49" s="60">
-        <v>0</v>
-      </c>
-      <c r="X49" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="63">
+      <c r="D49" s="103">
+        <v>0</v>
+      </c>
+      <c r="E49" s="104">
+        <v>0</v>
+      </c>
+      <c r="F49" s="104">
+        <v>0</v>
+      </c>
+      <c r="G49" s="105">
+        <v>0</v>
+      </c>
+      <c r="H49" s="106">
+        <v>1</v>
+      </c>
+      <c r="I49" s="106">
+        <v>0</v>
+      </c>
+      <c r="J49" s="106">
+        <v>0</v>
+      </c>
+      <c r="K49" s="103">
+        <v>0</v>
+      </c>
+      <c r="L49" s="104">
+        <v>0</v>
+      </c>
+      <c r="M49" s="104">
+        <v>1</v>
+      </c>
+      <c r="N49" s="104">
+        <v>1</v>
+      </c>
+      <c r="O49" s="105">
+        <v>0</v>
+      </c>
+      <c r="P49" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="106">
+        <v>0</v>
+      </c>
+      <c r="R49" s="106">
+        <v>0</v>
+      </c>
+      <c r="S49" s="106">
+        <v>0</v>
+      </c>
+      <c r="T49" s="103">
+        <v>0</v>
+      </c>
+      <c r="U49" s="104">
+        <v>0</v>
+      </c>
+      <c r="V49" s="105">
+        <v>0</v>
+      </c>
+      <c r="W49" s="107">
+        <v>1</v>
+      </c>
+      <c r="X49" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="110">
         <v>0</v>
       </c>
       <c r="AF49" s="4"/>
@@ -6672,95 +6735,95 @@
       <c r="AO49" s="4"/>
     </row>
     <row r="50" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55" t="s">
+      <c r="B50" s="101"/>
+      <c r="C50" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="56">
-        <v>0</v>
-      </c>
-      <c r="E50" s="57">
-        <v>0</v>
-      </c>
-      <c r="F50" s="57">
-        <v>0</v>
-      </c>
-      <c r="G50" s="58">
-        <v>0</v>
-      </c>
-      <c r="H50" s="59">
-        <v>0</v>
-      </c>
-      <c r="I50" s="59">
-        <v>0</v>
-      </c>
-      <c r="J50" s="59">
-        <v>0</v>
-      </c>
-      <c r="K50" s="56">
-        <v>0</v>
-      </c>
-      <c r="L50" s="57">
-        <v>0</v>
-      </c>
-      <c r="M50" s="57">
-        <v>0</v>
-      </c>
-      <c r="N50" s="57">
-        <v>0</v>
-      </c>
-      <c r="O50" s="58">
-        <v>0</v>
-      </c>
-      <c r="P50" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="59">
-        <v>0</v>
-      </c>
-      <c r="R50" s="59">
-        <v>0</v>
-      </c>
-      <c r="S50" s="59">
-        <v>0</v>
-      </c>
-      <c r="T50" s="56">
-        <v>0</v>
-      </c>
-      <c r="U50" s="57">
-        <v>0</v>
-      </c>
-      <c r="V50" s="58">
-        <v>0</v>
-      </c>
-      <c r="W50" s="60">
-        <v>0</v>
-      </c>
-      <c r="X50" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="63">
+      <c r="D50" s="103">
+        <v>0</v>
+      </c>
+      <c r="E50" s="104">
+        <v>0</v>
+      </c>
+      <c r="F50" s="104">
+        <v>0</v>
+      </c>
+      <c r="G50" s="105">
+        <v>0</v>
+      </c>
+      <c r="H50" s="106">
+        <v>1</v>
+      </c>
+      <c r="I50" s="106">
+        <v>0</v>
+      </c>
+      <c r="J50" s="106">
+        <v>0</v>
+      </c>
+      <c r="K50" s="103">
+        <v>0</v>
+      </c>
+      <c r="L50" s="104">
+        <v>0</v>
+      </c>
+      <c r="M50" s="104">
+        <v>1</v>
+      </c>
+      <c r="N50" s="104">
+        <v>1</v>
+      </c>
+      <c r="O50" s="105">
+        <v>1</v>
+      </c>
+      <c r="P50" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="106">
+        <v>0</v>
+      </c>
+      <c r="R50" s="106">
+        <v>0</v>
+      </c>
+      <c r="S50" s="106">
+        <v>0</v>
+      </c>
+      <c r="T50" s="103">
+        <v>0</v>
+      </c>
+      <c r="U50" s="104">
+        <v>0</v>
+      </c>
+      <c r="V50" s="105">
+        <v>0</v>
+      </c>
+      <c r="W50" s="107">
+        <v>1</v>
+      </c>
+      <c r="X50" s="108">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="109">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="110">
         <v>0</v>
       </c>
       <c r="AF50" s="4"/>
@@ -6775,95 +6838,95 @@
       <c r="AO50" s="4"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55" t="s">
+      <c r="B51" s="101"/>
+      <c r="C51" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="56">
-        <v>0</v>
-      </c>
-      <c r="E51" s="57">
-        <v>0</v>
-      </c>
-      <c r="F51" s="57">
-        <v>0</v>
-      </c>
-      <c r="G51" s="58">
-        <v>0</v>
-      </c>
-      <c r="H51" s="59">
-        <v>0</v>
-      </c>
-      <c r="I51" s="59">
-        <v>0</v>
-      </c>
-      <c r="J51" s="59">
-        <v>0</v>
-      </c>
-      <c r="K51" s="56">
-        <v>0</v>
-      </c>
-      <c r="L51" s="57">
-        <v>0</v>
-      </c>
-      <c r="M51" s="57">
-        <v>0</v>
-      </c>
-      <c r="N51" s="57">
-        <v>0</v>
-      </c>
-      <c r="O51" s="58">
-        <v>0</v>
-      </c>
-      <c r="P51" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="59">
-        <v>0</v>
-      </c>
-      <c r="R51" s="59">
-        <v>0</v>
-      </c>
-      <c r="S51" s="59">
-        <v>0</v>
-      </c>
-      <c r="T51" s="56">
-        <v>0</v>
-      </c>
-      <c r="U51" s="57">
-        <v>0</v>
-      </c>
-      <c r="V51" s="58">
-        <v>0</v>
-      </c>
-      <c r="W51" s="60">
-        <v>0</v>
-      </c>
-      <c r="X51" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="63">
+      <c r="D51" s="103">
+        <v>0</v>
+      </c>
+      <c r="E51" s="104">
+        <v>0</v>
+      </c>
+      <c r="F51" s="104">
+        <v>0</v>
+      </c>
+      <c r="G51" s="105">
+        <v>0</v>
+      </c>
+      <c r="H51" s="106">
+        <v>0</v>
+      </c>
+      <c r="I51" s="106">
+        <v>0</v>
+      </c>
+      <c r="J51" s="106">
+        <v>0</v>
+      </c>
+      <c r="K51" s="103">
+        <v>1</v>
+      </c>
+      <c r="L51" s="104">
+        <v>0</v>
+      </c>
+      <c r="M51" s="104">
+        <v>0</v>
+      </c>
+      <c r="N51" s="104">
+        <v>0</v>
+      </c>
+      <c r="O51" s="105">
+        <v>0</v>
+      </c>
+      <c r="P51" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="106">
+        <v>0</v>
+      </c>
+      <c r="R51" s="106">
+        <v>0</v>
+      </c>
+      <c r="S51" s="106">
+        <v>0</v>
+      </c>
+      <c r="T51" s="103">
+        <v>0</v>
+      </c>
+      <c r="U51" s="104">
+        <v>0</v>
+      </c>
+      <c r="V51" s="105">
+        <v>0</v>
+      </c>
+      <c r="W51" s="107">
+        <v>1</v>
+      </c>
+      <c r="X51" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="110">
         <v>0</v>
       </c>
       <c r="AF51" s="4"/>
@@ -6878,95 +6941,95 @@
       <c r="AO51" s="4"/>
     </row>
     <row r="52" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="101"/>
+      <c r="C52" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="56">
-        <v>0</v>
-      </c>
-      <c r="E52" s="57">
-        <v>0</v>
-      </c>
-      <c r="F52" s="57">
-        <v>0</v>
-      </c>
-      <c r="G52" s="58">
-        <v>0</v>
-      </c>
-      <c r="H52" s="59">
-        <v>0</v>
-      </c>
-      <c r="I52" s="59">
-        <v>0</v>
-      </c>
-      <c r="J52" s="59">
-        <v>0</v>
-      </c>
-      <c r="K52" s="56">
-        <v>0</v>
-      </c>
-      <c r="L52" s="57">
-        <v>0</v>
-      </c>
-      <c r="M52" s="57">
-        <v>0</v>
-      </c>
-      <c r="N52" s="57">
-        <v>0</v>
-      </c>
-      <c r="O52" s="58">
-        <v>0</v>
-      </c>
-      <c r="P52" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="59">
-        <v>0</v>
-      </c>
-      <c r="R52" s="59">
-        <v>0</v>
-      </c>
-      <c r="S52" s="59">
-        <v>0</v>
-      </c>
-      <c r="T52" s="56">
-        <v>0</v>
-      </c>
-      <c r="U52" s="57">
-        <v>0</v>
-      </c>
-      <c r="V52" s="58">
-        <v>0</v>
-      </c>
-      <c r="W52" s="60">
-        <v>0</v>
-      </c>
-      <c r="X52" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="63">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="59">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="63">
+      <c r="D52" s="103">
+        <v>0</v>
+      </c>
+      <c r="E52" s="104">
+        <v>0</v>
+      </c>
+      <c r="F52" s="104">
+        <v>0</v>
+      </c>
+      <c r="G52" s="105">
+        <v>0</v>
+      </c>
+      <c r="H52" s="106">
+        <v>0</v>
+      </c>
+      <c r="I52" s="106">
+        <v>0</v>
+      </c>
+      <c r="J52" s="106">
+        <v>0</v>
+      </c>
+      <c r="K52" s="103">
+        <v>1</v>
+      </c>
+      <c r="L52" s="104">
+        <v>0</v>
+      </c>
+      <c r="M52" s="104">
+        <v>0</v>
+      </c>
+      <c r="N52" s="104">
+        <v>0</v>
+      </c>
+      <c r="O52" s="105">
+        <v>1</v>
+      </c>
+      <c r="P52" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="106">
+        <v>0</v>
+      </c>
+      <c r="R52" s="106">
+        <v>0</v>
+      </c>
+      <c r="S52" s="106">
+        <v>0</v>
+      </c>
+      <c r="T52" s="103">
+        <v>0</v>
+      </c>
+      <c r="U52" s="104">
+        <v>0</v>
+      </c>
+      <c r="V52" s="105">
+        <v>0</v>
+      </c>
+      <c r="W52" s="107">
+        <v>1</v>
+      </c>
+      <c r="X52" s="108">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="109">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="110">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="106">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="106">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="110">
         <v>0</v>
       </c>
       <c r="AF52" s="4"/>
@@ -6981,95 +7044,95 @@
       <c r="AO52" s="4"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="66" t="s">
+      <c r="B53" s="79"/>
+      <c r="C53" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="67">
-        <v>0</v>
-      </c>
-      <c r="E53" s="68">
-        <v>0</v>
-      </c>
-      <c r="F53" s="68">
-        <v>0</v>
-      </c>
-      <c r="G53" s="69">
-        <v>0</v>
-      </c>
-      <c r="H53" s="70">
-        <v>0</v>
-      </c>
-      <c r="I53" s="70">
-        <v>0</v>
-      </c>
-      <c r="J53" s="70">
-        <v>0</v>
-      </c>
-      <c r="K53" s="67">
-        <v>0</v>
-      </c>
-      <c r="L53" s="68">
-        <v>0</v>
-      </c>
-      <c r="M53" s="68">
-        <v>0</v>
-      </c>
-      <c r="N53" s="68">
-        <v>0</v>
-      </c>
-      <c r="O53" s="69">
-        <v>0</v>
-      </c>
-      <c r="P53" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="70">
-        <v>0</v>
-      </c>
-      <c r="R53" s="70">
-        <v>0</v>
-      </c>
-      <c r="S53" s="70">
-        <v>0</v>
-      </c>
-      <c r="T53" s="67">
-        <v>0</v>
-      </c>
-      <c r="U53" s="68">
-        <v>0</v>
-      </c>
-      <c r="V53" s="69">
-        <v>0</v>
-      </c>
-      <c r="W53" s="71">
-        <v>0</v>
-      </c>
-      <c r="X53" s="72">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="73">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="70">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="70">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="74">
+      <c r="D53" s="81">
+        <v>0</v>
+      </c>
+      <c r="E53" s="82">
+        <v>0</v>
+      </c>
+      <c r="F53" s="82">
+        <v>0</v>
+      </c>
+      <c r="G53" s="83">
+        <v>0</v>
+      </c>
+      <c r="H53" s="84">
+        <v>0</v>
+      </c>
+      <c r="I53" s="84">
+        <v>0</v>
+      </c>
+      <c r="J53" s="84">
+        <v>0</v>
+      </c>
+      <c r="K53" s="81">
+        <v>0</v>
+      </c>
+      <c r="L53" s="82">
+        <v>0</v>
+      </c>
+      <c r="M53" s="82">
+        <v>0</v>
+      </c>
+      <c r="N53" s="82">
+        <v>0</v>
+      </c>
+      <c r="O53" s="83">
+        <v>0</v>
+      </c>
+      <c r="P53" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="84">
+        <v>0</v>
+      </c>
+      <c r="R53" s="84">
+        <v>0</v>
+      </c>
+      <c r="S53" s="84">
+        <v>0</v>
+      </c>
+      <c r="T53" s="81">
+        <v>0</v>
+      </c>
+      <c r="U53" s="82">
+        <v>0</v>
+      </c>
+      <c r="V53" s="83">
+        <v>0</v>
+      </c>
+      <c r="W53" s="85">
+        <v>0</v>
+      </c>
+      <c r="X53" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="87">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="84">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="84">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="84">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="84">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="88">
         <v>0</v>
       </c>
       <c r="AF53" s="4"/>

--- a/rat6/RAT 6 Table.xlsx
+++ b/rat6/RAT 6 Table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Russe\OneDrive\Documents\GitHub\rat-cpu\rat6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pangj\OneDrive - California Polytechnic State University\cpe233\rat6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="169ED76ED261F77A16858D1A7184704F6DFB60CA" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{ABB0BC45-850F-4D81-9ED4-CB081A96BA65}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1307,34 +1306,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1461,6 +1432,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1774,12 +1773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK39" sqref="AK39"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1797,49 +1796,49 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="53" t="s">
+      <c r="D1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="66" t="s">
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="53" t="s">
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56" t="s">
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="59" t="s">
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="55"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="101"/>
       <c r="Z1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="59" t="s">
+      <c r="AA1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="101"/>
       <c r="AE1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1866,23 +1865,23 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1892,10 +1891,10 @@
       <c r="Q2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="62"/>
+      <c r="S2" s="108"/>
       <c r="T2" s="11" t="s">
         <v>20</v>
       </c>
@@ -2306,95 +2305,95 @@
       <c r="AO6" s="4"/>
     </row>
     <row r="7" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="103">
-        <v>0</v>
-      </c>
-      <c r="E7" s="104">
-        <v>0</v>
-      </c>
-      <c r="F7" s="104">
-        <v>0</v>
-      </c>
-      <c r="G7" s="105">
-        <v>0</v>
-      </c>
-      <c r="H7" s="106">
+      <c r="D7" s="89">
+        <v>0</v>
+      </c>
+      <c r="E7" s="90">
+        <v>0</v>
+      </c>
+      <c r="F7" s="90">
+        <v>0</v>
+      </c>
+      <c r="G7" s="91">
+        <v>0</v>
+      </c>
+      <c r="H7" s="92">
         <v>1</v>
       </c>
-      <c r="I7" s="106">
-        <v>0</v>
-      </c>
-      <c r="J7" s="106">
-        <v>0</v>
-      </c>
-      <c r="K7" s="103">
-        <v>0</v>
-      </c>
-      <c r="L7" s="104">
-        <v>0</v>
-      </c>
-      <c r="M7" s="104">
-        <v>0</v>
-      </c>
-      <c r="N7" s="104">
-        <v>0</v>
-      </c>
-      <c r="O7" s="105">
-        <v>0</v>
-      </c>
-      <c r="P7" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="106">
-        <v>0</v>
-      </c>
-      <c r="R7" s="106">
-        <v>0</v>
-      </c>
-      <c r="S7" s="106">
-        <v>0</v>
-      </c>
-      <c r="T7" s="103">
-        <v>0</v>
-      </c>
-      <c r="U7" s="104">
-        <v>0</v>
-      </c>
-      <c r="V7" s="105">
-        <v>0</v>
-      </c>
-      <c r="W7" s="107">
+      <c r="I7" s="92">
+        <v>0</v>
+      </c>
+      <c r="J7" s="92">
+        <v>0</v>
+      </c>
+      <c r="K7" s="89">
+        <v>0</v>
+      </c>
+      <c r="L7" s="90">
+        <v>0</v>
+      </c>
+      <c r="M7" s="90">
+        <v>0</v>
+      </c>
+      <c r="N7" s="90">
+        <v>0</v>
+      </c>
+      <c r="O7" s="91">
+        <v>0</v>
+      </c>
+      <c r="P7" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="92">
+        <v>0</v>
+      </c>
+      <c r="R7" s="92">
+        <v>0</v>
+      </c>
+      <c r="S7" s="92">
+        <v>0</v>
+      </c>
+      <c r="T7" s="89">
+        <v>0</v>
+      </c>
+      <c r="U7" s="90">
+        <v>0</v>
+      </c>
+      <c r="V7" s="91">
+        <v>0</v>
+      </c>
+      <c r="W7" s="93">
         <v>1</v>
       </c>
-      <c r="X7" s="108">
+      <c r="X7" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="96">
         <v>1</v>
       </c>
-      <c r="Y7" s="109">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="110">
+      <c r="AA7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="96">
         <v>0</v>
       </c>
       <c r="AF7" s="4"/>
@@ -2409,95 +2408,95 @@
       <c r="AO7" s="4"/>
     </row>
     <row r="8" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="103">
-        <v>0</v>
-      </c>
-      <c r="E8" s="104">
-        <v>0</v>
-      </c>
-      <c r="F8" s="104">
-        <v>0</v>
-      </c>
-      <c r="G8" s="105">
-        <v>0</v>
-      </c>
-      <c r="H8" s="106">
+      <c r="D8" s="89">
+        <v>0</v>
+      </c>
+      <c r="E8" s="90">
+        <v>0</v>
+      </c>
+      <c r="F8" s="90">
+        <v>0</v>
+      </c>
+      <c r="G8" s="91">
+        <v>0</v>
+      </c>
+      <c r="H8" s="92">
         <v>1</v>
       </c>
-      <c r="I8" s="106">
-        <v>0</v>
-      </c>
-      <c r="J8" s="106">
-        <v>0</v>
-      </c>
-      <c r="K8" s="103">
-        <v>0</v>
-      </c>
-      <c r="L8" s="104">
-        <v>0</v>
-      </c>
-      <c r="M8" s="104">
-        <v>0</v>
-      </c>
-      <c r="N8" s="104">
-        <v>0</v>
-      </c>
-      <c r="O8" s="105">
+      <c r="I8" s="92">
+        <v>0</v>
+      </c>
+      <c r="J8" s="92">
+        <v>0</v>
+      </c>
+      <c r="K8" s="89">
+        <v>0</v>
+      </c>
+      <c r="L8" s="90">
+        <v>0</v>
+      </c>
+      <c r="M8" s="90">
+        <v>0</v>
+      </c>
+      <c r="N8" s="90">
+        <v>0</v>
+      </c>
+      <c r="O8" s="91">
         <v>1</v>
       </c>
-      <c r="P8" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="106">
-        <v>0</v>
-      </c>
-      <c r="R8" s="106">
-        <v>0</v>
-      </c>
-      <c r="S8" s="106">
-        <v>0</v>
-      </c>
-      <c r="T8" s="103">
-        <v>0</v>
-      </c>
-      <c r="U8" s="104">
-        <v>0</v>
-      </c>
-      <c r="V8" s="105">
-        <v>0</v>
-      </c>
-      <c r="W8" s="107">
+      <c r="P8" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="92">
+        <v>0</v>
+      </c>
+      <c r="R8" s="92">
+        <v>0</v>
+      </c>
+      <c r="S8" s="92">
+        <v>0</v>
+      </c>
+      <c r="T8" s="89">
+        <v>0</v>
+      </c>
+      <c r="U8" s="90">
+        <v>0</v>
+      </c>
+      <c r="V8" s="91">
+        <v>0</v>
+      </c>
+      <c r="W8" s="93">
         <v>1</v>
       </c>
-      <c r="X8" s="108">
+      <c r="X8" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="96">
         <v>1</v>
       </c>
-      <c r="Y8" s="109">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="110">
+      <c r="AA8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="96">
         <v>0</v>
       </c>
       <c r="AF8" s="4"/>
@@ -2512,95 +2511,95 @@
       <c r="AO8" s="4"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="103">
-        <v>0</v>
-      </c>
-      <c r="E9" s="104">
-        <v>0</v>
-      </c>
-      <c r="F9" s="104">
-        <v>0</v>
-      </c>
-      <c r="G9" s="105">
-        <v>0</v>
-      </c>
-      <c r="H9" s="106">
+      <c r="D9" s="89">
+        <v>0</v>
+      </c>
+      <c r="E9" s="90">
+        <v>0</v>
+      </c>
+      <c r="F9" s="90">
+        <v>0</v>
+      </c>
+      <c r="G9" s="91">
+        <v>0</v>
+      </c>
+      <c r="H9" s="92">
         <v>1</v>
       </c>
-      <c r="I9" s="106">
-        <v>0</v>
-      </c>
-      <c r="J9" s="106">
-        <v>0</v>
-      </c>
-      <c r="K9" s="103">
-        <v>0</v>
-      </c>
-      <c r="L9" s="104">
-        <v>0</v>
-      </c>
-      <c r="M9" s="104">
-        <v>0</v>
-      </c>
-      <c r="N9" s="104">
+      <c r="I9" s="92">
+        <v>0</v>
+      </c>
+      <c r="J9" s="92">
+        <v>0</v>
+      </c>
+      <c r="K9" s="89">
+        <v>0</v>
+      </c>
+      <c r="L9" s="90">
+        <v>0</v>
+      </c>
+      <c r="M9" s="90">
+        <v>0</v>
+      </c>
+      <c r="N9" s="90">
         <v>1</v>
       </c>
-      <c r="O9" s="105">
-        <v>0</v>
-      </c>
-      <c r="P9" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="106">
-        <v>0</v>
-      </c>
-      <c r="R9" s="106">
-        <v>0</v>
-      </c>
-      <c r="S9" s="106">
-        <v>0</v>
-      </c>
-      <c r="T9" s="103">
-        <v>0</v>
-      </c>
-      <c r="U9" s="104">
-        <v>0</v>
-      </c>
-      <c r="V9" s="105">
-        <v>0</v>
-      </c>
-      <c r="W9" s="107">
+      <c r="O9" s="91">
+        <v>0</v>
+      </c>
+      <c r="P9" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="92">
+        <v>0</v>
+      </c>
+      <c r="R9" s="92">
+        <v>0</v>
+      </c>
+      <c r="S9" s="92">
+        <v>0</v>
+      </c>
+      <c r="T9" s="89">
+        <v>0</v>
+      </c>
+      <c r="U9" s="90">
+        <v>0</v>
+      </c>
+      <c r="V9" s="91">
+        <v>0</v>
+      </c>
+      <c r="W9" s="93">
         <v>1</v>
       </c>
-      <c r="X9" s="108">
+      <c r="X9" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="96">
         <v>1</v>
       </c>
-      <c r="Y9" s="109">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="110">
+      <c r="AA9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="96">
         <v>0</v>
       </c>
       <c r="AF9" s="4"/>
@@ -2615,95 +2614,95 @@
       <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="103">
-        <v>0</v>
-      </c>
-      <c r="E10" s="104">
-        <v>0</v>
-      </c>
-      <c r="F10" s="104">
-        <v>0</v>
-      </c>
-      <c r="G10" s="105">
-        <v>0</v>
-      </c>
-      <c r="H10" s="106">
+      <c r="D10" s="89">
+        <v>0</v>
+      </c>
+      <c r="E10" s="90">
+        <v>0</v>
+      </c>
+      <c r="F10" s="90">
+        <v>0</v>
+      </c>
+      <c r="G10" s="91">
+        <v>0</v>
+      </c>
+      <c r="H10" s="92">
         <v>1</v>
       </c>
-      <c r="I10" s="106">
-        <v>0</v>
-      </c>
-      <c r="J10" s="106">
-        <v>0</v>
-      </c>
-      <c r="K10" s="103">
-        <v>0</v>
-      </c>
-      <c r="L10" s="104">
-        <v>0</v>
-      </c>
-      <c r="M10" s="104">
-        <v>0</v>
-      </c>
-      <c r="N10" s="104">
+      <c r="I10" s="92">
+        <v>0</v>
+      </c>
+      <c r="J10" s="92">
+        <v>0</v>
+      </c>
+      <c r="K10" s="89">
+        <v>0</v>
+      </c>
+      <c r="L10" s="90">
+        <v>0</v>
+      </c>
+      <c r="M10" s="90">
+        <v>0</v>
+      </c>
+      <c r="N10" s="90">
         <v>1</v>
       </c>
-      <c r="O10" s="105">
+      <c r="O10" s="91">
         <v>1</v>
       </c>
-      <c r="P10" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="106">
-        <v>0</v>
-      </c>
-      <c r="R10" s="106">
-        <v>0</v>
-      </c>
-      <c r="S10" s="106">
-        <v>0</v>
-      </c>
-      <c r="T10" s="103">
-        <v>0</v>
-      </c>
-      <c r="U10" s="104">
-        <v>0</v>
-      </c>
-      <c r="V10" s="105">
-        <v>0</v>
-      </c>
-      <c r="W10" s="107">
+      <c r="P10" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="92">
+        <v>0</v>
+      </c>
+      <c r="R10" s="92">
+        <v>0</v>
+      </c>
+      <c r="S10" s="92">
+        <v>0</v>
+      </c>
+      <c r="T10" s="89">
+        <v>0</v>
+      </c>
+      <c r="U10" s="90">
+        <v>0</v>
+      </c>
+      <c r="V10" s="91">
+        <v>0</v>
+      </c>
+      <c r="W10" s="93">
         <v>1</v>
       </c>
-      <c r="X10" s="108">
+      <c r="X10" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="96">
         <v>1</v>
       </c>
-      <c r="Y10" s="109">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="110">
+      <c r="AA10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="96">
         <v>0</v>
       </c>
       <c r="AF10" s="4"/>
@@ -2718,95 +2717,95 @@
       <c r="AO10" s="4"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="103">
-        <v>0</v>
-      </c>
-      <c r="E11" s="104">
-        <v>0</v>
-      </c>
-      <c r="F11" s="104">
-        <v>0</v>
-      </c>
-      <c r="G11" s="105">
-        <v>0</v>
-      </c>
-      <c r="H11" s="106">
+      <c r="D11" s="89">
+        <v>0</v>
+      </c>
+      <c r="E11" s="90">
+        <v>0</v>
+      </c>
+      <c r="F11" s="90">
+        <v>0</v>
+      </c>
+      <c r="G11" s="91">
+        <v>0</v>
+      </c>
+      <c r="H11" s="92">
         <v>1</v>
       </c>
-      <c r="I11" s="106">
-        <v>0</v>
-      </c>
-      <c r="J11" s="106">
-        <v>0</v>
-      </c>
-      <c r="K11" s="103">
-        <v>0</v>
-      </c>
-      <c r="L11" s="104">
+      <c r="I11" s="92">
+        <v>0</v>
+      </c>
+      <c r="J11" s="92">
+        <v>0</v>
+      </c>
+      <c r="K11" s="89">
+        <v>0</v>
+      </c>
+      <c r="L11" s="90">
         <v>1</v>
       </c>
-      <c r="M11" s="104">
-        <v>0</v>
-      </c>
-      <c r="N11" s="104">
+      <c r="M11" s="90">
+        <v>0</v>
+      </c>
+      <c r="N11" s="90">
         <v>1</v>
       </c>
-      <c r="O11" s="105">
-        <v>0</v>
-      </c>
-      <c r="P11" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="106">
-        <v>0</v>
-      </c>
-      <c r="R11" s="106">
-        <v>0</v>
-      </c>
-      <c r="S11" s="106">
-        <v>0</v>
-      </c>
-      <c r="T11" s="103">
-        <v>0</v>
-      </c>
-      <c r="U11" s="104">
-        <v>0</v>
-      </c>
-      <c r="V11" s="105">
-        <v>0</v>
-      </c>
-      <c r="W11" s="107">
+      <c r="O11" s="91">
+        <v>0</v>
+      </c>
+      <c r="P11" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92">
+        <v>0</v>
+      </c>
+      <c r="R11" s="92">
+        <v>0</v>
+      </c>
+      <c r="S11" s="92">
+        <v>0</v>
+      </c>
+      <c r="T11" s="89">
+        <v>0</v>
+      </c>
+      <c r="U11" s="90">
+        <v>0</v>
+      </c>
+      <c r="V11" s="91">
+        <v>0</v>
+      </c>
+      <c r="W11" s="93">
         <v>1</v>
       </c>
-      <c r="X11" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="109">
+      <c r="X11" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="95">
         <v>1</v>
       </c>
-      <c r="Z11" s="110">
+      <c r="Z11" s="96">
         <v>1</v>
       </c>
-      <c r="AA11" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="110">
+      <c r="AA11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="96">
         <v>0</v>
       </c>
       <c r="AF11" s="4"/>
@@ -2821,95 +2820,95 @@
       <c r="AO11" s="4"/>
     </row>
     <row r="12" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="103">
-        <v>0</v>
-      </c>
-      <c r="E12" s="104">
-        <v>0</v>
-      </c>
-      <c r="F12" s="104">
-        <v>0</v>
-      </c>
-      <c r="G12" s="105">
-        <v>0</v>
-      </c>
-      <c r="H12" s="106">
+      <c r="D12" s="89">
+        <v>0</v>
+      </c>
+      <c r="E12" s="90">
+        <v>0</v>
+      </c>
+      <c r="F12" s="90">
+        <v>0</v>
+      </c>
+      <c r="G12" s="91">
+        <v>0</v>
+      </c>
+      <c r="H12" s="92">
         <v>1</v>
       </c>
-      <c r="I12" s="106">
-        <v>0</v>
-      </c>
-      <c r="J12" s="106">
-        <v>0</v>
-      </c>
-      <c r="K12" s="103">
-        <v>0</v>
-      </c>
-      <c r="L12" s="104">
+      <c r="I12" s="92">
+        <v>0</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0</v>
+      </c>
+      <c r="K12" s="89">
+        <v>0</v>
+      </c>
+      <c r="L12" s="90">
         <v>1</v>
       </c>
-      <c r="M12" s="104">
-        <v>0</v>
-      </c>
-      <c r="N12" s="104">
+      <c r="M12" s="90">
+        <v>0</v>
+      </c>
+      <c r="N12" s="90">
         <v>1</v>
       </c>
-      <c r="O12" s="105">
+      <c r="O12" s="91">
         <v>1</v>
       </c>
-      <c r="P12" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="106">
-        <v>0</v>
-      </c>
-      <c r="R12" s="106">
-        <v>0</v>
-      </c>
-      <c r="S12" s="106">
-        <v>0</v>
-      </c>
-      <c r="T12" s="103">
-        <v>0</v>
-      </c>
-      <c r="U12" s="104">
-        <v>0</v>
-      </c>
-      <c r="V12" s="105">
-        <v>0</v>
-      </c>
-      <c r="W12" s="107">
+      <c r="P12" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="92">
+        <v>0</v>
+      </c>
+      <c r="R12" s="92">
+        <v>0</v>
+      </c>
+      <c r="S12" s="92">
+        <v>0</v>
+      </c>
+      <c r="T12" s="89">
+        <v>0</v>
+      </c>
+      <c r="U12" s="90">
+        <v>0</v>
+      </c>
+      <c r="V12" s="91">
+        <v>0</v>
+      </c>
+      <c r="W12" s="93">
         <v>1</v>
       </c>
-      <c r="X12" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="109">
+      <c r="X12" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="95">
         <v>1</v>
       </c>
-      <c r="Z12" s="110">
+      <c r="Z12" s="96">
         <v>1</v>
       </c>
-      <c r="AA12" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="110">
+      <c r="AA12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="96">
         <v>0</v>
       </c>
       <c r="AF12" s="4"/>
@@ -2924,95 +2923,95 @@
       <c r="AO12" s="4"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="103">
-        <v>0</v>
-      </c>
-      <c r="E13" s="104">
-        <v>0</v>
-      </c>
-      <c r="F13" s="104">
-        <v>0</v>
-      </c>
-      <c r="G13" s="105">
-        <v>0</v>
-      </c>
-      <c r="H13" s="106">
+      <c r="D13" s="89">
+        <v>0</v>
+      </c>
+      <c r="E13" s="90">
+        <v>0</v>
+      </c>
+      <c r="F13" s="90">
+        <v>0</v>
+      </c>
+      <c r="G13" s="91">
+        <v>0</v>
+      </c>
+      <c r="H13" s="92">
         <v>1</v>
       </c>
-      <c r="I13" s="106">
-        <v>0</v>
-      </c>
-      <c r="J13" s="106">
-        <v>0</v>
-      </c>
-      <c r="K13" s="103">
+      <c r="I13" s="92">
+        <v>0</v>
+      </c>
+      <c r="J13" s="92">
+        <v>0</v>
+      </c>
+      <c r="K13" s="89">
         <v>1</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="90">
         <v>1</v>
       </c>
-      <c r="M13" s="104">
-        <v>0</v>
-      </c>
-      <c r="N13" s="104">
+      <c r="M13" s="90">
+        <v>0</v>
+      </c>
+      <c r="N13" s="90">
         <v>1</v>
       </c>
-      <c r="O13" s="105">
-        <v>0</v>
-      </c>
-      <c r="P13" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="106">
-        <v>0</v>
-      </c>
-      <c r="R13" s="106">
-        <v>0</v>
-      </c>
-      <c r="S13" s="106">
-        <v>0</v>
-      </c>
-      <c r="T13" s="103">
-        <v>0</v>
-      </c>
-      <c r="U13" s="104">
-        <v>0</v>
-      </c>
-      <c r="V13" s="105">
-        <v>0</v>
-      </c>
-      <c r="W13" s="107">
+      <c r="O13" s="91">
+        <v>0</v>
+      </c>
+      <c r="P13" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="92">
+        <v>0</v>
+      </c>
+      <c r="R13" s="92">
+        <v>0</v>
+      </c>
+      <c r="S13" s="92">
+        <v>0</v>
+      </c>
+      <c r="T13" s="89">
+        <v>0</v>
+      </c>
+      <c r="U13" s="90">
+        <v>0</v>
+      </c>
+      <c r="V13" s="91">
+        <v>0</v>
+      </c>
+      <c r="W13" s="93">
         <v>1</v>
       </c>
-      <c r="X13" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="110">
+      <c r="X13" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="96">
         <v>1</v>
       </c>
-      <c r="AA13" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="110">
+      <c r="AA13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="96">
         <v>0</v>
       </c>
       <c r="AF13" s="4"/>
@@ -3027,95 +3026,95 @@
       <c r="AO13" s="4"/>
     </row>
     <row r="14" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="89">
         <v>1</v>
       </c>
-      <c r="E14" s="104">
-        <v>0</v>
-      </c>
-      <c r="F14" s="104">
-        <v>0</v>
-      </c>
-      <c r="G14" s="105">
-        <v>0</v>
-      </c>
-      <c r="H14" s="106">
-        <v>0</v>
-      </c>
-      <c r="I14" s="106">
-        <v>0</v>
-      </c>
-      <c r="J14" s="106">
-        <v>0</v>
-      </c>
-      <c r="K14" s="103">
-        <v>0</v>
-      </c>
-      <c r="L14" s="104">
-        <v>0</v>
-      </c>
-      <c r="M14" s="104">
-        <v>0</v>
-      </c>
-      <c r="N14" s="104">
-        <v>0</v>
-      </c>
-      <c r="O14" s="105">
-        <v>0</v>
-      </c>
-      <c r="P14" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="106">
-        <v>0</v>
-      </c>
-      <c r="R14" s="106">
-        <v>0</v>
-      </c>
-      <c r="S14" s="106">
-        <v>0</v>
-      </c>
-      <c r="T14" s="103">
-        <v>0</v>
-      </c>
-      <c r="U14" s="104">
-        <v>0</v>
-      </c>
-      <c r="V14" s="105">
-        <v>0</v>
-      </c>
-      <c r="W14" s="107">
-        <v>0</v>
-      </c>
-      <c r="X14" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="110">
+      <c r="E14" s="90">
+        <v>0</v>
+      </c>
+      <c r="F14" s="90">
+        <v>0</v>
+      </c>
+      <c r="G14" s="91">
+        <v>0</v>
+      </c>
+      <c r="H14" s="92">
+        <v>0</v>
+      </c>
+      <c r="I14" s="92">
+        <v>0</v>
+      </c>
+      <c r="J14" s="92">
+        <v>0</v>
+      </c>
+      <c r="K14" s="89">
+        <v>0</v>
+      </c>
+      <c r="L14" s="90">
+        <v>0</v>
+      </c>
+      <c r="M14" s="90">
+        <v>0</v>
+      </c>
+      <c r="N14" s="90">
+        <v>0</v>
+      </c>
+      <c r="O14" s="91">
+        <v>0</v>
+      </c>
+      <c r="P14" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="92">
+        <v>0</v>
+      </c>
+      <c r="R14" s="92">
+        <v>0</v>
+      </c>
+      <c r="S14" s="92">
+        <v>0</v>
+      </c>
+      <c r="T14" s="89">
+        <v>0</v>
+      </c>
+      <c r="U14" s="90">
+        <v>0</v>
+      </c>
+      <c r="V14" s="91">
+        <v>0</v>
+      </c>
+      <c r="W14" s="93">
+        <v>0</v>
+      </c>
+      <c r="X14" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="96">
         <v>0</v>
       </c>
       <c r="AF14" s="4"/>
@@ -3130,95 +3129,95 @@
       <c r="AO14" s="4"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="89">
         <v>1</v>
       </c>
-      <c r="E15" s="104">
-        <v>0</v>
-      </c>
-      <c r="F15" s="104">
-        <v>0</v>
-      </c>
-      <c r="G15" s="105">
-        <v>0</v>
-      </c>
-      <c r="H15" s="106">
-        <v>0</v>
-      </c>
-      <c r="I15" s="106">
-        <v>0</v>
-      </c>
-      <c r="J15" s="106">
-        <v>0</v>
-      </c>
-      <c r="K15" s="103">
-        <v>0</v>
-      </c>
-      <c r="L15" s="104">
-        <v>0</v>
-      </c>
-      <c r="M15" s="104">
-        <v>0</v>
-      </c>
-      <c r="N15" s="104">
-        <v>0</v>
-      </c>
-      <c r="O15" s="105">
-        <v>0</v>
-      </c>
-      <c r="P15" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="106">
-        <v>0</v>
-      </c>
-      <c r="R15" s="106">
-        <v>0</v>
-      </c>
-      <c r="S15" s="106">
-        <v>0</v>
-      </c>
-      <c r="T15" s="103">
-        <v>0</v>
-      </c>
-      <c r="U15" s="104">
-        <v>0</v>
-      </c>
-      <c r="V15" s="105">
-        <v>0</v>
-      </c>
-      <c r="W15" s="107">
-        <v>0</v>
-      </c>
-      <c r="X15" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="110">
+      <c r="E15" s="90">
+        <v>0</v>
+      </c>
+      <c r="F15" s="90">
+        <v>0</v>
+      </c>
+      <c r="G15" s="91">
+        <v>0</v>
+      </c>
+      <c r="H15" s="92">
+        <v>0</v>
+      </c>
+      <c r="I15" s="92">
+        <v>0</v>
+      </c>
+      <c r="J15" s="92">
+        <v>0</v>
+      </c>
+      <c r="K15" s="89">
+        <v>0</v>
+      </c>
+      <c r="L15" s="90">
+        <v>0</v>
+      </c>
+      <c r="M15" s="90">
+        <v>0</v>
+      </c>
+      <c r="N15" s="90">
+        <v>0</v>
+      </c>
+      <c r="O15" s="91">
+        <v>0</v>
+      </c>
+      <c r="P15" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="92">
+        <v>0</v>
+      </c>
+      <c r="R15" s="92">
+        <v>0</v>
+      </c>
+      <c r="S15" s="92">
+        <v>0</v>
+      </c>
+      <c r="T15" s="89">
+        <v>0</v>
+      </c>
+      <c r="U15" s="90">
+        <v>0</v>
+      </c>
+      <c r="V15" s="91">
+        <v>0</v>
+      </c>
+      <c r="W15" s="93">
+        <v>0</v>
+      </c>
+      <c r="X15" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="96">
         <v>0</v>
       </c>
       <c r="AF15" s="4"/>
@@ -3233,95 +3232,95 @@
       <c r="AO15" s="4"/>
     </row>
     <row r="16" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="89">
         <v>1</v>
       </c>
-      <c r="E16" s="104">
-        <v>0</v>
-      </c>
-      <c r="F16" s="104">
-        <v>0</v>
-      </c>
-      <c r="G16" s="105">
-        <v>0</v>
-      </c>
-      <c r="H16" s="106">
-        <v>0</v>
-      </c>
-      <c r="I16" s="106">
-        <v>0</v>
-      </c>
-      <c r="J16" s="106">
-        <v>0</v>
-      </c>
-      <c r="K16" s="103">
-        <v>0</v>
-      </c>
-      <c r="L16" s="104">
-        <v>0</v>
-      </c>
-      <c r="M16" s="104">
-        <v>0</v>
-      </c>
-      <c r="N16" s="104">
-        <v>0</v>
-      </c>
-      <c r="O16" s="105">
-        <v>0</v>
-      </c>
-      <c r="P16" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="106">
-        <v>0</v>
-      </c>
-      <c r="R16" s="106">
-        <v>0</v>
-      </c>
-      <c r="S16" s="106">
-        <v>0</v>
-      </c>
-      <c r="T16" s="103">
-        <v>0</v>
-      </c>
-      <c r="U16" s="104">
-        <v>0</v>
-      </c>
-      <c r="V16" s="105">
-        <v>0</v>
-      </c>
-      <c r="W16" s="107">
-        <v>0</v>
-      </c>
-      <c r="X16" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="110">
+      <c r="E16" s="90">
+        <v>0</v>
+      </c>
+      <c r="F16" s="90">
+        <v>0</v>
+      </c>
+      <c r="G16" s="91">
+        <v>0</v>
+      </c>
+      <c r="H16" s="92">
+        <v>0</v>
+      </c>
+      <c r="I16" s="92">
+        <v>0</v>
+      </c>
+      <c r="J16" s="92">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <v>0</v>
+      </c>
+      <c r="L16" s="90">
+        <v>0</v>
+      </c>
+      <c r="M16" s="90">
+        <v>0</v>
+      </c>
+      <c r="N16" s="90">
+        <v>0</v>
+      </c>
+      <c r="O16" s="91">
+        <v>0</v>
+      </c>
+      <c r="P16" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="92">
+        <v>0</v>
+      </c>
+      <c r="R16" s="92">
+        <v>0</v>
+      </c>
+      <c r="S16" s="92">
+        <v>0</v>
+      </c>
+      <c r="T16" s="89">
+        <v>0</v>
+      </c>
+      <c r="U16" s="90">
+        <v>0</v>
+      </c>
+      <c r="V16" s="91">
+        <v>0</v>
+      </c>
+      <c r="W16" s="93">
+        <v>0</v>
+      </c>
+      <c r="X16" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="96">
         <v>0</v>
       </c>
       <c r="AF16" s="4"/>
@@ -3336,98 +3335,98 @@
       <c r="AO16" s="4"/>
     </row>
     <row r="17" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="78">
         <v>1</v>
       </c>
-      <c r="E17" s="93">
-        <v>0</v>
-      </c>
-      <c r="F17" s="93">
-        <v>0</v>
-      </c>
-      <c r="G17" s="94">
-        <v>0</v>
-      </c>
-      <c r="H17" s="95">
-        <v>0</v>
-      </c>
-      <c r="I17" s="95">
-        <v>0</v>
-      </c>
-      <c r="J17" s="95">
-        <v>0</v>
-      </c>
-      <c r="K17" s="92">
-        <v>0</v>
-      </c>
-      <c r="L17" s="93">
-        <v>0</v>
-      </c>
-      <c r="M17" s="93">
-        <v>0</v>
-      </c>
-      <c r="N17" s="93">
-        <v>0</v>
-      </c>
-      <c r="O17" s="94">
-        <v>0</v>
-      </c>
-      <c r="P17" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="95">
-        <v>0</v>
-      </c>
-      <c r="R17" s="95">
-        <v>0</v>
-      </c>
-      <c r="S17" s="95">
-        <v>0</v>
-      </c>
-      <c r="T17" s="92">
-        <v>0</v>
-      </c>
-      <c r="U17" s="93">
-        <v>0</v>
-      </c>
-      <c r="V17" s="94">
-        <v>0</v>
-      </c>
-      <c r="W17" s="96">
-        <v>0</v>
-      </c>
-      <c r="X17" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="99">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="111"/>
+      <c r="E17" s="79">
+        <v>0</v>
+      </c>
+      <c r="F17" s="79">
+        <v>0</v>
+      </c>
+      <c r="G17" s="80">
+        <v>0</v>
+      </c>
+      <c r="H17" s="81">
+        <v>0</v>
+      </c>
+      <c r="I17" s="81">
+        <v>0</v>
+      </c>
+      <c r="J17" s="81">
+        <v>0</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="79">
+        <v>0</v>
+      </c>
+      <c r="M17" s="79">
+        <v>0</v>
+      </c>
+      <c r="N17" s="79">
+        <v>0</v>
+      </c>
+      <c r="O17" s="80">
+        <v>0</v>
+      </c>
+      <c r="P17" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="81">
+        <v>0</v>
+      </c>
+      <c r="R17" s="81">
+        <v>0</v>
+      </c>
+      <c r="S17" s="81">
+        <v>0</v>
+      </c>
+      <c r="T17" s="78">
+        <v>0</v>
+      </c>
+      <c r="U17" s="79">
+        <v>0</v>
+      </c>
+      <c r="V17" s="80">
+        <v>0</v>
+      </c>
+      <c r="W17" s="82">
+        <v>0</v>
+      </c>
+      <c r="X17" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="97"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
@@ -3439,95 +3438,95 @@
       <c r="AO17" s="4"/>
     </row>
     <row r="18" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="89">
         <v>1</v>
       </c>
-      <c r="E18" s="104">
-        <v>0</v>
-      </c>
-      <c r="F18" s="104">
-        <v>0</v>
-      </c>
-      <c r="G18" s="105">
-        <v>0</v>
-      </c>
-      <c r="H18" s="106">
-        <v>0</v>
-      </c>
-      <c r="I18" s="106">
-        <v>0</v>
-      </c>
-      <c r="J18" s="106">
-        <v>0</v>
-      </c>
-      <c r="K18" s="103">
-        <v>0</v>
-      </c>
-      <c r="L18" s="104">
-        <v>0</v>
-      </c>
-      <c r="M18" s="104">
-        <v>0</v>
-      </c>
-      <c r="N18" s="104">
-        <v>0</v>
-      </c>
-      <c r="O18" s="105">
-        <v>0</v>
-      </c>
-      <c r="P18" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="106">
-        <v>0</v>
-      </c>
-      <c r="R18" s="106">
-        <v>0</v>
-      </c>
-      <c r="S18" s="106">
-        <v>0</v>
-      </c>
-      <c r="T18" s="103">
-        <v>0</v>
-      </c>
-      <c r="U18" s="104">
-        <v>0</v>
-      </c>
-      <c r="V18" s="105">
-        <v>0</v>
-      </c>
-      <c r="W18" s="107">
-        <v>0</v>
-      </c>
-      <c r="X18" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="110">
+      <c r="E18" s="90">
+        <v>0</v>
+      </c>
+      <c r="F18" s="90">
+        <v>0</v>
+      </c>
+      <c r="G18" s="91">
+        <v>0</v>
+      </c>
+      <c r="H18" s="92">
+        <v>0</v>
+      </c>
+      <c r="I18" s="92">
+        <v>0</v>
+      </c>
+      <c r="J18" s="92">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
+        <v>0</v>
+      </c>
+      <c r="L18" s="90">
+        <v>0</v>
+      </c>
+      <c r="M18" s="90">
+        <v>0</v>
+      </c>
+      <c r="N18" s="90">
+        <v>0</v>
+      </c>
+      <c r="O18" s="91">
+        <v>0</v>
+      </c>
+      <c r="P18" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="92">
+        <v>0</v>
+      </c>
+      <c r="R18" s="92">
+        <v>0</v>
+      </c>
+      <c r="S18" s="92">
+        <v>0</v>
+      </c>
+      <c r="T18" s="89">
+        <v>0</v>
+      </c>
+      <c r="U18" s="90">
+        <v>0</v>
+      </c>
+      <c r="V18" s="91">
+        <v>0</v>
+      </c>
+      <c r="W18" s="93">
+        <v>0</v>
+      </c>
+      <c r="X18" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="96">
         <v>0</v>
       </c>
       <c r="AF18" s="4"/>
@@ -3542,95 +3541,95 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="70">
-        <v>0</v>
-      </c>
-      <c r="E19" s="71">
-        <v>0</v>
-      </c>
-      <c r="F19" s="71">
-        <v>0</v>
-      </c>
-      <c r="G19" s="72">
-        <v>0</v>
-      </c>
-      <c r="H19" s="73">
-        <v>0</v>
-      </c>
-      <c r="I19" s="73">
-        <v>0</v>
-      </c>
-      <c r="J19" s="73">
-        <v>0</v>
-      </c>
-      <c r="K19" s="70">
-        <v>0</v>
-      </c>
-      <c r="L19" s="71">
-        <v>0</v>
-      </c>
-      <c r="M19" s="71">
-        <v>0</v>
-      </c>
-      <c r="N19" s="71">
-        <v>0</v>
-      </c>
-      <c r="O19" s="72">
-        <v>0</v>
-      </c>
-      <c r="P19" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="73">
-        <v>0</v>
-      </c>
-      <c r="R19" s="73">
-        <v>0</v>
-      </c>
-      <c r="S19" s="73">
-        <v>0</v>
-      </c>
-      <c r="T19" s="70">
-        <v>0</v>
-      </c>
-      <c r="U19" s="71">
-        <v>0</v>
-      </c>
-      <c r="V19" s="72">
-        <v>0</v>
-      </c>
-      <c r="W19" s="74">
-        <v>0</v>
-      </c>
-      <c r="X19" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="77">
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58">
+        <v>0</v>
+      </c>
+      <c r="H19" s="59">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59">
+        <v>0</v>
+      </c>
+      <c r="J19" s="59">
+        <v>0</v>
+      </c>
+      <c r="K19" s="56">
+        <v>0</v>
+      </c>
+      <c r="L19" s="57">
+        <v>0</v>
+      </c>
+      <c r="M19" s="57">
+        <v>0</v>
+      </c>
+      <c r="N19" s="57">
+        <v>0</v>
+      </c>
+      <c r="O19" s="58">
+        <v>0</v>
+      </c>
+      <c r="P19" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>0</v>
+      </c>
+      <c r="R19" s="59">
+        <v>0</v>
+      </c>
+      <c r="S19" s="59">
+        <v>0</v>
+      </c>
+      <c r="T19" s="56">
+        <v>0</v>
+      </c>
+      <c r="U19" s="57">
+        <v>0</v>
+      </c>
+      <c r="V19" s="58">
+        <v>0</v>
+      </c>
+      <c r="W19" s="60">
+        <v>0</v>
+      </c>
+      <c r="X19" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="63">
         <v>0</v>
       </c>
       <c r="AF19" s="4"/>
@@ -3645,95 +3644,95 @@
       <c r="AO19" s="4"/>
     </row>
     <row r="20" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="103">
-        <v>0</v>
-      </c>
-      <c r="E20" s="104">
-        <v>0</v>
-      </c>
-      <c r="F20" s="104">
-        <v>0</v>
-      </c>
-      <c r="G20" s="105">
-        <v>0</v>
-      </c>
-      <c r="H20" s="106">
-        <v>0</v>
-      </c>
-      <c r="I20" s="106">
-        <v>0</v>
-      </c>
-      <c r="J20" s="106">
-        <v>0</v>
-      </c>
-      <c r="K20" s="103">
-        <v>0</v>
-      </c>
-      <c r="L20" s="104">
-        <v>0</v>
-      </c>
-      <c r="M20" s="104">
-        <v>0</v>
-      </c>
-      <c r="N20" s="104">
-        <v>0</v>
-      </c>
-      <c r="O20" s="105">
-        <v>0</v>
-      </c>
-      <c r="P20" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="106">
-        <v>0</v>
-      </c>
-      <c r="R20" s="106">
-        <v>0</v>
-      </c>
-      <c r="S20" s="106">
-        <v>0</v>
-      </c>
-      <c r="T20" s="103">
-        <v>0</v>
-      </c>
-      <c r="U20" s="104">
-        <v>0</v>
-      </c>
-      <c r="V20" s="105">
-        <v>0</v>
-      </c>
-      <c r="W20" s="107">
+      <c r="D20" s="89">
+        <v>0</v>
+      </c>
+      <c r="E20" s="90">
+        <v>0</v>
+      </c>
+      <c r="F20" s="90">
+        <v>0</v>
+      </c>
+      <c r="G20" s="91">
+        <v>0</v>
+      </c>
+      <c r="H20" s="92">
+        <v>0</v>
+      </c>
+      <c r="I20" s="92">
+        <v>0</v>
+      </c>
+      <c r="J20" s="92">
+        <v>0</v>
+      </c>
+      <c r="K20" s="89">
+        <v>0</v>
+      </c>
+      <c r="L20" s="90">
+        <v>0</v>
+      </c>
+      <c r="M20" s="90">
+        <v>0</v>
+      </c>
+      <c r="N20" s="90">
+        <v>0</v>
+      </c>
+      <c r="O20" s="91">
+        <v>0</v>
+      </c>
+      <c r="P20" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="92">
+        <v>0</v>
+      </c>
+      <c r="R20" s="92">
+        <v>0</v>
+      </c>
+      <c r="S20" s="92">
+        <v>0</v>
+      </c>
+      <c r="T20" s="89">
+        <v>0</v>
+      </c>
+      <c r="U20" s="90">
+        <v>0</v>
+      </c>
+      <c r="V20" s="91">
+        <v>0</v>
+      </c>
+      <c r="W20" s="93">
         <v>1</v>
       </c>
-      <c r="X20" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="109">
+      <c r="X20" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="95">
         <v>1</v>
       </c>
-      <c r="Z20" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="110">
+      <c r="Z20" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="96">
         <v>0</v>
       </c>
       <c r="AF20" s="4"/>
@@ -3748,95 +3747,95 @@
       <c r="AO20" s="4"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="103">
-        <v>0</v>
-      </c>
-      <c r="E21" s="104">
-        <v>0</v>
-      </c>
-      <c r="F21" s="104">
-        <v>0</v>
-      </c>
-      <c r="G21" s="105">
-        <v>0</v>
-      </c>
-      <c r="H21" s="106">
-        <v>0</v>
-      </c>
-      <c r="I21" s="106">
-        <v>0</v>
-      </c>
-      <c r="J21" s="106">
-        <v>0</v>
-      </c>
-      <c r="K21" s="103">
-        <v>0</v>
-      </c>
-      <c r="L21" s="104">
-        <v>0</v>
-      </c>
-      <c r="M21" s="104">
-        <v>0</v>
-      </c>
-      <c r="N21" s="104">
-        <v>0</v>
-      </c>
-      <c r="O21" s="105">
-        <v>0</v>
-      </c>
-      <c r="P21" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="106">
-        <v>0</v>
-      </c>
-      <c r="R21" s="106">
-        <v>0</v>
-      </c>
-      <c r="S21" s="106">
-        <v>0</v>
-      </c>
-      <c r="T21" s="103">
-        <v>0</v>
-      </c>
-      <c r="U21" s="104">
-        <v>0</v>
-      </c>
-      <c r="V21" s="105">
-        <v>0</v>
-      </c>
-      <c r="W21" s="107">
-        <v>0</v>
-      </c>
-      <c r="X21" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="106">
+      <c r="D21" s="89">
+        <v>0</v>
+      </c>
+      <c r="E21" s="90">
+        <v>0</v>
+      </c>
+      <c r="F21" s="90">
+        <v>0</v>
+      </c>
+      <c r="G21" s="91">
+        <v>0</v>
+      </c>
+      <c r="H21" s="92">
+        <v>0</v>
+      </c>
+      <c r="I21" s="92">
+        <v>0</v>
+      </c>
+      <c r="J21" s="92">
+        <v>0</v>
+      </c>
+      <c r="K21" s="89">
+        <v>0</v>
+      </c>
+      <c r="L21" s="90">
+        <v>0</v>
+      </c>
+      <c r="M21" s="90">
+        <v>0</v>
+      </c>
+      <c r="N21" s="90">
+        <v>0</v>
+      </c>
+      <c r="O21" s="91">
+        <v>0</v>
+      </c>
+      <c r="P21" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="92">
+        <v>0</v>
+      </c>
+      <c r="R21" s="92">
+        <v>0</v>
+      </c>
+      <c r="S21" s="92">
+        <v>0</v>
+      </c>
+      <c r="T21" s="89">
+        <v>0</v>
+      </c>
+      <c r="U21" s="90">
+        <v>0</v>
+      </c>
+      <c r="V21" s="91">
+        <v>0</v>
+      </c>
+      <c r="W21" s="93">
+        <v>0</v>
+      </c>
+      <c r="X21" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="92">
         <v>1</v>
       </c>
-      <c r="AC21" s="106">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="106">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="110">
+      <c r="AB21" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="96">
         <v>0</v>
       </c>
       <c r="AF21" s="4"/>
@@ -3851,95 +3850,95 @@
       <c r="AO21" s="4"/>
     </row>
     <row r="22" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="103">
-        <v>0</v>
-      </c>
-      <c r="E22" s="104">
-        <v>0</v>
-      </c>
-      <c r="F22" s="104">
-        <v>0</v>
-      </c>
-      <c r="G22" s="105">
-        <v>0</v>
-      </c>
-      <c r="H22" s="106">
-        <v>0</v>
-      </c>
-      <c r="I22" s="106">
-        <v>0</v>
-      </c>
-      <c r="J22" s="106">
-        <v>0</v>
-      </c>
-      <c r="K22" s="103">
-        <v>0</v>
-      </c>
-      <c r="L22" s="104">
+      <c r="D22" s="89">
+        <v>0</v>
+      </c>
+      <c r="E22" s="90">
+        <v>0</v>
+      </c>
+      <c r="F22" s="90">
+        <v>0</v>
+      </c>
+      <c r="G22" s="91">
+        <v>0</v>
+      </c>
+      <c r="H22" s="92">
+        <v>0</v>
+      </c>
+      <c r="I22" s="92">
+        <v>0</v>
+      </c>
+      <c r="J22" s="92">
+        <v>0</v>
+      </c>
+      <c r="K22" s="89">
+        <v>0</v>
+      </c>
+      <c r="L22" s="90">
         <v>1</v>
       </c>
-      <c r="M22" s="104">
-        <v>0</v>
-      </c>
-      <c r="N22" s="104">
-        <v>0</v>
-      </c>
-      <c r="O22" s="105">
-        <v>0</v>
-      </c>
-      <c r="P22" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="106">
-        <v>0</v>
-      </c>
-      <c r="R22" s="106">
-        <v>0</v>
-      </c>
-      <c r="S22" s="106">
-        <v>0</v>
-      </c>
-      <c r="T22" s="103">
-        <v>0</v>
-      </c>
-      <c r="U22" s="104">
-        <v>0</v>
-      </c>
-      <c r="V22" s="105">
-        <v>0</v>
-      </c>
-      <c r="W22" s="107">
+      <c r="M22" s="90">
+        <v>0</v>
+      </c>
+      <c r="N22" s="90">
+        <v>0</v>
+      </c>
+      <c r="O22" s="91">
+        <v>0</v>
+      </c>
+      <c r="P22" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="92">
+        <v>0</v>
+      </c>
+      <c r="R22" s="92">
+        <v>0</v>
+      </c>
+      <c r="S22" s="92">
+        <v>0</v>
+      </c>
+      <c r="T22" s="89">
+        <v>0</v>
+      </c>
+      <c r="U22" s="90">
+        <v>0</v>
+      </c>
+      <c r="V22" s="91">
+        <v>0</v>
+      </c>
+      <c r="W22" s="93">
         <v>1</v>
       </c>
-      <c r="X22" s="108">
+      <c r="X22" s="94">
         <v>1</v>
       </c>
-      <c r="Y22" s="109">
+      <c r="Y22" s="95">
         <v>1</v>
       </c>
-      <c r="Z22" s="110">
+      <c r="Z22" s="96">
         <v>1</v>
       </c>
-      <c r="AA22" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="110">
+      <c r="AA22" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="96">
         <v>0</v>
       </c>
       <c r="AF22" s="4"/>
@@ -3954,95 +3953,95 @@
       <c r="AO22" s="4"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="103">
-        <v>0</v>
-      </c>
-      <c r="E23" s="104">
-        <v>0</v>
-      </c>
-      <c r="F23" s="104">
-        <v>0</v>
-      </c>
-      <c r="G23" s="105">
-        <v>0</v>
-      </c>
-      <c r="H23" s="106">
-        <v>0</v>
-      </c>
-      <c r="I23" s="106">
-        <v>0</v>
-      </c>
-      <c r="J23" s="106">
-        <v>0</v>
-      </c>
-      <c r="K23" s="103">
-        <v>0</v>
-      </c>
-      <c r="L23" s="104">
+      <c r="D23" s="89">
+        <v>0</v>
+      </c>
+      <c r="E23" s="90">
+        <v>0</v>
+      </c>
+      <c r="F23" s="90">
+        <v>0</v>
+      </c>
+      <c r="G23" s="91">
+        <v>0</v>
+      </c>
+      <c r="H23" s="92">
+        <v>0</v>
+      </c>
+      <c r="I23" s="92">
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <v>0</v>
+      </c>
+      <c r="K23" s="89">
+        <v>0</v>
+      </c>
+      <c r="L23" s="90">
         <v>1</v>
       </c>
-      <c r="M23" s="104">
-        <v>0</v>
-      </c>
-      <c r="N23" s="104">
-        <v>0</v>
-      </c>
-      <c r="O23" s="105">
+      <c r="M23" s="90">
+        <v>0</v>
+      </c>
+      <c r="N23" s="90">
+        <v>0</v>
+      </c>
+      <c r="O23" s="91">
         <v>1</v>
       </c>
-      <c r="P23" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="106">
-        <v>0</v>
-      </c>
-      <c r="R23" s="106">
-        <v>0</v>
-      </c>
-      <c r="S23" s="106">
-        <v>0</v>
-      </c>
-      <c r="T23" s="103">
-        <v>0</v>
-      </c>
-      <c r="U23" s="104">
-        <v>0</v>
-      </c>
-      <c r="V23" s="105">
-        <v>0</v>
-      </c>
-      <c r="W23" s="107">
+      <c r="P23" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="92">
+        <v>0</v>
+      </c>
+      <c r="R23" s="92">
+        <v>0</v>
+      </c>
+      <c r="S23" s="92">
+        <v>0</v>
+      </c>
+      <c r="T23" s="89">
+        <v>0</v>
+      </c>
+      <c r="U23" s="90">
+        <v>0</v>
+      </c>
+      <c r="V23" s="91">
+        <v>0</v>
+      </c>
+      <c r="W23" s="93">
         <v>1</v>
       </c>
-      <c r="X23" s="108">
+      <c r="X23" s="94">
         <v>1</v>
       </c>
-      <c r="Y23" s="109">
+      <c r="Y23" s="95">
         <v>1</v>
       </c>
-      <c r="Z23" s="110">
+      <c r="Z23" s="96">
         <v>1</v>
       </c>
-      <c r="AA23" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="110">
+      <c r="AA23" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="96">
         <v>0</v>
       </c>
       <c r="AF23" s="4"/>
@@ -4057,98 +4056,98 @@
       <c r="AO23" s="4"/>
     </row>
     <row r="24" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="92">
-        <v>0</v>
-      </c>
-      <c r="E24" s="93">
-        <v>0</v>
-      </c>
-      <c r="F24" s="93">
-        <v>0</v>
-      </c>
-      <c r="G24" s="94">
-        <v>0</v>
-      </c>
-      <c r="H24" s="95">
+      <c r="D24" s="78">
+        <v>0</v>
+      </c>
+      <c r="E24" s="79">
+        <v>0</v>
+      </c>
+      <c r="F24" s="79">
+        <v>0</v>
+      </c>
+      <c r="G24" s="80">
+        <v>0</v>
+      </c>
+      <c r="H24" s="81">
         <v>1</v>
       </c>
-      <c r="I24" s="95">
-        <v>0</v>
-      </c>
-      <c r="J24" s="95">
-        <v>0</v>
-      </c>
-      <c r="K24" s="92">
-        <v>0</v>
-      </c>
-      <c r="L24" s="93">
+      <c r="I24" s="81">
+        <v>0</v>
+      </c>
+      <c r="J24" s="81">
+        <v>0</v>
+      </c>
+      <c r="K24" s="78">
+        <v>0</v>
+      </c>
+      <c r="L24" s="79">
         <v>1</v>
       </c>
-      <c r="M24" s="93">
+      <c r="M24" s="79">
         <v>1</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N24" s="79">
         <v>1</v>
       </c>
-      <c r="O24" s="94">
-        <v>0</v>
-      </c>
-      <c r="P24" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="95">
-        <v>0</v>
-      </c>
-      <c r="R24" s="95">
-        <v>0</v>
-      </c>
-      <c r="S24" s="95">
-        <v>0</v>
-      </c>
-      <c r="T24" s="92">
-        <v>0</v>
-      </c>
-      <c r="U24" s="93">
-        <v>0</v>
-      </c>
-      <c r="V24" s="94">
-        <v>0</v>
-      </c>
-      <c r="W24" s="96">
-        <v>0</v>
-      </c>
-      <c r="X24" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="98">
+      <c r="O24" s="80">
+        <v>0</v>
+      </c>
+      <c r="P24" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="81">
+        <v>0</v>
+      </c>
+      <c r="R24" s="81">
+        <v>0</v>
+      </c>
+      <c r="S24" s="81">
+        <v>0</v>
+      </c>
+      <c r="T24" s="78">
+        <v>0</v>
+      </c>
+      <c r="U24" s="79">
+        <v>0</v>
+      </c>
+      <c r="V24" s="80">
+        <v>0</v>
+      </c>
+      <c r="W24" s="82">
+        <v>0</v>
+      </c>
+      <c r="X24" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="84">
         <v>1</v>
       </c>
-      <c r="Z24" s="99">
+      <c r="Z24" s="85">
         <v>1</v>
       </c>
-      <c r="AA24" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="111"/>
+      <c r="AA24" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="97"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
@@ -4160,98 +4159,98 @@
       <c r="AO24" s="4"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="92">
-        <v>0</v>
-      </c>
-      <c r="E25" s="93">
-        <v>0</v>
-      </c>
-      <c r="F25" s="93">
-        <v>0</v>
-      </c>
-      <c r="G25" s="94">
-        <v>0</v>
-      </c>
-      <c r="H25" s="95">
+      <c r="D25" s="78">
+        <v>0</v>
+      </c>
+      <c r="E25" s="79">
+        <v>0</v>
+      </c>
+      <c r="F25" s="79">
+        <v>0</v>
+      </c>
+      <c r="G25" s="80">
+        <v>0</v>
+      </c>
+      <c r="H25" s="81">
         <v>1</v>
       </c>
-      <c r="I25" s="95">
-        <v>0</v>
-      </c>
-      <c r="J25" s="95">
-        <v>0</v>
-      </c>
-      <c r="K25" s="92">
-        <v>0</v>
-      </c>
-      <c r="L25" s="93">
+      <c r="I25" s="81">
+        <v>0</v>
+      </c>
+      <c r="J25" s="81">
+        <v>0</v>
+      </c>
+      <c r="K25" s="78">
+        <v>0</v>
+      </c>
+      <c r="L25" s="79">
         <v>1</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="79">
         <v>1</v>
       </c>
-      <c r="N25" s="93">
+      <c r="N25" s="79">
         <v>1</v>
       </c>
-      <c r="O25" s="94">
+      <c r="O25" s="80">
         <v>1</v>
       </c>
-      <c r="P25" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="95">
-        <v>0</v>
-      </c>
-      <c r="R25" s="95">
-        <v>0</v>
-      </c>
-      <c r="S25" s="95">
-        <v>0</v>
-      </c>
-      <c r="T25" s="92">
-        <v>0</v>
-      </c>
-      <c r="U25" s="93">
-        <v>0</v>
-      </c>
-      <c r="V25" s="94">
-        <v>0</v>
-      </c>
-      <c r="W25" s="96">
-        <v>0</v>
-      </c>
-      <c r="X25" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="98">
+      <c r="P25" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="81">
+        <v>0</v>
+      </c>
+      <c r="R25" s="81">
+        <v>0</v>
+      </c>
+      <c r="S25" s="81">
+        <v>0</v>
+      </c>
+      <c r="T25" s="78">
+        <v>0</v>
+      </c>
+      <c r="U25" s="79">
+        <v>0</v>
+      </c>
+      <c r="V25" s="80">
+        <v>0</v>
+      </c>
+      <c r="W25" s="82">
+        <v>0</v>
+      </c>
+      <c r="X25" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="84">
         <v>1</v>
       </c>
-      <c r="Z25" s="99">
+      <c r="Z25" s="85">
         <v>1</v>
       </c>
-      <c r="AA25" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="111"/>
+      <c r="AA25" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="97"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
@@ -4263,98 +4262,98 @@
       <c r="AO25" s="4"/>
     </row>
     <row r="26" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="92">
-        <v>0</v>
-      </c>
-      <c r="E26" s="93">
-        <v>0</v>
-      </c>
-      <c r="F26" s="93">
-        <v>0</v>
-      </c>
-      <c r="G26" s="94">
-        <v>0</v>
-      </c>
-      <c r="H26" s="95">
+      <c r="D26" s="78">
+        <v>0</v>
+      </c>
+      <c r="E26" s="79">
+        <v>0</v>
+      </c>
+      <c r="F26" s="79">
+        <v>0</v>
+      </c>
+      <c r="G26" s="80">
+        <v>0</v>
+      </c>
+      <c r="H26" s="81">
         <v>1</v>
       </c>
-      <c r="I26" s="95">
+      <c r="I26" s="81">
         <v>1</v>
       </c>
-      <c r="J26" s="95">
+      <c r="J26" s="81">
         <v>1</v>
       </c>
-      <c r="K26" s="92">
-        <v>0</v>
-      </c>
-      <c r="L26" s="93">
-        <v>0</v>
-      </c>
-      <c r="M26" s="93">
-        <v>0</v>
-      </c>
-      <c r="N26" s="93">
-        <v>0</v>
-      </c>
-      <c r="O26" s="94">
-        <v>0</v>
-      </c>
-      <c r="P26" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="95">
-        <v>0</v>
-      </c>
-      <c r="R26" s="95">
-        <v>0</v>
-      </c>
-      <c r="S26" s="95">
-        <v>0</v>
-      </c>
-      <c r="T26" s="92">
-        <v>0</v>
-      </c>
-      <c r="U26" s="93">
-        <v>0</v>
-      </c>
-      <c r="V26" s="94">
-        <v>0</v>
-      </c>
-      <c r="W26" s="96">
-        <v>0</v>
-      </c>
-      <c r="X26" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="99">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="111"/>
+      <c r="K26" s="78">
+        <v>0</v>
+      </c>
+      <c r="L26" s="79">
+        <v>0</v>
+      </c>
+      <c r="M26" s="79">
+        <v>0</v>
+      </c>
+      <c r="N26" s="79">
+        <v>0</v>
+      </c>
+      <c r="O26" s="80">
+        <v>0</v>
+      </c>
+      <c r="P26" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="81">
+        <v>0</v>
+      </c>
+      <c r="R26" s="81">
+        <v>0</v>
+      </c>
+      <c r="S26" s="81">
+        <v>0</v>
+      </c>
+      <c r="T26" s="78">
+        <v>0</v>
+      </c>
+      <c r="U26" s="79">
+        <v>0</v>
+      </c>
+      <c r="V26" s="80">
+        <v>0</v>
+      </c>
+      <c r="W26" s="82">
+        <v>0</v>
+      </c>
+      <c r="X26" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="97"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
@@ -4366,95 +4365,95 @@
       <c r="AO26" s="4"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="103">
-        <v>0</v>
-      </c>
-      <c r="E27" s="104">
-        <v>0</v>
-      </c>
-      <c r="F27" s="104">
-        <v>0</v>
-      </c>
-      <c r="G27" s="105">
-        <v>0</v>
-      </c>
-      <c r="H27" s="106">
-        <v>0</v>
-      </c>
-      <c r="I27" s="106">
-        <v>0</v>
-      </c>
-      <c r="J27" s="106">
-        <v>0</v>
-      </c>
-      <c r="K27" s="103">
-        <v>0</v>
-      </c>
-      <c r="L27" s="104">
-        <v>0</v>
-      </c>
-      <c r="M27" s="104">
-        <v>0</v>
-      </c>
-      <c r="N27" s="104">
-        <v>0</v>
-      </c>
-      <c r="O27" s="105">
-        <v>0</v>
-      </c>
-      <c r="P27" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="106">
-        <v>0</v>
-      </c>
-      <c r="R27" s="106">
-        <v>0</v>
-      </c>
-      <c r="S27" s="106">
-        <v>0</v>
-      </c>
-      <c r="T27" s="103">
-        <v>0</v>
-      </c>
-      <c r="U27" s="104">
-        <v>0</v>
-      </c>
-      <c r="V27" s="105">
-        <v>0</v>
-      </c>
-      <c r="W27" s="107">
-        <v>0</v>
-      </c>
-      <c r="X27" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="110">
+      <c r="D27" s="89">
+        <v>0</v>
+      </c>
+      <c r="E27" s="90">
+        <v>0</v>
+      </c>
+      <c r="F27" s="90">
+        <v>0</v>
+      </c>
+      <c r="G27" s="91">
+        <v>0</v>
+      </c>
+      <c r="H27" s="92">
+        <v>1</v>
+      </c>
+      <c r="I27" s="92">
+        <v>0</v>
+      </c>
+      <c r="J27" s="92">
+        <v>1</v>
+      </c>
+      <c r="K27" s="89">
+        <v>0</v>
+      </c>
+      <c r="L27" s="90">
+        <v>0</v>
+      </c>
+      <c r="M27" s="90">
+        <v>0</v>
+      </c>
+      <c r="N27" s="90">
+        <v>0</v>
+      </c>
+      <c r="O27" s="91">
+        <v>0</v>
+      </c>
+      <c r="P27" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="92">
+        <v>0</v>
+      </c>
+      <c r="R27" s="92">
+        <v>0</v>
+      </c>
+      <c r="S27" s="92">
+        <v>0</v>
+      </c>
+      <c r="T27" s="89">
+        <v>0</v>
+      </c>
+      <c r="U27" s="90">
+        <v>0</v>
+      </c>
+      <c r="V27" s="91">
+        <v>0</v>
+      </c>
+      <c r="W27" s="93">
+        <v>0</v>
+      </c>
+      <c r="X27" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="96">
         <v>0</v>
       </c>
       <c r="AF27" s="4"/>
@@ -4469,95 +4468,95 @@
       <c r="AO27" s="4"/>
     </row>
     <row r="28" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="103">
-        <v>0</v>
-      </c>
-      <c r="E28" s="104">
-        <v>0</v>
-      </c>
-      <c r="F28" s="104">
-        <v>0</v>
-      </c>
-      <c r="G28" s="105">
-        <v>0</v>
-      </c>
-      <c r="H28" s="106">
-        <v>0</v>
-      </c>
-      <c r="I28" s="106">
-        <v>0</v>
-      </c>
-      <c r="J28" s="106">
-        <v>0</v>
-      </c>
-      <c r="K28" s="103">
-        <v>0</v>
-      </c>
-      <c r="L28" s="104">
-        <v>0</v>
-      </c>
-      <c r="M28" s="104">
-        <v>0</v>
-      </c>
-      <c r="N28" s="104">
-        <v>0</v>
-      </c>
-      <c r="O28" s="105">
-        <v>0</v>
-      </c>
-      <c r="P28" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="106">
-        <v>0</v>
-      </c>
-      <c r="R28" s="106">
-        <v>0</v>
-      </c>
-      <c r="S28" s="106">
-        <v>0</v>
-      </c>
-      <c r="T28" s="103">
-        <v>0</v>
-      </c>
-      <c r="U28" s="104">
-        <v>0</v>
-      </c>
-      <c r="V28" s="105">
-        <v>0</v>
-      </c>
-      <c r="W28" s="107">
-        <v>0</v>
-      </c>
-      <c r="X28" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="110">
+      <c r="D28" s="89">
+        <v>0</v>
+      </c>
+      <c r="E28" s="90">
+        <v>0</v>
+      </c>
+      <c r="F28" s="90">
+        <v>0</v>
+      </c>
+      <c r="G28" s="91">
+        <v>0</v>
+      </c>
+      <c r="H28" s="92">
+        <v>1</v>
+      </c>
+      <c r="I28" s="92">
+        <v>0</v>
+      </c>
+      <c r="J28" s="92">
+        <v>1</v>
+      </c>
+      <c r="K28" s="89">
+        <v>0</v>
+      </c>
+      <c r="L28" s="90">
+        <v>0</v>
+      </c>
+      <c r="M28" s="90">
+        <v>0</v>
+      </c>
+      <c r="N28" s="90">
+        <v>0</v>
+      </c>
+      <c r="O28" s="91">
+        <v>0</v>
+      </c>
+      <c r="P28" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="92">
+        <v>0</v>
+      </c>
+      <c r="R28" s="92">
+        <v>0</v>
+      </c>
+      <c r="S28" s="92">
+        <v>1</v>
+      </c>
+      <c r="T28" s="89">
+        <v>0</v>
+      </c>
+      <c r="U28" s="90">
+        <v>0</v>
+      </c>
+      <c r="V28" s="91">
+        <v>0</v>
+      </c>
+      <c r="W28" s="93">
+        <v>0</v>
+      </c>
+      <c r="X28" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="96">
         <v>0</v>
       </c>
       <c r="AF28" s="4"/>
@@ -4572,95 +4571,95 @@
       <c r="AO28" s="4"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102" t="s">
+      <c r="B29" s="87"/>
+      <c r="C29" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="103">
-        <v>0</v>
-      </c>
-      <c r="E29" s="104">
-        <v>0</v>
-      </c>
-      <c r="F29" s="104">
-        <v>0</v>
-      </c>
-      <c r="G29" s="105">
-        <v>0</v>
-      </c>
-      <c r="H29" s="106">
+      <c r="D29" s="89">
+        <v>0</v>
+      </c>
+      <c r="E29" s="90">
+        <v>0</v>
+      </c>
+      <c r="F29" s="90">
+        <v>0</v>
+      </c>
+      <c r="G29" s="91">
+        <v>0</v>
+      </c>
+      <c r="H29" s="92">
         <v>1</v>
       </c>
-      <c r="I29" s="106">
-        <v>0</v>
-      </c>
-      <c r="J29" s="106">
-        <v>0</v>
-      </c>
-      <c r="K29" s="103">
+      <c r="I29" s="92">
+        <v>0</v>
+      </c>
+      <c r="J29" s="92">
+        <v>0</v>
+      </c>
+      <c r="K29" s="89">
         <v>1</v>
       </c>
-      <c r="L29" s="104">
-        <v>0</v>
-      </c>
-      <c r="M29" s="104">
-        <v>0</v>
-      </c>
-      <c r="N29" s="104">
+      <c r="L29" s="90">
+        <v>0</v>
+      </c>
+      <c r="M29" s="90">
+        <v>0</v>
+      </c>
+      <c r="N29" s="90">
         <v>1</v>
       </c>
-      <c r="O29" s="105">
-        <v>0</v>
-      </c>
-      <c r="P29" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="106">
-        <v>0</v>
-      </c>
-      <c r="R29" s="106">
-        <v>0</v>
-      </c>
-      <c r="S29" s="106">
-        <v>0</v>
-      </c>
-      <c r="T29" s="103">
-        <v>0</v>
-      </c>
-      <c r="U29" s="104">
-        <v>0</v>
-      </c>
-      <c r="V29" s="105">
-        <v>0</v>
-      </c>
-      <c r="W29" s="107">
+      <c r="O29" s="91">
+        <v>0</v>
+      </c>
+      <c r="P29" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="92">
+        <v>0</v>
+      </c>
+      <c r="R29" s="92">
+        <v>0</v>
+      </c>
+      <c r="S29" s="92">
+        <v>0</v>
+      </c>
+      <c r="T29" s="89">
+        <v>0</v>
+      </c>
+      <c r="U29" s="90">
+        <v>0</v>
+      </c>
+      <c r="V29" s="91">
+        <v>0</v>
+      </c>
+      <c r="W29" s="93">
         <v>1</v>
       </c>
-      <c r="X29" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="110">
+      <c r="X29" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="96">
         <v>1</v>
       </c>
-      <c r="AA29" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="110">
+      <c r="AA29" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="96">
         <v>0</v>
       </c>
       <c r="AF29" s="4"/>
@@ -4675,95 +4674,95 @@
       <c r="AO29" s="4"/>
     </row>
     <row r="30" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="103">
-        <v>0</v>
-      </c>
-      <c r="E30" s="104">
-        <v>0</v>
-      </c>
-      <c r="F30" s="104">
-        <v>0</v>
-      </c>
-      <c r="G30" s="105">
-        <v>0</v>
-      </c>
-      <c r="H30" s="106">
+      <c r="D30" s="89">
+        <v>0</v>
+      </c>
+      <c r="E30" s="90">
+        <v>0</v>
+      </c>
+      <c r="F30" s="90">
+        <v>0</v>
+      </c>
+      <c r="G30" s="91">
+        <v>0</v>
+      </c>
+      <c r="H30" s="92">
         <v>1</v>
       </c>
-      <c r="I30" s="106">
-        <v>0</v>
-      </c>
-      <c r="J30" s="106">
-        <v>0</v>
-      </c>
-      <c r="K30" s="103">
+      <c r="I30" s="92">
+        <v>0</v>
+      </c>
+      <c r="J30" s="92">
+        <v>0</v>
+      </c>
+      <c r="K30" s="89">
         <v>1</v>
       </c>
-      <c r="L30" s="104">
-        <v>0</v>
-      </c>
-      <c r="M30" s="104">
+      <c r="L30" s="90">
+        <v>0</v>
+      </c>
+      <c r="M30" s="90">
         <v>1</v>
       </c>
-      <c r="N30" s="104">
-        <v>0</v>
-      </c>
-      <c r="O30" s="105">
-        <v>0</v>
-      </c>
-      <c r="P30" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="106">
-        <v>0</v>
-      </c>
-      <c r="R30" s="106">
-        <v>0</v>
-      </c>
-      <c r="S30" s="106">
-        <v>0</v>
-      </c>
-      <c r="T30" s="103">
-        <v>0</v>
-      </c>
-      <c r="U30" s="104">
-        <v>0</v>
-      </c>
-      <c r="V30" s="105">
-        <v>0</v>
-      </c>
-      <c r="W30" s="107">
+      <c r="N30" s="90">
+        <v>0</v>
+      </c>
+      <c r="O30" s="91">
+        <v>0</v>
+      </c>
+      <c r="P30" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="92">
+        <v>0</v>
+      </c>
+      <c r="R30" s="92">
+        <v>0</v>
+      </c>
+      <c r="S30" s="92">
+        <v>0</v>
+      </c>
+      <c r="T30" s="89">
+        <v>0</v>
+      </c>
+      <c r="U30" s="90">
+        <v>0</v>
+      </c>
+      <c r="V30" s="91">
+        <v>0</v>
+      </c>
+      <c r="W30" s="93">
         <v>1</v>
       </c>
-      <c r="X30" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="110">
+      <c r="X30" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="96">
         <v>1</v>
       </c>
-      <c r="AA30" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="110">
+      <c r="AA30" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="96">
         <v>0</v>
       </c>
       <c r="AF30" s="4"/>
@@ -4778,98 +4777,98 @@
       <c r="AO30" s="4"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="92">
-        <v>0</v>
-      </c>
-      <c r="E31" s="93">
-        <v>0</v>
-      </c>
-      <c r="F31" s="93">
-        <v>0</v>
-      </c>
-      <c r="G31" s="94">
-        <v>0</v>
-      </c>
-      <c r="H31" s="95">
+      <c r="D31" s="78">
+        <v>0</v>
+      </c>
+      <c r="E31" s="79">
+        <v>0</v>
+      </c>
+      <c r="F31" s="79">
+        <v>0</v>
+      </c>
+      <c r="G31" s="80">
+        <v>0</v>
+      </c>
+      <c r="H31" s="81">
         <v>1</v>
       </c>
-      <c r="I31" s="95">
-        <v>0</v>
-      </c>
-      <c r="J31" s="95">
-        <v>0</v>
-      </c>
-      <c r="K31" s="92">
+      <c r="I31" s="81">
+        <v>0</v>
+      </c>
+      <c r="J31" s="81">
+        <v>0</v>
+      </c>
+      <c r="K31" s="78">
         <v>1</v>
       </c>
-      <c r="L31" s="93">
+      <c r="L31" s="79">
         <v>1</v>
       </c>
-      <c r="M31" s="93">
+      <c r="M31" s="79">
         <v>1</v>
       </c>
-      <c r="N31" s="93">
-        <v>0</v>
-      </c>
-      <c r="O31" s="94">
-        <v>0</v>
-      </c>
-      <c r="P31" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="95">
-        <v>0</v>
-      </c>
-      <c r="R31" s="95">
-        <v>0</v>
-      </c>
-      <c r="S31" s="95">
-        <v>0</v>
-      </c>
-      <c r="T31" s="92">
-        <v>0</v>
-      </c>
-      <c r="U31" s="93">
-        <v>0</v>
-      </c>
-      <c r="V31" s="94">
-        <v>0</v>
-      </c>
-      <c r="W31" s="96">
-        <v>0</v>
-      </c>
-      <c r="X31" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="99">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="111"/>
+      <c r="N31" s="79">
+        <v>0</v>
+      </c>
+      <c r="O31" s="80">
+        <v>0</v>
+      </c>
+      <c r="P31" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="81">
+        <v>0</v>
+      </c>
+      <c r="R31" s="81">
+        <v>0</v>
+      </c>
+      <c r="S31" s="81">
+        <v>0</v>
+      </c>
+      <c r="T31" s="78">
+        <v>0</v>
+      </c>
+      <c r="U31" s="79">
+        <v>0</v>
+      </c>
+      <c r="V31" s="80">
+        <v>0</v>
+      </c>
+      <c r="W31" s="82">
+        <v>0</v>
+      </c>
+      <c r="X31" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="97"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
@@ -4881,98 +4880,98 @@
       <c r="AO31" s="4"/>
     </row>
     <row r="32" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91" t="s">
+      <c r="B32" s="76"/>
+      <c r="C32" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="92">
-        <v>0</v>
-      </c>
-      <c r="E32" s="93">
-        <v>0</v>
-      </c>
-      <c r="F32" s="93">
-        <v>0</v>
-      </c>
-      <c r="G32" s="94">
-        <v>0</v>
-      </c>
-      <c r="H32" s="95">
+      <c r="D32" s="78">
+        <v>0</v>
+      </c>
+      <c r="E32" s="79">
+        <v>0</v>
+      </c>
+      <c r="F32" s="79">
+        <v>0</v>
+      </c>
+      <c r="G32" s="80">
+        <v>0</v>
+      </c>
+      <c r="H32" s="81">
         <v>1</v>
       </c>
-      <c r="I32" s="95">
-        <v>0</v>
-      </c>
-      <c r="J32" s="95">
-        <v>0</v>
-      </c>
-      <c r="K32" s="92">
+      <c r="I32" s="81">
+        <v>0</v>
+      </c>
+      <c r="J32" s="81">
+        <v>0</v>
+      </c>
+      <c r="K32" s="78">
         <v>1</v>
       </c>
-      <c r="L32" s="93">
+      <c r="L32" s="79">
         <v>1</v>
       </c>
-      <c r="M32" s="93">
+      <c r="M32" s="79">
         <v>1</v>
       </c>
-      <c r="N32" s="93">
-        <v>0</v>
-      </c>
-      <c r="O32" s="94">
+      <c r="N32" s="79">
+        <v>0</v>
+      </c>
+      <c r="O32" s="80">
         <v>1</v>
       </c>
-      <c r="P32" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="95">
-        <v>0</v>
-      </c>
-      <c r="R32" s="95">
-        <v>0</v>
-      </c>
-      <c r="S32" s="95">
-        <v>0</v>
-      </c>
-      <c r="T32" s="92">
-        <v>0</v>
-      </c>
-      <c r="U32" s="93">
-        <v>0</v>
-      </c>
-      <c r="V32" s="94">
-        <v>0</v>
-      </c>
-      <c r="W32" s="96">
-        <v>0</v>
-      </c>
-      <c r="X32" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="99">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="111"/>
+      <c r="P32" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="81">
+        <v>0</v>
+      </c>
+      <c r="R32" s="81">
+        <v>0</v>
+      </c>
+      <c r="S32" s="81">
+        <v>0</v>
+      </c>
+      <c r="T32" s="78">
+        <v>0</v>
+      </c>
+      <c r="U32" s="79">
+        <v>0</v>
+      </c>
+      <c r="V32" s="80">
+        <v>0</v>
+      </c>
+      <c r="W32" s="82">
+        <v>0</v>
+      </c>
+      <c r="X32" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="97"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
@@ -4984,98 +4983,98 @@
       <c r="AO32" s="4"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="103">
-        <v>0</v>
-      </c>
-      <c r="E33" s="104">
-        <v>0</v>
-      </c>
-      <c r="F33" s="104">
-        <v>0</v>
-      </c>
-      <c r="G33" s="105">
-        <v>0</v>
-      </c>
-      <c r="H33" s="106">
+      <c r="D33" s="89">
+        <v>0</v>
+      </c>
+      <c r="E33" s="90">
+        <v>0</v>
+      </c>
+      <c r="F33" s="90">
+        <v>0</v>
+      </c>
+      <c r="G33" s="91">
+        <v>0</v>
+      </c>
+      <c r="H33" s="92">
         <v>1</v>
       </c>
-      <c r="I33" s="106">
-        <v>0</v>
-      </c>
-      <c r="J33" s="106">
-        <v>0</v>
-      </c>
-      <c r="K33" s="103">
-        <v>0</v>
-      </c>
-      <c r="L33" s="104">
+      <c r="I33" s="92">
+        <v>0</v>
+      </c>
+      <c r="J33" s="92">
+        <v>0</v>
+      </c>
+      <c r="K33" s="89">
+        <v>0</v>
+      </c>
+      <c r="L33" s="90">
         <v>1</v>
       </c>
-      <c r="M33" s="104">
+      <c r="M33" s="90">
         <v>1</v>
       </c>
-      <c r="N33" s="104">
-        <v>0</v>
-      </c>
-      <c r="O33" s="105">
-        <v>0</v>
-      </c>
-      <c r="P33" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="106">
-        <v>0</v>
-      </c>
-      <c r="R33" s="106">
-        <v>0</v>
-      </c>
-      <c r="S33" s="106">
-        <v>0</v>
-      </c>
-      <c r="T33" s="103">
-        <v>0</v>
-      </c>
-      <c r="U33" s="104">
-        <v>0</v>
-      </c>
-      <c r="V33" s="105">
-        <v>0</v>
-      </c>
-      <c r="W33" s="107">
+      <c r="N33" s="90">
+        <v>0</v>
+      </c>
+      <c r="O33" s="91">
+        <v>0</v>
+      </c>
+      <c r="P33" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="92">
+        <v>0</v>
+      </c>
+      <c r="R33" s="92">
+        <v>0</v>
+      </c>
+      <c r="S33" s="92">
+        <v>0</v>
+      </c>
+      <c r="T33" s="89">
+        <v>0</v>
+      </c>
+      <c r="U33" s="90">
+        <v>0</v>
+      </c>
+      <c r="V33" s="91">
+        <v>0</v>
+      </c>
+      <c r="W33" s="93">
         <v>1</v>
       </c>
-      <c r="X33" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="109">
+      <c r="X33" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="95">
         <v>1</v>
       </c>
-      <c r="Z33" s="110">
+      <c r="Z33" s="96">
         <v>1</v>
       </c>
-      <c r="AA33" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="110">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="112"/>
+      <c r="AA33" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="96">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="98"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
@@ -5087,95 +5086,95 @@
       <c r="AO33" s="4"/>
     </row>
     <row r="34" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="102" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="103">
-        <v>0</v>
-      </c>
-      <c r="E34" s="104">
-        <v>0</v>
-      </c>
-      <c r="F34" s="104">
-        <v>0</v>
-      </c>
-      <c r="G34" s="105">
-        <v>0</v>
-      </c>
-      <c r="H34" s="106">
+      <c r="D34" s="89">
+        <v>0</v>
+      </c>
+      <c r="E34" s="90">
+        <v>0</v>
+      </c>
+      <c r="F34" s="90">
+        <v>0</v>
+      </c>
+      <c r="G34" s="91">
+        <v>0</v>
+      </c>
+      <c r="H34" s="92">
         <v>1</v>
       </c>
-      <c r="I34" s="106">
-        <v>0</v>
-      </c>
-      <c r="J34" s="106">
-        <v>0</v>
-      </c>
-      <c r="K34" s="103">
-        <v>0</v>
-      </c>
-      <c r="L34" s="104">
+      <c r="I34" s="92">
+        <v>0</v>
+      </c>
+      <c r="J34" s="92">
+        <v>0</v>
+      </c>
+      <c r="K34" s="89">
+        <v>0</v>
+      </c>
+      <c r="L34" s="90">
         <v>1</v>
       </c>
-      <c r="M34" s="104">
+      <c r="M34" s="90">
         <v>1</v>
       </c>
-      <c r="N34" s="104">
-        <v>0</v>
-      </c>
-      <c r="O34" s="105">
+      <c r="N34" s="90">
+        <v>0</v>
+      </c>
+      <c r="O34" s="91">
         <v>1</v>
       </c>
-      <c r="P34" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="106">
-        <v>0</v>
-      </c>
-      <c r="R34" s="106">
-        <v>0</v>
-      </c>
-      <c r="S34" s="106">
-        <v>0</v>
-      </c>
-      <c r="T34" s="103">
-        <v>0</v>
-      </c>
-      <c r="U34" s="104">
-        <v>0</v>
-      </c>
-      <c r="V34" s="105">
-        <v>0</v>
-      </c>
-      <c r="W34" s="107">
+      <c r="P34" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="92">
+        <v>0</v>
+      </c>
+      <c r="R34" s="92">
+        <v>0</v>
+      </c>
+      <c r="S34" s="92">
+        <v>0</v>
+      </c>
+      <c r="T34" s="89">
+        <v>0</v>
+      </c>
+      <c r="U34" s="90">
+        <v>0</v>
+      </c>
+      <c r="V34" s="91">
+        <v>0</v>
+      </c>
+      <c r="W34" s="93">
         <v>1</v>
       </c>
-      <c r="X34" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="109">
+      <c r="X34" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="95">
         <v>1</v>
       </c>
-      <c r="Z34" s="110">
+      <c r="Z34" s="96">
         <v>1</v>
       </c>
-      <c r="AA34" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="110">
+      <c r="AA34" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="96">
         <v>0</v>
       </c>
       <c r="AF34" s="4"/>
@@ -5190,98 +5189,98 @@
       <c r="AO34" s="4"/>
     </row>
     <row r="35" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91" t="s">
+      <c r="B35" s="76"/>
+      <c r="C35" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="92">
-        <v>0</v>
-      </c>
-      <c r="E35" s="93">
-        <v>0</v>
-      </c>
-      <c r="F35" s="93">
-        <v>0</v>
-      </c>
-      <c r="G35" s="94">
-        <v>0</v>
-      </c>
-      <c r="H35" s="95">
-        <v>0</v>
-      </c>
-      <c r="I35" s="95">
-        <v>0</v>
-      </c>
-      <c r="J35" s="95">
-        <v>0</v>
-      </c>
-      <c r="K35" s="92">
-        <v>0</v>
-      </c>
-      <c r="L35" s="93">
-        <v>0</v>
-      </c>
-      <c r="M35" s="93">
-        <v>0</v>
-      </c>
-      <c r="N35" s="93">
-        <v>0</v>
-      </c>
-      <c r="O35" s="94">
-        <v>0</v>
-      </c>
-      <c r="P35" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="95">
-        <v>0</v>
-      </c>
-      <c r="R35" s="95">
-        <v>0</v>
-      </c>
-      <c r="S35" s="95">
-        <v>0</v>
-      </c>
-      <c r="T35" s="92">
-        <v>0</v>
-      </c>
-      <c r="U35" s="93">
-        <v>0</v>
-      </c>
-      <c r="V35" s="94">
-        <v>0</v>
-      </c>
-      <c r="W35" s="96">
-        <v>0</v>
-      </c>
-      <c r="X35" s="97">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="99">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="95">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="95">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="95">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="99">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="111"/>
+      <c r="D35" s="78">
+        <v>0</v>
+      </c>
+      <c r="E35" s="79">
+        <v>0</v>
+      </c>
+      <c r="F35" s="79">
+        <v>0</v>
+      </c>
+      <c r="G35" s="80">
+        <v>0</v>
+      </c>
+      <c r="H35" s="81">
+        <v>0</v>
+      </c>
+      <c r="I35" s="81">
+        <v>0</v>
+      </c>
+      <c r="J35" s="81">
+        <v>0</v>
+      </c>
+      <c r="K35" s="78">
+        <v>0</v>
+      </c>
+      <c r="L35" s="79">
+        <v>0</v>
+      </c>
+      <c r="M35" s="79">
+        <v>0</v>
+      </c>
+      <c r="N35" s="79">
+        <v>0</v>
+      </c>
+      <c r="O35" s="80">
+        <v>0</v>
+      </c>
+      <c r="P35" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="81">
+        <v>0</v>
+      </c>
+      <c r="R35" s="81">
+        <v>0</v>
+      </c>
+      <c r="S35" s="81">
+        <v>0</v>
+      </c>
+      <c r="T35" s="78">
+        <v>0</v>
+      </c>
+      <c r="U35" s="79">
+        <v>0</v>
+      </c>
+      <c r="V35" s="80">
+        <v>0</v>
+      </c>
+      <c r="W35" s="82">
+        <v>0</v>
+      </c>
+      <c r="X35" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="81">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="85">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="97"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
@@ -5293,95 +5292,95 @@
       <c r="AO35" s="4"/>
     </row>
     <row r="36" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="70">
-        <v>0</v>
-      </c>
-      <c r="E36" s="71">
-        <v>0</v>
-      </c>
-      <c r="F36" s="71">
-        <v>0</v>
-      </c>
-      <c r="G36" s="72">
-        <v>0</v>
-      </c>
-      <c r="H36" s="73">
-        <v>0</v>
-      </c>
-      <c r="I36" s="73">
-        <v>0</v>
-      </c>
-      <c r="J36" s="73">
-        <v>0</v>
-      </c>
-      <c r="K36" s="70">
-        <v>0</v>
-      </c>
-      <c r="L36" s="71">
-        <v>0</v>
-      </c>
-      <c r="M36" s="71">
-        <v>0</v>
-      </c>
-      <c r="N36" s="71">
-        <v>0</v>
-      </c>
-      <c r="O36" s="72">
-        <v>0</v>
-      </c>
-      <c r="P36" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="73">
-        <v>0</v>
-      </c>
-      <c r="R36" s="73">
-        <v>0</v>
-      </c>
-      <c r="S36" s="73">
-        <v>0</v>
-      </c>
-      <c r="T36" s="70">
-        <v>0</v>
-      </c>
-      <c r="U36" s="71">
-        <v>0</v>
-      </c>
-      <c r="V36" s="72">
-        <v>0</v>
-      </c>
-      <c r="W36" s="74">
-        <v>0</v>
-      </c>
-      <c r="X36" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="77">
+      <c r="D36" s="56">
+        <v>0</v>
+      </c>
+      <c r="E36" s="57">
+        <v>0</v>
+      </c>
+      <c r="F36" s="57">
+        <v>0</v>
+      </c>
+      <c r="G36" s="58">
+        <v>0</v>
+      </c>
+      <c r="H36" s="59">
+        <v>0</v>
+      </c>
+      <c r="I36" s="59">
+        <v>0</v>
+      </c>
+      <c r="J36" s="59">
+        <v>0</v>
+      </c>
+      <c r="K36" s="56">
+        <v>0</v>
+      </c>
+      <c r="L36" s="57">
+        <v>0</v>
+      </c>
+      <c r="M36" s="57">
+        <v>0</v>
+      </c>
+      <c r="N36" s="57">
+        <v>0</v>
+      </c>
+      <c r="O36" s="58">
+        <v>0</v>
+      </c>
+      <c r="P36" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="59">
+        <v>0</v>
+      </c>
+      <c r="R36" s="59">
+        <v>0</v>
+      </c>
+      <c r="S36" s="59">
+        <v>0</v>
+      </c>
+      <c r="T36" s="56">
+        <v>0</v>
+      </c>
+      <c r="U36" s="57">
+        <v>0</v>
+      </c>
+      <c r="V36" s="58">
+        <v>0</v>
+      </c>
+      <c r="W36" s="60">
+        <v>0</v>
+      </c>
+      <c r="X36" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="63">
         <v>0</v>
       </c>
       <c r="AF36" s="4"/>
@@ -5396,95 +5395,95 @@
       <c r="AO36" s="4"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="70">
-        <v>0</v>
-      </c>
-      <c r="E37" s="71">
-        <v>0</v>
-      </c>
-      <c r="F37" s="71">
-        <v>0</v>
-      </c>
-      <c r="G37" s="72">
-        <v>0</v>
-      </c>
-      <c r="H37" s="73">
-        <v>0</v>
-      </c>
-      <c r="I37" s="73">
-        <v>0</v>
-      </c>
-      <c r="J37" s="73">
-        <v>0</v>
-      </c>
-      <c r="K37" s="70">
-        <v>0</v>
-      </c>
-      <c r="L37" s="71">
-        <v>0</v>
-      </c>
-      <c r="M37" s="71">
-        <v>0</v>
-      </c>
-      <c r="N37" s="71">
-        <v>0</v>
-      </c>
-      <c r="O37" s="72">
-        <v>0</v>
-      </c>
-      <c r="P37" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="73">
-        <v>0</v>
-      </c>
-      <c r="R37" s="73">
-        <v>0</v>
-      </c>
-      <c r="S37" s="73">
-        <v>0</v>
-      </c>
-      <c r="T37" s="70">
-        <v>0</v>
-      </c>
-      <c r="U37" s="71">
-        <v>0</v>
-      </c>
-      <c r="V37" s="72">
-        <v>0</v>
-      </c>
-      <c r="W37" s="74">
-        <v>0</v>
-      </c>
-      <c r="X37" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="77">
+      <c r="D37" s="56">
+        <v>0</v>
+      </c>
+      <c r="E37" s="57">
+        <v>0</v>
+      </c>
+      <c r="F37" s="57">
+        <v>0</v>
+      </c>
+      <c r="G37" s="58">
+        <v>0</v>
+      </c>
+      <c r="H37" s="59">
+        <v>0</v>
+      </c>
+      <c r="I37" s="59">
+        <v>0</v>
+      </c>
+      <c r="J37" s="59">
+        <v>0</v>
+      </c>
+      <c r="K37" s="56">
+        <v>0</v>
+      </c>
+      <c r="L37" s="57">
+        <v>0</v>
+      </c>
+      <c r="M37" s="57">
+        <v>0</v>
+      </c>
+      <c r="N37" s="57">
+        <v>0</v>
+      </c>
+      <c r="O37" s="58">
+        <v>0</v>
+      </c>
+      <c r="P37" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="59">
+        <v>0</v>
+      </c>
+      <c r="R37" s="59">
+        <v>0</v>
+      </c>
+      <c r="S37" s="59">
+        <v>0</v>
+      </c>
+      <c r="T37" s="56">
+        <v>0</v>
+      </c>
+      <c r="U37" s="57">
+        <v>0</v>
+      </c>
+      <c r="V37" s="58">
+        <v>0</v>
+      </c>
+      <c r="W37" s="60">
+        <v>0</v>
+      </c>
+      <c r="X37" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="63">
         <v>0</v>
       </c>
       <c r="AF37" s="4"/>
@@ -5499,95 +5498,95 @@
       <c r="AO37" s="4"/>
     </row>
     <row r="38" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69" t="s">
+      <c r="B38" s="54"/>
+      <c r="C38" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="70">
-        <v>0</v>
-      </c>
-      <c r="E38" s="71">
-        <v>0</v>
-      </c>
-      <c r="F38" s="71">
-        <v>0</v>
-      </c>
-      <c r="G38" s="72">
-        <v>0</v>
-      </c>
-      <c r="H38" s="73">
-        <v>0</v>
-      </c>
-      <c r="I38" s="73">
-        <v>0</v>
-      </c>
-      <c r="J38" s="73">
-        <v>0</v>
-      </c>
-      <c r="K38" s="70">
-        <v>0</v>
-      </c>
-      <c r="L38" s="71">
-        <v>0</v>
-      </c>
-      <c r="M38" s="71">
-        <v>0</v>
-      </c>
-      <c r="N38" s="71">
-        <v>0</v>
-      </c>
-      <c r="O38" s="72">
-        <v>0</v>
-      </c>
-      <c r="P38" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="73">
-        <v>0</v>
-      </c>
-      <c r="R38" s="73">
-        <v>0</v>
-      </c>
-      <c r="S38" s="73">
-        <v>0</v>
-      </c>
-      <c r="T38" s="70">
-        <v>0</v>
-      </c>
-      <c r="U38" s="71">
-        <v>0</v>
-      </c>
-      <c r="V38" s="72">
-        <v>0</v>
-      </c>
-      <c r="W38" s="74">
-        <v>0</v>
-      </c>
-      <c r="X38" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="77">
+      <c r="D38" s="56">
+        <v>0</v>
+      </c>
+      <c r="E38" s="57">
+        <v>0</v>
+      </c>
+      <c r="F38" s="57">
+        <v>0</v>
+      </c>
+      <c r="G38" s="58">
+        <v>0</v>
+      </c>
+      <c r="H38" s="59">
+        <v>0</v>
+      </c>
+      <c r="I38" s="59">
+        <v>0</v>
+      </c>
+      <c r="J38" s="59">
+        <v>0</v>
+      </c>
+      <c r="K38" s="56">
+        <v>0</v>
+      </c>
+      <c r="L38" s="57">
+        <v>0</v>
+      </c>
+      <c r="M38" s="57">
+        <v>0</v>
+      </c>
+      <c r="N38" s="57">
+        <v>0</v>
+      </c>
+      <c r="O38" s="58">
+        <v>0</v>
+      </c>
+      <c r="P38" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="59">
+        <v>0</v>
+      </c>
+      <c r="R38" s="59">
+        <v>0</v>
+      </c>
+      <c r="S38" s="59">
+        <v>0</v>
+      </c>
+      <c r="T38" s="56">
+        <v>0</v>
+      </c>
+      <c r="U38" s="57">
+        <v>0</v>
+      </c>
+      <c r="V38" s="58">
+        <v>0</v>
+      </c>
+      <c r="W38" s="60">
+        <v>0</v>
+      </c>
+      <c r="X38" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="63">
         <v>0</v>
       </c>
       <c r="AF38" s="4"/>
@@ -5602,95 +5601,95 @@
       <c r="AO38" s="4"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="70">
-        <v>0</v>
-      </c>
-      <c r="E39" s="71">
-        <v>0</v>
-      </c>
-      <c r="F39" s="71">
-        <v>0</v>
-      </c>
-      <c r="G39" s="72">
-        <v>0</v>
-      </c>
-      <c r="H39" s="73">
-        <v>0</v>
-      </c>
-      <c r="I39" s="73">
-        <v>0</v>
-      </c>
-      <c r="J39" s="73">
-        <v>0</v>
-      </c>
-      <c r="K39" s="70">
-        <v>0</v>
-      </c>
-      <c r="L39" s="71">
-        <v>0</v>
-      </c>
-      <c r="M39" s="71">
-        <v>0</v>
-      </c>
-      <c r="N39" s="71">
-        <v>0</v>
-      </c>
-      <c r="O39" s="72">
-        <v>0</v>
-      </c>
-      <c r="P39" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="73">
-        <v>0</v>
-      </c>
-      <c r="R39" s="73">
-        <v>0</v>
-      </c>
-      <c r="S39" s="73">
-        <v>0</v>
-      </c>
-      <c r="T39" s="70">
-        <v>0</v>
-      </c>
-      <c r="U39" s="71">
-        <v>0</v>
-      </c>
-      <c r="V39" s="72">
-        <v>0</v>
-      </c>
-      <c r="W39" s="74">
-        <v>0</v>
-      </c>
-      <c r="X39" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="77">
+      <c r="D39" s="56">
+        <v>0</v>
+      </c>
+      <c r="E39" s="57">
+        <v>0</v>
+      </c>
+      <c r="F39" s="57">
+        <v>0</v>
+      </c>
+      <c r="G39" s="58">
+        <v>0</v>
+      </c>
+      <c r="H39" s="59">
+        <v>0</v>
+      </c>
+      <c r="I39" s="59">
+        <v>0</v>
+      </c>
+      <c r="J39" s="59">
+        <v>0</v>
+      </c>
+      <c r="K39" s="56">
+        <v>0</v>
+      </c>
+      <c r="L39" s="57">
+        <v>0</v>
+      </c>
+      <c r="M39" s="57">
+        <v>0</v>
+      </c>
+      <c r="N39" s="57">
+        <v>0</v>
+      </c>
+      <c r="O39" s="58">
+        <v>0</v>
+      </c>
+      <c r="P39" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="59">
+        <v>0</v>
+      </c>
+      <c r="R39" s="59">
+        <v>0</v>
+      </c>
+      <c r="S39" s="59">
+        <v>0</v>
+      </c>
+      <c r="T39" s="56">
+        <v>0</v>
+      </c>
+      <c r="U39" s="57">
+        <v>0</v>
+      </c>
+      <c r="V39" s="58">
+        <v>0</v>
+      </c>
+      <c r="W39" s="60">
+        <v>0</v>
+      </c>
+      <c r="X39" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="63">
         <v>0</v>
       </c>
       <c r="AF39" s="4"/>
@@ -5705,95 +5704,95 @@
       <c r="AO39" s="4"/>
     </row>
     <row r="40" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="70">
-        <v>0</v>
-      </c>
-      <c r="E40" s="71">
-        <v>0</v>
-      </c>
-      <c r="F40" s="71">
-        <v>0</v>
-      </c>
-      <c r="G40" s="72">
-        <v>0</v>
-      </c>
-      <c r="H40" s="73">
-        <v>0</v>
-      </c>
-      <c r="I40" s="73">
-        <v>0</v>
-      </c>
-      <c r="J40" s="73">
-        <v>0</v>
-      </c>
-      <c r="K40" s="70">
-        <v>0</v>
-      </c>
-      <c r="L40" s="71">
-        <v>0</v>
-      </c>
-      <c r="M40" s="71">
-        <v>0</v>
-      </c>
-      <c r="N40" s="71">
-        <v>0</v>
-      </c>
-      <c r="O40" s="72">
-        <v>0</v>
-      </c>
-      <c r="P40" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="73">
-        <v>0</v>
-      </c>
-      <c r="R40" s="73">
-        <v>0</v>
-      </c>
-      <c r="S40" s="73">
-        <v>0</v>
-      </c>
-      <c r="T40" s="70">
-        <v>0</v>
-      </c>
-      <c r="U40" s="71">
-        <v>0</v>
-      </c>
-      <c r="V40" s="72">
-        <v>0</v>
-      </c>
-      <c r="W40" s="74">
-        <v>0</v>
-      </c>
-      <c r="X40" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="73">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="77">
+      <c r="D40" s="56">
+        <v>0</v>
+      </c>
+      <c r="E40" s="57">
+        <v>0</v>
+      </c>
+      <c r="F40" s="57">
+        <v>0</v>
+      </c>
+      <c r="G40" s="58">
+        <v>0</v>
+      </c>
+      <c r="H40" s="59">
+        <v>0</v>
+      </c>
+      <c r="I40" s="59">
+        <v>0</v>
+      </c>
+      <c r="J40" s="59">
+        <v>0</v>
+      </c>
+      <c r="K40" s="56">
+        <v>0</v>
+      </c>
+      <c r="L40" s="57">
+        <v>0</v>
+      </c>
+      <c r="M40" s="57">
+        <v>0</v>
+      </c>
+      <c r="N40" s="57">
+        <v>0</v>
+      </c>
+      <c r="O40" s="58">
+        <v>0</v>
+      </c>
+      <c r="P40" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="59">
+        <v>0</v>
+      </c>
+      <c r="R40" s="59">
+        <v>0</v>
+      </c>
+      <c r="S40" s="59">
+        <v>0</v>
+      </c>
+      <c r="T40" s="56">
+        <v>0</v>
+      </c>
+      <c r="U40" s="57">
+        <v>0</v>
+      </c>
+      <c r="V40" s="58">
+        <v>0</v>
+      </c>
+      <c r="W40" s="60">
+        <v>0</v>
+      </c>
+      <c r="X40" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="63">
         <v>0</v>
       </c>
       <c r="AF40" s="4"/>
@@ -5808,95 +5807,95 @@
       <c r="AO40" s="4"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="103">
-        <v>0</v>
-      </c>
-      <c r="E41" s="104">
-        <v>0</v>
-      </c>
-      <c r="F41" s="104">
-        <v>0</v>
-      </c>
-      <c r="G41" s="105">
-        <v>0</v>
-      </c>
-      <c r="H41" s="106">
+      <c r="D41" s="89">
+        <v>0</v>
+      </c>
+      <c r="E41" s="90">
+        <v>0</v>
+      </c>
+      <c r="F41" s="90">
+        <v>0</v>
+      </c>
+      <c r="G41" s="91">
+        <v>0</v>
+      </c>
+      <c r="H41" s="92">
         <v>1</v>
       </c>
-      <c r="I41" s="106">
-        <v>0</v>
-      </c>
-      <c r="J41" s="106">
-        <v>0</v>
-      </c>
-      <c r="K41" s="103">
+      <c r="I41" s="92">
+        <v>0</v>
+      </c>
+      <c r="J41" s="92">
+        <v>0</v>
+      </c>
+      <c r="K41" s="89">
         <v>1</v>
       </c>
-      <c r="L41" s="104">
-        <v>0</v>
-      </c>
-      <c r="M41" s="104">
+      <c r="L41" s="90">
+        <v>0</v>
+      </c>
+      <c r="M41" s="90">
         <v>1</v>
       </c>
-      <c r="N41" s="104">
+      <c r="N41" s="90">
         <v>1</v>
       </c>
-      <c r="O41" s="105">
-        <v>0</v>
-      </c>
-      <c r="P41" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="106">
-        <v>0</v>
-      </c>
-      <c r="R41" s="106">
-        <v>0</v>
-      </c>
-      <c r="S41" s="106">
-        <v>0</v>
-      </c>
-      <c r="T41" s="103">
-        <v>0</v>
-      </c>
-      <c r="U41" s="104">
-        <v>0</v>
-      </c>
-      <c r="V41" s="105">
-        <v>0</v>
-      </c>
-      <c r="W41" s="107">
+      <c r="O41" s="91">
+        <v>0</v>
+      </c>
+      <c r="P41" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="92">
+        <v>0</v>
+      </c>
+      <c r="R41" s="92">
+        <v>0</v>
+      </c>
+      <c r="S41" s="92">
+        <v>0</v>
+      </c>
+      <c r="T41" s="89">
+        <v>0</v>
+      </c>
+      <c r="U41" s="90">
+        <v>0</v>
+      </c>
+      <c r="V41" s="91">
+        <v>0</v>
+      </c>
+      <c r="W41" s="93">
         <v>1</v>
       </c>
-      <c r="X41" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="110">
+      <c r="X41" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="96">
         <v>1</v>
       </c>
-      <c r="AA41" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="110">
+      <c r="AA41" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="96">
         <v>0</v>
       </c>
       <c r="AF41" s="4"/>
@@ -5911,95 +5910,95 @@
       <c r="AO41" s="4"/>
     </row>
     <row r="42" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="103">
-        <v>0</v>
-      </c>
-      <c r="E42" s="104">
-        <v>0</v>
-      </c>
-      <c r="F42" s="104">
-        <v>0</v>
-      </c>
-      <c r="G42" s="105">
-        <v>0</v>
-      </c>
-      <c r="H42" s="106">
+      <c r="D42" s="89">
+        <v>0</v>
+      </c>
+      <c r="E42" s="90">
+        <v>0</v>
+      </c>
+      <c r="F42" s="90">
+        <v>0</v>
+      </c>
+      <c r="G42" s="91">
+        <v>0</v>
+      </c>
+      <c r="H42" s="92">
         <v>1</v>
       </c>
-      <c r="I42" s="106">
-        <v>0</v>
-      </c>
-      <c r="J42" s="106">
-        <v>0</v>
-      </c>
-      <c r="K42" s="103">
+      <c r="I42" s="92">
+        <v>0</v>
+      </c>
+      <c r="J42" s="92">
+        <v>0</v>
+      </c>
+      <c r="K42" s="89">
         <v>1</v>
       </c>
-      <c r="L42" s="104">
+      <c r="L42" s="90">
         <v>1</v>
       </c>
-      <c r="M42" s="104">
-        <v>0</v>
-      </c>
-      <c r="N42" s="104">
-        <v>0</v>
-      </c>
-      <c r="O42" s="105">
-        <v>0</v>
-      </c>
-      <c r="P42" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="106">
-        <v>0</v>
-      </c>
-      <c r="R42" s="106">
-        <v>0</v>
-      </c>
-      <c r="S42" s="106">
-        <v>0</v>
-      </c>
-      <c r="T42" s="103">
-        <v>0</v>
-      </c>
-      <c r="U42" s="104">
-        <v>0</v>
-      </c>
-      <c r="V42" s="105">
-        <v>0</v>
-      </c>
-      <c r="W42" s="107">
+      <c r="M42" s="90">
+        <v>0</v>
+      </c>
+      <c r="N42" s="90">
+        <v>0</v>
+      </c>
+      <c r="O42" s="91">
+        <v>0</v>
+      </c>
+      <c r="P42" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="92">
+        <v>0</v>
+      </c>
+      <c r="R42" s="92">
+        <v>0</v>
+      </c>
+      <c r="S42" s="92">
+        <v>0</v>
+      </c>
+      <c r="T42" s="89">
+        <v>0</v>
+      </c>
+      <c r="U42" s="90">
+        <v>0</v>
+      </c>
+      <c r="V42" s="91">
+        <v>0</v>
+      </c>
+      <c r="W42" s="93">
         <v>1</v>
       </c>
-      <c r="X42" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="110">
+      <c r="X42" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="96">
         <v>1</v>
       </c>
-      <c r="AA42" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="110">
+      <c r="AA42" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="96">
         <v>0</v>
       </c>
       <c r="AF42" s="4"/>
@@ -6014,95 +6013,95 @@
       <c r="AO42" s="4"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102" t="s">
+      <c r="B43" s="87"/>
+      <c r="C43" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="103">
-        <v>0</v>
-      </c>
-      <c r="E43" s="104">
-        <v>0</v>
-      </c>
-      <c r="F43" s="104">
-        <v>0</v>
-      </c>
-      <c r="G43" s="105">
-        <v>0</v>
-      </c>
-      <c r="H43" s="106">
-        <v>0</v>
-      </c>
-      <c r="I43" s="106">
-        <v>0</v>
-      </c>
-      <c r="J43" s="106">
-        <v>0</v>
-      </c>
-      <c r="K43" s="103">
-        <v>0</v>
-      </c>
-      <c r="L43" s="104">
-        <v>0</v>
-      </c>
-      <c r="M43" s="104">
-        <v>0</v>
-      </c>
-      <c r="N43" s="104">
-        <v>0</v>
-      </c>
-      <c r="O43" s="105">
-        <v>0</v>
-      </c>
-      <c r="P43" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="106">
-        <v>0</v>
-      </c>
-      <c r="R43" s="106">
-        <v>0</v>
-      </c>
-      <c r="S43" s="106">
-        <v>0</v>
-      </c>
-      <c r="T43" s="103">
-        <v>0</v>
-      </c>
-      <c r="U43" s="104">
-        <v>0</v>
-      </c>
-      <c r="V43" s="105">
-        <v>0</v>
-      </c>
-      <c r="W43" s="107">
+      <c r="D43" s="89">
+        <v>0</v>
+      </c>
+      <c r="E43" s="90">
+        <v>0</v>
+      </c>
+      <c r="F43" s="90">
+        <v>0</v>
+      </c>
+      <c r="G43" s="91">
+        <v>0</v>
+      </c>
+      <c r="H43" s="92">
+        <v>0</v>
+      </c>
+      <c r="I43" s="92">
+        <v>0</v>
+      </c>
+      <c r="J43" s="92">
+        <v>0</v>
+      </c>
+      <c r="K43" s="89">
+        <v>0</v>
+      </c>
+      <c r="L43" s="90">
+        <v>0</v>
+      </c>
+      <c r="M43" s="90">
+        <v>0</v>
+      </c>
+      <c r="N43" s="90">
+        <v>0</v>
+      </c>
+      <c r="O43" s="91">
+        <v>0</v>
+      </c>
+      <c r="P43" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="92">
+        <v>0</v>
+      </c>
+      <c r="R43" s="92">
+        <v>0</v>
+      </c>
+      <c r="S43" s="92">
+        <v>0</v>
+      </c>
+      <c r="T43" s="89">
+        <v>0</v>
+      </c>
+      <c r="U43" s="90">
+        <v>0</v>
+      </c>
+      <c r="V43" s="91">
+        <v>0</v>
+      </c>
+      <c r="W43" s="93">
         <v>1</v>
       </c>
-      <c r="X43" s="108">
+      <c r="X43" s="94">
         <v>1</v>
       </c>
-      <c r="Y43" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="110">
+      <c r="Y43" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="96">
         <v>0</v>
       </c>
       <c r="AF43" s="4"/>
@@ -6117,95 +6116,95 @@
       <c r="AO43" s="4"/>
     </row>
     <row r="44" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102" t="s">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="103">
-        <v>0</v>
-      </c>
-      <c r="E44" s="104">
-        <v>0</v>
-      </c>
-      <c r="F44" s="104">
-        <v>0</v>
-      </c>
-      <c r="G44" s="105">
-        <v>0</v>
-      </c>
-      <c r="H44" s="106">
-        <v>0</v>
-      </c>
-      <c r="I44" s="106">
-        <v>0</v>
-      </c>
-      <c r="J44" s="106">
-        <v>0</v>
-      </c>
-      <c r="K44" s="103">
-        <v>0</v>
-      </c>
-      <c r="L44" s="104">
-        <v>0</v>
-      </c>
-      <c r="M44" s="104">
-        <v>0</v>
-      </c>
-      <c r="N44" s="104">
-        <v>0</v>
-      </c>
-      <c r="O44" s="105">
-        <v>0</v>
-      </c>
-      <c r="P44" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="106">
-        <v>0</v>
-      </c>
-      <c r="R44" s="106">
-        <v>0</v>
-      </c>
-      <c r="S44" s="106">
-        <v>0</v>
-      </c>
-      <c r="T44" s="103">
-        <v>0</v>
-      </c>
-      <c r="U44" s="104">
-        <v>0</v>
-      </c>
-      <c r="V44" s="105">
-        <v>0</v>
-      </c>
-      <c r="W44" s="107">
-        <v>0</v>
-      </c>
-      <c r="X44" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="106">
+      <c r="D44" s="89">
+        <v>0</v>
+      </c>
+      <c r="E44" s="90">
+        <v>0</v>
+      </c>
+      <c r="F44" s="90">
+        <v>0</v>
+      </c>
+      <c r="G44" s="91">
+        <v>0</v>
+      </c>
+      <c r="H44" s="92">
+        <v>0</v>
+      </c>
+      <c r="I44" s="92">
+        <v>0</v>
+      </c>
+      <c r="J44" s="92">
+        <v>0</v>
+      </c>
+      <c r="K44" s="89">
+        <v>0</v>
+      </c>
+      <c r="L44" s="90">
+        <v>0</v>
+      </c>
+      <c r="M44" s="90">
+        <v>0</v>
+      </c>
+      <c r="N44" s="90">
+        <v>0</v>
+      </c>
+      <c r="O44" s="91">
+        <v>0</v>
+      </c>
+      <c r="P44" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="92">
+        <v>0</v>
+      </c>
+      <c r="R44" s="92">
+        <v>0</v>
+      </c>
+      <c r="S44" s="92">
+        <v>0</v>
+      </c>
+      <c r="T44" s="89">
+        <v>0</v>
+      </c>
+      <c r="U44" s="90">
+        <v>0</v>
+      </c>
+      <c r="V44" s="91">
+        <v>0</v>
+      </c>
+      <c r="W44" s="93">
+        <v>0</v>
+      </c>
+      <c r="X44" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="92">
         <v>1</v>
       </c>
-      <c r="AC44" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="110">
+      <c r="AC44" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="96">
         <v>0</v>
       </c>
       <c r="AF44" s="4"/>
@@ -6220,95 +6219,95 @@
       <c r="AO44" s="4"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102" t="s">
+      <c r="B45" s="87"/>
+      <c r="C45" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="103">
-        <v>0</v>
-      </c>
-      <c r="E45" s="104">
-        <v>0</v>
-      </c>
-      <c r="F45" s="104">
-        <v>0</v>
-      </c>
-      <c r="G45" s="105">
-        <v>0</v>
-      </c>
-      <c r="H45" s="106">
-        <v>0</v>
-      </c>
-      <c r="I45" s="106">
-        <v>0</v>
-      </c>
-      <c r="J45" s="106">
-        <v>0</v>
-      </c>
-      <c r="K45" s="103">
-        <v>0</v>
-      </c>
-      <c r="L45" s="104">
-        <v>0</v>
-      </c>
-      <c r="M45" s="104">
-        <v>0</v>
-      </c>
-      <c r="N45" s="104">
-        <v>0</v>
-      </c>
-      <c r="O45" s="105">
-        <v>0</v>
-      </c>
-      <c r="P45" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="106">
-        <v>0</v>
-      </c>
-      <c r="R45" s="106">
-        <v>0</v>
-      </c>
-      <c r="S45" s="106">
-        <v>0</v>
-      </c>
-      <c r="T45" s="103">
-        <v>0</v>
-      </c>
-      <c r="U45" s="104">
-        <v>0</v>
-      </c>
-      <c r="V45" s="105">
-        <v>0</v>
-      </c>
-      <c r="W45" s="107">
-        <v>0</v>
-      </c>
-      <c r="X45" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="110">
+      <c r="D45" s="89">
+        <v>0</v>
+      </c>
+      <c r="E45" s="90">
+        <v>0</v>
+      </c>
+      <c r="F45" s="90">
+        <v>0</v>
+      </c>
+      <c r="G45" s="91">
+        <v>0</v>
+      </c>
+      <c r="H45" s="92">
+        <v>0</v>
+      </c>
+      <c r="I45" s="92">
+        <v>0</v>
+      </c>
+      <c r="J45" s="92">
+        <v>1</v>
+      </c>
+      <c r="K45" s="89">
+        <v>0</v>
+      </c>
+      <c r="L45" s="90">
+        <v>0</v>
+      </c>
+      <c r="M45" s="90">
+        <v>0</v>
+      </c>
+      <c r="N45" s="90">
+        <v>0</v>
+      </c>
+      <c r="O45" s="91">
+        <v>0</v>
+      </c>
+      <c r="P45" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="92">
+        <v>1</v>
+      </c>
+      <c r="R45" s="92">
+        <v>0</v>
+      </c>
+      <c r="S45" s="92">
+        <v>0</v>
+      </c>
+      <c r="T45" s="89">
+        <v>0</v>
+      </c>
+      <c r="U45" s="90">
+        <v>0</v>
+      </c>
+      <c r="V45" s="91">
+        <v>0</v>
+      </c>
+      <c r="W45" s="93">
+        <v>0</v>
+      </c>
+      <c r="X45" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="96">
         <v>0</v>
       </c>
       <c r="AF45" s="4"/>
@@ -6323,95 +6322,95 @@
       <c r="AO45" s="4"/>
     </row>
     <row r="46" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="102" t="s">
+      <c r="B46" s="87"/>
+      <c r="C46" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="103">
-        <v>0</v>
-      </c>
-      <c r="E46" s="104">
-        <v>0</v>
-      </c>
-      <c r="F46" s="104">
-        <v>0</v>
-      </c>
-      <c r="G46" s="105">
-        <v>0</v>
-      </c>
-      <c r="H46" s="106">
-        <v>0</v>
-      </c>
-      <c r="I46" s="106">
-        <v>0</v>
-      </c>
-      <c r="J46" s="106">
-        <v>0</v>
-      </c>
-      <c r="K46" s="103">
-        <v>0</v>
-      </c>
-      <c r="L46" s="104">
-        <v>0</v>
-      </c>
-      <c r="M46" s="104">
-        <v>0</v>
-      </c>
-      <c r="N46" s="104">
-        <v>0</v>
-      </c>
-      <c r="O46" s="105">
-        <v>0</v>
-      </c>
-      <c r="P46" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="106">
-        <v>0</v>
-      </c>
-      <c r="R46" s="106">
-        <v>0</v>
-      </c>
-      <c r="S46" s="106">
-        <v>0</v>
-      </c>
-      <c r="T46" s="103">
-        <v>0</v>
-      </c>
-      <c r="U46" s="104">
-        <v>0</v>
-      </c>
-      <c r="V46" s="105">
-        <v>0</v>
-      </c>
-      <c r="W46" s="107">
-        <v>0</v>
-      </c>
-      <c r="X46" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="110">
+      <c r="D46" s="89">
+        <v>0</v>
+      </c>
+      <c r="E46" s="90">
+        <v>0</v>
+      </c>
+      <c r="F46" s="90">
+        <v>0</v>
+      </c>
+      <c r="G46" s="91">
+        <v>0</v>
+      </c>
+      <c r="H46" s="92">
+        <v>0</v>
+      </c>
+      <c r="I46" s="92">
+        <v>0</v>
+      </c>
+      <c r="J46" s="92">
+        <v>1</v>
+      </c>
+      <c r="K46" s="89">
+        <v>0</v>
+      </c>
+      <c r="L46" s="90">
+        <v>0</v>
+      </c>
+      <c r="M46" s="90">
+        <v>0</v>
+      </c>
+      <c r="N46" s="90">
+        <v>0</v>
+      </c>
+      <c r="O46" s="91">
+        <v>0</v>
+      </c>
+      <c r="P46" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="92">
+        <v>1</v>
+      </c>
+      <c r="R46" s="92">
+        <v>0</v>
+      </c>
+      <c r="S46" s="92">
+        <v>1</v>
+      </c>
+      <c r="T46" s="89">
+        <v>0</v>
+      </c>
+      <c r="U46" s="90">
+        <v>0</v>
+      </c>
+      <c r="V46" s="91">
+        <v>0</v>
+      </c>
+      <c r="W46" s="93">
+        <v>0</v>
+      </c>
+      <c r="X46" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="96">
         <v>0</v>
       </c>
       <c r="AF46" s="4"/>
@@ -6426,95 +6425,95 @@
       <c r="AO46" s="4"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="102" t="s">
+      <c r="B47" s="87"/>
+      <c r="C47" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="103">
-        <v>0</v>
-      </c>
-      <c r="E47" s="104">
-        <v>0</v>
-      </c>
-      <c r="F47" s="104">
-        <v>0</v>
-      </c>
-      <c r="G47" s="105">
-        <v>0</v>
-      </c>
-      <c r="H47" s="106">
+      <c r="D47" s="89">
+        <v>0</v>
+      </c>
+      <c r="E47" s="90">
+        <v>0</v>
+      </c>
+      <c r="F47" s="90">
+        <v>0</v>
+      </c>
+      <c r="G47" s="91">
+        <v>0</v>
+      </c>
+      <c r="H47" s="92">
         <v>1</v>
       </c>
-      <c r="I47" s="106">
-        <v>0</v>
-      </c>
-      <c r="J47" s="106">
-        <v>0</v>
-      </c>
-      <c r="K47" s="103">
-        <v>0</v>
-      </c>
-      <c r="L47" s="104">
-        <v>0</v>
-      </c>
-      <c r="M47" s="104">
+      <c r="I47" s="92">
+        <v>0</v>
+      </c>
+      <c r="J47" s="92">
+        <v>0</v>
+      </c>
+      <c r="K47" s="89">
+        <v>0</v>
+      </c>
+      <c r="L47" s="90">
+        <v>0</v>
+      </c>
+      <c r="M47" s="90">
         <v>1</v>
       </c>
-      <c r="N47" s="104">
-        <v>0</v>
-      </c>
-      <c r="O47" s="105">
-        <v>0</v>
-      </c>
-      <c r="P47" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="106">
-        <v>0</v>
-      </c>
-      <c r="R47" s="106">
-        <v>0</v>
-      </c>
-      <c r="S47" s="106">
-        <v>0</v>
-      </c>
-      <c r="T47" s="103">
-        <v>0</v>
-      </c>
-      <c r="U47" s="104">
-        <v>0</v>
-      </c>
-      <c r="V47" s="105">
-        <v>0</v>
-      </c>
-      <c r="W47" s="107">
+      <c r="N47" s="90">
+        <v>0</v>
+      </c>
+      <c r="O47" s="91">
+        <v>0</v>
+      </c>
+      <c r="P47" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="92">
+        <v>0</v>
+      </c>
+      <c r="R47" s="92">
+        <v>0</v>
+      </c>
+      <c r="S47" s="92">
+        <v>0</v>
+      </c>
+      <c r="T47" s="89">
+        <v>0</v>
+      </c>
+      <c r="U47" s="90">
+        <v>0</v>
+      </c>
+      <c r="V47" s="91">
+        <v>0</v>
+      </c>
+      <c r="W47" s="93">
         <v>1</v>
       </c>
-      <c r="X47" s="108">
+      <c r="X47" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="96">
         <v>1</v>
       </c>
-      <c r="Y47" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="110">
+      <c r="AA47" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="96">
         <v>0</v>
       </c>
       <c r="AF47" s="4"/>
@@ -6529,95 +6528,95 @@
       <c r="AO47" s="4"/>
     </row>
     <row r="48" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="103">
-        <v>0</v>
-      </c>
-      <c r="E48" s="104">
-        <v>0</v>
-      </c>
-      <c r="F48" s="104">
-        <v>0</v>
-      </c>
-      <c r="G48" s="105">
-        <v>0</v>
-      </c>
-      <c r="H48" s="106">
+      <c r="D48" s="89">
+        <v>0</v>
+      </c>
+      <c r="E48" s="90">
+        <v>0</v>
+      </c>
+      <c r="F48" s="90">
+        <v>0</v>
+      </c>
+      <c r="G48" s="91">
+        <v>0</v>
+      </c>
+      <c r="H48" s="92">
         <v>1</v>
       </c>
-      <c r="I48" s="106">
-        <v>0</v>
-      </c>
-      <c r="J48" s="106">
-        <v>0</v>
-      </c>
-      <c r="K48" s="103">
-        <v>0</v>
-      </c>
-      <c r="L48" s="104">
-        <v>0</v>
-      </c>
-      <c r="M48" s="104">
+      <c r="I48" s="92">
+        <v>0</v>
+      </c>
+      <c r="J48" s="92">
+        <v>0</v>
+      </c>
+      <c r="K48" s="89">
+        <v>0</v>
+      </c>
+      <c r="L48" s="90">
+        <v>0</v>
+      </c>
+      <c r="M48" s="90">
         <v>1</v>
       </c>
-      <c r="N48" s="104">
-        <v>0</v>
-      </c>
-      <c r="O48" s="105">
+      <c r="N48" s="90">
+        <v>0</v>
+      </c>
+      <c r="O48" s="91">
         <v>1</v>
       </c>
-      <c r="P48" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="106">
-        <v>0</v>
-      </c>
-      <c r="R48" s="106">
-        <v>0</v>
-      </c>
-      <c r="S48" s="106">
-        <v>0</v>
-      </c>
-      <c r="T48" s="103">
-        <v>0</v>
-      </c>
-      <c r="U48" s="104">
-        <v>0</v>
-      </c>
-      <c r="V48" s="105">
-        <v>0</v>
-      </c>
-      <c r="W48" s="107">
+      <c r="P48" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="92">
+        <v>0</v>
+      </c>
+      <c r="R48" s="92">
+        <v>0</v>
+      </c>
+      <c r="S48" s="92">
+        <v>0</v>
+      </c>
+      <c r="T48" s="89">
+        <v>0</v>
+      </c>
+      <c r="U48" s="90">
+        <v>0</v>
+      </c>
+      <c r="V48" s="91">
+        <v>0</v>
+      </c>
+      <c r="W48" s="93">
         <v>1</v>
       </c>
-      <c r="X48" s="108">
+      <c r="X48" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="96">
         <v>1</v>
       </c>
-      <c r="Y48" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="110">
+      <c r="AA48" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="96">
         <v>0</v>
       </c>
       <c r="AF48" s="4"/>
@@ -6632,95 +6631,95 @@
       <c r="AO48" s="4"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102" t="s">
+      <c r="B49" s="87"/>
+      <c r="C49" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="103">
-        <v>0</v>
-      </c>
-      <c r="E49" s="104">
-        <v>0</v>
-      </c>
-      <c r="F49" s="104">
-        <v>0</v>
-      </c>
-      <c r="G49" s="105">
-        <v>0</v>
-      </c>
-      <c r="H49" s="106">
+      <c r="D49" s="89">
+        <v>0</v>
+      </c>
+      <c r="E49" s="90">
+        <v>0</v>
+      </c>
+      <c r="F49" s="90">
+        <v>0</v>
+      </c>
+      <c r="G49" s="91">
+        <v>0</v>
+      </c>
+      <c r="H49" s="92">
         <v>1</v>
       </c>
-      <c r="I49" s="106">
-        <v>0</v>
-      </c>
-      <c r="J49" s="106">
-        <v>0</v>
-      </c>
-      <c r="K49" s="103">
-        <v>0</v>
-      </c>
-      <c r="L49" s="104">
-        <v>0</v>
-      </c>
-      <c r="M49" s="104">
+      <c r="I49" s="92">
+        <v>0</v>
+      </c>
+      <c r="J49" s="92">
+        <v>0</v>
+      </c>
+      <c r="K49" s="89">
+        <v>0</v>
+      </c>
+      <c r="L49" s="90">
+        <v>0</v>
+      </c>
+      <c r="M49" s="90">
         <v>1</v>
       </c>
-      <c r="N49" s="104">
+      <c r="N49" s="90">
         <v>1</v>
       </c>
-      <c r="O49" s="105">
-        <v>0</v>
-      </c>
-      <c r="P49" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="106">
-        <v>0</v>
-      </c>
-      <c r="R49" s="106">
-        <v>0</v>
-      </c>
-      <c r="S49" s="106">
-        <v>0</v>
-      </c>
-      <c r="T49" s="103">
-        <v>0</v>
-      </c>
-      <c r="U49" s="104">
-        <v>0</v>
-      </c>
-      <c r="V49" s="105">
-        <v>0</v>
-      </c>
-      <c r="W49" s="107">
+      <c r="O49" s="91">
+        <v>0</v>
+      </c>
+      <c r="P49" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="92">
+        <v>0</v>
+      </c>
+      <c r="R49" s="92">
+        <v>0</v>
+      </c>
+      <c r="S49" s="92">
+        <v>0</v>
+      </c>
+      <c r="T49" s="89">
+        <v>0</v>
+      </c>
+      <c r="U49" s="90">
+        <v>0</v>
+      </c>
+      <c r="V49" s="91">
+        <v>0</v>
+      </c>
+      <c r="W49" s="93">
         <v>1</v>
       </c>
-      <c r="X49" s="108">
+      <c r="X49" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="96">
         <v>1</v>
       </c>
-      <c r="Y49" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="110">
+      <c r="AA49" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="96">
         <v>0</v>
       </c>
       <c r="AF49" s="4"/>
@@ -6735,95 +6734,95 @@
       <c r="AO49" s="4"/>
     </row>
     <row r="50" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102" t="s">
+      <c r="B50" s="87"/>
+      <c r="C50" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="103">
-        <v>0</v>
-      </c>
-      <c r="E50" s="104">
-        <v>0</v>
-      </c>
-      <c r="F50" s="104">
-        <v>0</v>
-      </c>
-      <c r="G50" s="105">
-        <v>0</v>
-      </c>
-      <c r="H50" s="106">
+      <c r="D50" s="89">
+        <v>0</v>
+      </c>
+      <c r="E50" s="90">
+        <v>0</v>
+      </c>
+      <c r="F50" s="90">
+        <v>0</v>
+      </c>
+      <c r="G50" s="91">
+        <v>0</v>
+      </c>
+      <c r="H50" s="92">
         <v>1</v>
       </c>
-      <c r="I50" s="106">
-        <v>0</v>
-      </c>
-      <c r="J50" s="106">
-        <v>0</v>
-      </c>
-      <c r="K50" s="103">
-        <v>0</v>
-      </c>
-      <c r="L50" s="104">
-        <v>0</v>
-      </c>
-      <c r="M50" s="104">
+      <c r="I50" s="92">
+        <v>0</v>
+      </c>
+      <c r="J50" s="92">
+        <v>0</v>
+      </c>
+      <c r="K50" s="89">
+        <v>0</v>
+      </c>
+      <c r="L50" s="90">
+        <v>0</v>
+      </c>
+      <c r="M50" s="90">
         <v>1</v>
       </c>
-      <c r="N50" s="104">
+      <c r="N50" s="90">
         <v>1</v>
       </c>
-      <c r="O50" s="105">
+      <c r="O50" s="91">
         <v>1</v>
       </c>
-      <c r="P50" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="106">
-        <v>0</v>
-      </c>
-      <c r="R50" s="106">
-        <v>0</v>
-      </c>
-      <c r="S50" s="106">
-        <v>0</v>
-      </c>
-      <c r="T50" s="103">
-        <v>0</v>
-      </c>
-      <c r="U50" s="104">
-        <v>0</v>
-      </c>
-      <c r="V50" s="105">
-        <v>0</v>
-      </c>
-      <c r="W50" s="107">
+      <c r="P50" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="92">
+        <v>0</v>
+      </c>
+      <c r="R50" s="92">
+        <v>0</v>
+      </c>
+      <c r="S50" s="92">
+        <v>0</v>
+      </c>
+      <c r="T50" s="89">
+        <v>0</v>
+      </c>
+      <c r="U50" s="90">
+        <v>0</v>
+      </c>
+      <c r="V50" s="91">
+        <v>0</v>
+      </c>
+      <c r="W50" s="93">
         <v>1</v>
       </c>
-      <c r="X50" s="108">
+      <c r="X50" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="96">
         <v>1</v>
       </c>
-      <c r="Y50" s="109">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="110">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="110">
+      <c r="AA50" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="96">
         <v>0</v>
       </c>
       <c r="AF50" s="4"/>
@@ -6838,95 +6837,95 @@
       <c r="AO50" s="4"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102" t="s">
+      <c r="B51" s="87"/>
+      <c r="C51" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="103">
-        <v>0</v>
-      </c>
-      <c r="E51" s="104">
-        <v>0</v>
-      </c>
-      <c r="F51" s="104">
-        <v>0</v>
-      </c>
-      <c r="G51" s="105">
-        <v>0</v>
-      </c>
-      <c r="H51" s="106">
-        <v>0</v>
-      </c>
-      <c r="I51" s="106">
-        <v>0</v>
-      </c>
-      <c r="J51" s="106">
-        <v>0</v>
-      </c>
-      <c r="K51" s="103">
+      <c r="D51" s="89">
+        <v>0</v>
+      </c>
+      <c r="E51" s="90">
+        <v>0</v>
+      </c>
+      <c r="F51" s="90">
+        <v>0</v>
+      </c>
+      <c r="G51" s="91">
+        <v>0</v>
+      </c>
+      <c r="H51" s="92">
+        <v>0</v>
+      </c>
+      <c r="I51" s="92">
+        <v>0</v>
+      </c>
+      <c r="J51" s="92">
+        <v>0</v>
+      </c>
+      <c r="K51" s="89">
         <v>1</v>
       </c>
-      <c r="L51" s="104">
-        <v>0</v>
-      </c>
-      <c r="M51" s="104">
-        <v>0</v>
-      </c>
-      <c r="N51" s="104">
-        <v>0</v>
-      </c>
-      <c r="O51" s="105">
-        <v>0</v>
-      </c>
-      <c r="P51" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="106">
-        <v>0</v>
-      </c>
-      <c r="R51" s="106">
-        <v>0</v>
-      </c>
-      <c r="S51" s="106">
-        <v>0</v>
-      </c>
-      <c r="T51" s="103">
-        <v>0</v>
-      </c>
-      <c r="U51" s="104">
-        <v>0</v>
-      </c>
-      <c r="V51" s="105">
-        <v>0</v>
-      </c>
-      <c r="W51" s="107">
+      <c r="L51" s="90">
+        <v>0</v>
+      </c>
+      <c r="M51" s="90">
+        <v>0</v>
+      </c>
+      <c r="N51" s="90">
+        <v>0</v>
+      </c>
+      <c r="O51" s="91">
+        <v>0</v>
+      </c>
+      <c r="P51" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="92">
+        <v>0</v>
+      </c>
+      <c r="R51" s="92">
+        <v>0</v>
+      </c>
+      <c r="S51" s="92">
+        <v>0</v>
+      </c>
+      <c r="T51" s="89">
+        <v>0</v>
+      </c>
+      <c r="U51" s="90">
+        <v>0</v>
+      </c>
+      <c r="V51" s="91">
+        <v>0</v>
+      </c>
+      <c r="W51" s="93">
         <v>1</v>
       </c>
-      <c r="X51" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="109">
+      <c r="X51" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="95">
         <v>1</v>
       </c>
-      <c r="Z51" s="110">
+      <c r="Z51" s="96">
         <v>1</v>
       </c>
-      <c r="AA51" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="110">
+      <c r="AA51" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="96">
         <v>0</v>
       </c>
       <c r="AF51" s="4"/>
@@ -6941,95 +6940,95 @@
       <c r="AO51" s="4"/>
     </row>
     <row r="52" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102" t="s">
+      <c r="B52" s="87"/>
+      <c r="C52" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="103">
-        <v>0</v>
-      </c>
-      <c r="E52" s="104">
-        <v>0</v>
-      </c>
-      <c r="F52" s="104">
-        <v>0</v>
-      </c>
-      <c r="G52" s="105">
-        <v>0</v>
-      </c>
-      <c r="H52" s="106">
-        <v>0</v>
-      </c>
-      <c r="I52" s="106">
-        <v>0</v>
-      </c>
-      <c r="J52" s="106">
-        <v>0</v>
-      </c>
-      <c r="K52" s="103">
+      <c r="D52" s="89">
+        <v>0</v>
+      </c>
+      <c r="E52" s="90">
+        <v>0</v>
+      </c>
+      <c r="F52" s="90">
+        <v>0</v>
+      </c>
+      <c r="G52" s="91">
+        <v>0</v>
+      </c>
+      <c r="H52" s="92">
+        <v>0</v>
+      </c>
+      <c r="I52" s="92">
+        <v>0</v>
+      </c>
+      <c r="J52" s="92">
+        <v>0</v>
+      </c>
+      <c r="K52" s="89">
         <v>1</v>
       </c>
-      <c r="L52" s="104">
-        <v>0</v>
-      </c>
-      <c r="M52" s="104">
-        <v>0</v>
-      </c>
-      <c r="N52" s="104">
-        <v>0</v>
-      </c>
-      <c r="O52" s="105">
+      <c r="L52" s="90">
+        <v>0</v>
+      </c>
+      <c r="M52" s="90">
+        <v>0</v>
+      </c>
+      <c r="N52" s="90">
+        <v>0</v>
+      </c>
+      <c r="O52" s="91">
         <v>1</v>
       </c>
-      <c r="P52" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="106">
-        <v>0</v>
-      </c>
-      <c r="R52" s="106">
-        <v>0</v>
-      </c>
-      <c r="S52" s="106">
-        <v>0</v>
-      </c>
-      <c r="T52" s="103">
-        <v>0</v>
-      </c>
-      <c r="U52" s="104">
-        <v>0</v>
-      </c>
-      <c r="V52" s="105">
-        <v>0</v>
-      </c>
-      <c r="W52" s="107">
+      <c r="P52" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="92">
+        <v>0</v>
+      </c>
+      <c r="R52" s="92">
+        <v>0</v>
+      </c>
+      <c r="S52" s="92">
+        <v>0</v>
+      </c>
+      <c r="T52" s="89">
+        <v>0</v>
+      </c>
+      <c r="U52" s="90">
+        <v>0</v>
+      </c>
+      <c r="V52" s="91">
+        <v>0</v>
+      </c>
+      <c r="W52" s="93">
         <v>1</v>
       </c>
-      <c r="X52" s="108">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="109">
+      <c r="X52" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="95">
         <v>1</v>
       </c>
-      <c r="Z52" s="110">
+      <c r="Z52" s="96">
         <v>1</v>
       </c>
-      <c r="AA52" s="106">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="106">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="106">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="106">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="110">
+      <c r="AA52" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="96">
         <v>0</v>
       </c>
       <c r="AF52" s="4"/>
@@ -7044,95 +7043,95 @@
       <c r="AO52" s="4"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="81">
-        <v>0</v>
-      </c>
-      <c r="E53" s="82">
-        <v>0</v>
-      </c>
-      <c r="F53" s="82">
-        <v>0</v>
-      </c>
-      <c r="G53" s="83">
-        <v>0</v>
-      </c>
-      <c r="H53" s="84">
-        <v>0</v>
-      </c>
-      <c r="I53" s="84">
-        <v>0</v>
-      </c>
-      <c r="J53" s="84">
-        <v>0</v>
-      </c>
-      <c r="K53" s="81">
-        <v>0</v>
-      </c>
-      <c r="L53" s="82">
-        <v>0</v>
-      </c>
-      <c r="M53" s="82">
-        <v>0</v>
-      </c>
-      <c r="N53" s="82">
-        <v>0</v>
-      </c>
-      <c r="O53" s="83">
-        <v>0</v>
-      </c>
-      <c r="P53" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="84">
-        <v>0</v>
-      </c>
-      <c r="R53" s="84">
-        <v>0</v>
-      </c>
-      <c r="S53" s="84">
-        <v>0</v>
-      </c>
-      <c r="T53" s="81">
-        <v>0</v>
-      </c>
-      <c r="U53" s="82">
-        <v>0</v>
-      </c>
-      <c r="V53" s="83">
-        <v>0</v>
-      </c>
-      <c r="W53" s="85">
-        <v>0</v>
-      </c>
-      <c r="X53" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="87">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="84">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="84">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="84">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="84">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="88">
+      <c r="D53" s="67">
+        <v>0</v>
+      </c>
+      <c r="E53" s="68">
+        <v>0</v>
+      </c>
+      <c r="F53" s="68">
+        <v>0</v>
+      </c>
+      <c r="G53" s="69">
+        <v>0</v>
+      </c>
+      <c r="H53" s="70">
+        <v>0</v>
+      </c>
+      <c r="I53" s="70">
+        <v>0</v>
+      </c>
+      <c r="J53" s="70">
+        <v>0</v>
+      </c>
+      <c r="K53" s="67">
+        <v>0</v>
+      </c>
+      <c r="L53" s="68">
+        <v>0</v>
+      </c>
+      <c r="M53" s="68">
+        <v>0</v>
+      </c>
+      <c r="N53" s="68">
+        <v>0</v>
+      </c>
+      <c r="O53" s="69">
+        <v>0</v>
+      </c>
+      <c r="P53" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="70">
+        <v>0</v>
+      </c>
+      <c r="R53" s="70">
+        <v>0</v>
+      </c>
+      <c r="S53" s="70">
+        <v>0</v>
+      </c>
+      <c r="T53" s="67">
+        <v>0</v>
+      </c>
+      <c r="U53" s="68">
+        <v>0</v>
+      </c>
+      <c r="V53" s="69">
+        <v>0</v>
+      </c>
+      <c r="W53" s="71">
+        <v>0</v>
+      </c>
+      <c r="X53" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="73">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="70">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="70">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="70">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="74">
         <v>0</v>
       </c>
       <c r="AF53" s="4"/>
@@ -47882,11 +47881,12 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47901,7 +47901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/rat6/RAT 6 Table.xlsx
+++ b/rat6/RAT 6 Table.xlsx
@@ -1777,8 +1777,8 @@
   <dimension ref="A1:AO1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="94">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="X22" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="96">
         <v>1</v>
@@ -4021,10 +4021,10 @@
         <v>1</v>
       </c>
       <c r="X23" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="96">
         <v>1</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="94">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="94">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="94">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="94">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="94">
         <v>0</v>
